--- a/mat/cMat.xlsx
+++ b/mat/cMat.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>sum</t>
   </si>
@@ -83,17 +83,19 @@
   <si>
     <t>Predicted Scenes</t>
   </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,6 +166,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -197,7 +207,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -495,14 +505,246 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -521,107 +763,138 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -924,21 +1197,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA43"/>
+  <dimension ref="A1:AS43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AG18" sqref="AG18"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AN12" sqref="AN12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.7109375" customWidth="1"/>
     <col min="2" max="2" width="6.5703125" customWidth="1"/>
-    <col min="3" max="19" width="8.7109375" customWidth="1"/>
+    <col min="3" max="20" width="8.7109375" customWidth="1"/>
     <col min="21" max="21" width="1.7109375" customWidth="1"/>
+    <col min="23" max="23" width="1.7109375" customWidth="1"/>
+    <col min="24" max="24" width="6.5703125" customWidth="1"/>
+    <col min="25" max="42" width="8.7109375" customWidth="1"/>
+    <col min="43" max="43" width="1.7109375" customWidth="1"/>
+    <col min="44" max="44" width="8.7109375" customWidth="1"/>
+    <col min="45" max="45" width="1.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
@@ -990,909 +1269,918 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="str">
         <f>E1</f>
         <v>CALsuburb</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="2">
+      <c r="E2" s="60">
         <v>141</v>
       </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0</v>
-      </c>
-      <c r="L2" s="2">
-        <v>0</v>
-      </c>
-      <c r="M2" s="2">
-        <v>0</v>
-      </c>
-      <c r="N2" s="2">
-        <v>0</v>
-      </c>
-      <c r="O2" s="2">
-        <v>0</v>
-      </c>
-      <c r="P2" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>0</v>
-      </c>
-      <c r="R2" s="2">
-        <v>0</v>
-      </c>
-      <c r="S2" s="2">
+      <c r="F2" s="61">
+        <v>0</v>
+      </c>
+      <c r="G2" s="61">
+        <v>0</v>
+      </c>
+      <c r="H2" s="61">
+        <v>0</v>
+      </c>
+      <c r="I2" s="61">
+        <v>0</v>
+      </c>
+      <c r="J2" s="61">
+        <v>0</v>
+      </c>
+      <c r="K2" s="61">
+        <v>0</v>
+      </c>
+      <c r="L2" s="61">
+        <v>0</v>
+      </c>
+      <c r="M2" s="61">
+        <v>0</v>
+      </c>
+      <c r="N2" s="61">
+        <v>0</v>
+      </c>
+      <c r="O2" s="61">
+        <v>0</v>
+      </c>
+      <c r="P2" s="61">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="61">
+        <v>0</v>
+      </c>
+      <c r="R2" s="61">
+        <v>0</v>
+      </c>
+      <c r="S2" s="62">
         <v>0</v>
       </c>
       <c r="T2">
-        <f>SUM(E2:S2)</f>
+        <f t="shared" ref="T2:T16" si="0">SUM(E2:S2)</f>
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="str">
         <f>F1</f>
         <v>MITcoast</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
+      <c r="E3" s="63">
+        <v>0</v>
+      </c>
+      <c r="F3" s="64">
         <v>215</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="64">
         <v>2</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="64">
         <v>4</v>
       </c>
-      <c r="I3" s="2">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2">
+      <c r="I3" s="64">
+        <v>0</v>
+      </c>
+      <c r="J3" s="64">
         <v>4</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="64">
         <v>31</v>
       </c>
-      <c r="L3" s="2">
-        <v>0</v>
-      </c>
-      <c r="M3" s="2">
-        <v>0</v>
-      </c>
-      <c r="N3" s="2">
-        <v>0</v>
-      </c>
-      <c r="O3" s="2">
+      <c r="L3" s="64">
+        <v>0</v>
+      </c>
+      <c r="M3" s="64">
+        <v>0</v>
+      </c>
+      <c r="N3" s="64">
+        <v>0</v>
+      </c>
+      <c r="O3" s="64">
         <v>3</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3" s="64">
         <v>1</v>
       </c>
-      <c r="Q3" s="2">
-        <v>0</v>
-      </c>
-      <c r="R3" s="2">
-        <v>0</v>
-      </c>
-      <c r="S3" s="2">
+      <c r="Q3" s="64">
+        <v>0</v>
+      </c>
+      <c r="R3" s="64">
+        <v>0</v>
+      </c>
+      <c r="S3" s="65">
         <v>0</v>
       </c>
       <c r="T3">
-        <f>SUM(E3:S3)</f>
+        <f t="shared" si="0"/>
         <v>260</v>
       </c>
     </row>
-    <row r="4" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="str">
         <f>G1</f>
         <v>MITforest</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
+      <c r="E4" s="63">
+        <v>0</v>
+      </c>
+      <c r="F4" s="64">
+        <v>0</v>
+      </c>
+      <c r="G4" s="64">
         <v>216</v>
       </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2">
+      <c r="H4" s="64">
+        <v>0</v>
+      </c>
+      <c r="I4" s="64">
+        <v>0</v>
+      </c>
+      <c r="J4" s="64">
         <v>11</v>
       </c>
-      <c r="K4" s="2">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2">
+      <c r="K4" s="64">
+        <v>0</v>
+      </c>
+      <c r="L4" s="64">
         <v>1</v>
       </c>
-      <c r="M4" s="2">
-        <v>0</v>
-      </c>
-      <c r="N4" s="2">
-        <v>0</v>
-      </c>
-      <c r="O4" s="2">
-        <v>0</v>
-      </c>
-      <c r="P4" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>0</v>
-      </c>
-      <c r="R4" s="2">
-        <v>0</v>
-      </c>
-      <c r="S4" s="2">
+      <c r="M4" s="64">
+        <v>0</v>
+      </c>
+      <c r="N4" s="64">
+        <v>0</v>
+      </c>
+      <c r="O4" s="64">
+        <v>0</v>
+      </c>
+      <c r="P4" s="64">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="64">
+        <v>0</v>
+      </c>
+      <c r="R4" s="64">
+        <v>0</v>
+      </c>
+      <c r="S4" s="65">
         <v>0</v>
       </c>
       <c r="T4">
-        <f>SUM(E4:S4)</f>
+        <f t="shared" si="0"/>
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="str">
         <f>H1</f>
         <v>MIThighway</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="2">
+      <c r="E5" s="63">
         <v>1</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="64">
         <v>12</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="64">
         <v>1</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="64">
         <v>113</v>
       </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2">
+      <c r="I5" s="64">
+        <v>0</v>
+      </c>
+      <c r="J5" s="64">
         <v>8</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="64">
         <v>12</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="64">
         <v>6</v>
       </c>
-      <c r="M5" s="2">
-        <v>0</v>
-      </c>
-      <c r="N5" s="2">
-        <v>0</v>
-      </c>
-      <c r="O5" s="2">
-        <v>0</v>
-      </c>
-      <c r="P5" s="2">
+      <c r="M5" s="64">
+        <v>0</v>
+      </c>
+      <c r="N5" s="64">
+        <v>0</v>
+      </c>
+      <c r="O5" s="64">
+        <v>0</v>
+      </c>
+      <c r="P5" s="64">
         <v>6</v>
       </c>
-      <c r="Q5" s="2">
-        <v>0</v>
-      </c>
-      <c r="R5" s="2">
-        <v>0</v>
-      </c>
-      <c r="S5" s="2">
+      <c r="Q5" s="64">
+        <v>0</v>
+      </c>
+      <c r="R5" s="64">
+        <v>0</v>
+      </c>
+      <c r="S5" s="65">
         <v>1</v>
       </c>
       <c r="T5">
-        <f>SUM(E5:S5)</f>
+        <f t="shared" si="0"/>
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="str">
         <f>I1</f>
         <v>MITinsidecity</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="2">
+      <c r="E6" s="63">
         <v>5</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="64">
         <v>2</v>
       </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
+      <c r="G6" s="64">
+        <v>0</v>
+      </c>
+      <c r="H6" s="64">
         <v>3</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="64">
         <v>152</v>
       </c>
-      <c r="J6" s="2">
-        <v>0</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0</v>
-      </c>
-      <c r="L6" s="2">
+      <c r="J6" s="64">
+        <v>0</v>
+      </c>
+      <c r="K6" s="64">
+        <v>0</v>
+      </c>
+      <c r="L6" s="64">
         <v>25</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="64">
         <v>6</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="64">
         <v>1</v>
       </c>
-      <c r="O6" s="2">
-        <v>0</v>
-      </c>
-      <c r="P6" s="2">
+      <c r="O6" s="64">
+        <v>0</v>
+      </c>
+      <c r="P6" s="64">
         <v>7</v>
       </c>
-      <c r="Q6" s="2">
-        <v>0</v>
-      </c>
-      <c r="R6" s="2">
+      <c r="Q6" s="64">
+        <v>0</v>
+      </c>
+      <c r="R6" s="64">
         <v>1</v>
       </c>
-      <c r="S6" s="2">
+      <c r="S6" s="65">
         <v>6</v>
       </c>
       <c r="T6">
-        <f>SUM(E6:S6)</f>
+        <f t="shared" si="0"/>
         <v>208</v>
       </c>
     </row>
-    <row r="7" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="str">
         <f>J1</f>
         <v>MITmountain</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
+      <c r="E7" s="63">
+        <v>0</v>
+      </c>
+      <c r="F7" s="64">
         <v>7</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="64">
         <v>9</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="64">
         <v>3</v>
       </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2">
+      <c r="I7" s="64">
+        <v>0</v>
+      </c>
+      <c r="J7" s="64">
         <v>236</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="64">
         <v>11</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="64">
         <v>4</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="64">
         <v>1</v>
       </c>
-      <c r="N7" s="2">
-        <v>0</v>
-      </c>
-      <c r="O7" s="2">
+      <c r="N7" s="64">
+        <v>0</v>
+      </c>
+      <c r="O7" s="64">
         <v>1</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7" s="64">
         <v>2</v>
       </c>
-      <c r="Q7" s="2">
-        <v>0</v>
-      </c>
-      <c r="R7" s="2">
-        <v>0</v>
-      </c>
-      <c r="S7" s="2">
+      <c r="Q7" s="64">
+        <v>0</v>
+      </c>
+      <c r="R7" s="64">
+        <v>0</v>
+      </c>
+      <c r="S7" s="65">
         <v>0</v>
       </c>
       <c r="T7">
-        <f>SUM(E7:S7)</f>
+        <f t="shared" si="0"/>
         <v>274</v>
       </c>
     </row>
-    <row r="8" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="str">
         <f>K1</f>
         <v>MITopencountry</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="2">
+      <c r="E8" s="63">
         <v>7</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="64">
         <v>41</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="64">
         <v>14</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="64">
         <v>3</v>
       </c>
-      <c r="I8" s="2">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2">
+      <c r="I8" s="64">
+        <v>0</v>
+      </c>
+      <c r="J8" s="64">
         <v>23</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="64">
         <v>211</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="64">
         <v>5</v>
       </c>
-      <c r="M8" s="2">
-        <v>0</v>
-      </c>
-      <c r="N8" s="2">
-        <v>0</v>
-      </c>
-      <c r="O8" s="2">
-        <v>0</v>
-      </c>
-      <c r="P8" s="2">
+      <c r="M8" s="64">
+        <v>0</v>
+      </c>
+      <c r="N8" s="64">
+        <v>0</v>
+      </c>
+      <c r="O8" s="64">
+        <v>0</v>
+      </c>
+      <c r="P8" s="64">
         <v>3</v>
       </c>
-      <c r="Q8" s="2">
-        <v>0</v>
-      </c>
-      <c r="R8" s="2">
-        <v>0</v>
-      </c>
-      <c r="S8" s="2">
+      <c r="Q8" s="64">
+        <v>0</v>
+      </c>
+      <c r="R8" s="64">
+        <v>0</v>
+      </c>
+      <c r="S8" s="65">
         <v>3</v>
       </c>
       <c r="T8">
-        <f>SUM(E8:S8)</f>
+        <f t="shared" si="0"/>
         <v>310</v>
       </c>
+      <c r="AC8" s="47"/>
+      <c r="AD8" s="48"/>
     </row>
-    <row r="9" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="str">
         <f>L1</f>
         <v>MITstreet</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
+      <c r="E9" s="63">
+        <v>0</v>
+      </c>
+      <c r="F9" s="64">
+        <v>0</v>
+      </c>
+      <c r="G9" s="64">
+        <v>0</v>
+      </c>
+      <c r="H9" s="64">
         <v>6</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="64">
         <v>2</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="64">
         <v>1</v>
       </c>
-      <c r="K9" s="2">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2">
+      <c r="K9" s="64">
+        <v>0</v>
+      </c>
+      <c r="L9" s="64">
         <v>173</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9" s="64">
         <v>4</v>
       </c>
-      <c r="N9" s="2">
-        <v>0</v>
-      </c>
-      <c r="O9" s="2">
-        <v>0</v>
-      </c>
-      <c r="P9" s="2">
+      <c r="N9" s="64">
+        <v>0</v>
+      </c>
+      <c r="O9" s="64">
+        <v>0</v>
+      </c>
+      <c r="P9" s="64">
         <v>3</v>
       </c>
-      <c r="Q9" s="2">
-        <v>0</v>
-      </c>
-      <c r="R9" s="2">
+      <c r="Q9" s="64">
+        <v>0</v>
+      </c>
+      <c r="R9" s="64">
         <v>2</v>
       </c>
-      <c r="S9" s="2">
+      <c r="S9" s="65">
         <v>1</v>
       </c>
       <c r="T9">
-        <f>SUM(E9:S9)</f>
+        <f t="shared" si="0"/>
         <v>192</v>
       </c>
+      <c r="Z9" s="59"/>
+      <c r="AC9" s="49"/>
+      <c r="AD9" s="50"/>
     </row>
-    <row r="10" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="str">
         <f>M1</f>
         <v>MITtallbuilding</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2">
+      <c r="E10" s="63">
+        <v>0</v>
+      </c>
+      <c r="F10" s="64">
+        <v>0</v>
+      </c>
+      <c r="G10" s="64">
         <v>1</v>
       </c>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2">
+      <c r="H10" s="64">
+        <v>0</v>
+      </c>
+      <c r="I10" s="64">
         <v>8</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="64">
         <v>1</v>
       </c>
-      <c r="K10" s="2">
-        <v>0</v>
-      </c>
-      <c r="L10" s="2">
+      <c r="K10" s="64">
+        <v>0</v>
+      </c>
+      <c r="L10" s="64">
         <v>1</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10" s="64">
         <v>237</v>
       </c>
-      <c r="N10" s="2">
-        <v>0</v>
-      </c>
-      <c r="O10" s="2">
-        <v>0</v>
-      </c>
-      <c r="P10" s="2">
+      <c r="N10" s="64">
+        <v>0</v>
+      </c>
+      <c r="O10" s="64">
+        <v>0</v>
+      </c>
+      <c r="P10" s="64">
         <v>6</v>
       </c>
-      <c r="Q10" s="2">
-        <v>0</v>
-      </c>
-      <c r="R10" s="2">
+      <c r="Q10" s="64">
+        <v>0</v>
+      </c>
+      <c r="R10" s="64">
         <v>1</v>
       </c>
-      <c r="S10" s="2">
+      <c r="S10" s="65">
         <v>1</v>
       </c>
       <c r="T10">
-        <f>SUM(E10:S10)</f>
+        <f t="shared" si="0"/>
         <v>256</v>
       </c>
+      <c r="AC10" s="49"/>
+      <c r="AD10" s="50"/>
     </row>
-    <row r="11" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="str">
         <f>N1</f>
         <v>PARoffice</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2">
-        <v>0</v>
-      </c>
-      <c r="K11" s="2">
-        <v>0</v>
-      </c>
-      <c r="L11" s="2">
-        <v>0</v>
-      </c>
-      <c r="M11" s="2">
-        <v>0</v>
-      </c>
-      <c r="N11" s="2">
+      <c r="E11" s="63">
+        <v>0</v>
+      </c>
+      <c r="F11" s="64">
+        <v>0</v>
+      </c>
+      <c r="G11" s="64">
+        <v>0</v>
+      </c>
+      <c r="H11" s="64">
+        <v>0</v>
+      </c>
+      <c r="I11" s="64">
+        <v>0</v>
+      </c>
+      <c r="J11" s="64">
+        <v>0</v>
+      </c>
+      <c r="K11" s="64">
+        <v>0</v>
+      </c>
+      <c r="L11" s="64">
+        <v>0</v>
+      </c>
+      <c r="M11" s="64">
+        <v>0</v>
+      </c>
+      <c r="N11" s="64">
         <v>102</v>
       </c>
-      <c r="O11" s="2">
+      <c r="O11" s="64">
         <v>1</v>
       </c>
-      <c r="P11" s="2">
+      <c r="P11" s="64">
         <v>1</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="Q11" s="64">
         <v>8</v>
       </c>
-      <c r="R11" s="2">
+      <c r="R11" s="64">
         <v>2</v>
       </c>
-      <c r="S11" s="2">
+      <c r="S11" s="65">
         <v>1</v>
       </c>
       <c r="T11">
-        <f>SUM(E11:S11)</f>
+        <f t="shared" si="0"/>
         <v>115</v>
       </c>
+      <c r="AC11" s="51"/>
+      <c r="AD11" s="52"/>
     </row>
-    <row r="12" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="str">
         <f>O1</f>
         <v>bedroom</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2">
+      <c r="E12" s="63">
+        <v>0</v>
+      </c>
+      <c r="F12" s="64">
+        <v>0</v>
+      </c>
+      <c r="G12" s="64">
+        <v>0</v>
+      </c>
+      <c r="H12" s="64">
         <v>1</v>
       </c>
-      <c r="I12" s="2">
-        <v>0</v>
-      </c>
-      <c r="J12" s="2">
+      <c r="I12" s="64">
+        <v>0</v>
+      </c>
+      <c r="J12" s="64">
         <v>1</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="64">
         <v>1</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12" s="64">
         <v>2</v>
       </c>
-      <c r="M12" s="2">
-        <v>0</v>
-      </c>
-      <c r="N12" s="2">
+      <c r="M12" s="64">
+        <v>0</v>
+      </c>
+      <c r="N12" s="64">
         <v>5</v>
       </c>
-      <c r="O12" s="2">
+      <c r="O12" s="64">
         <v>69</v>
       </c>
-      <c r="P12" s="2">
+      <c r="P12" s="64">
         <v>2</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="Q12" s="64">
         <v>7</v>
       </c>
-      <c r="R12" s="2">
+      <c r="R12" s="64">
         <v>26</v>
       </c>
-      <c r="S12" s="2">
+      <c r="S12" s="65">
         <v>2</v>
       </c>
       <c r="T12">
-        <f>SUM(E12:S12)</f>
+        <f t="shared" si="0"/>
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="str">
         <f>P1</f>
         <v>industrial</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="2">
+      <c r="E13" s="63">
         <v>3</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="64">
         <v>1</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="64">
         <v>1</v>
       </c>
-      <c r="H13" s="2">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2">
+      <c r="H13" s="64">
+        <v>0</v>
+      </c>
+      <c r="I13" s="64">
         <v>17</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="64">
         <v>2</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="64">
         <v>2</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13" s="64">
         <v>11</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M13" s="64">
         <v>27</v>
       </c>
-      <c r="N13" s="2">
+      <c r="N13" s="64">
         <v>3</v>
       </c>
-      <c r="O13" s="2">
+      <c r="O13" s="64">
         <v>2</v>
       </c>
-      <c r="P13" s="2">
+      <c r="P13" s="64">
         <v>109</v>
       </c>
-      <c r="Q13" s="2">
-        <v>0</v>
-      </c>
-      <c r="R13" s="2">
+      <c r="Q13" s="64">
+        <v>0</v>
+      </c>
+      <c r="R13" s="64">
         <v>4</v>
       </c>
-      <c r="S13" s="2">
+      <c r="S13" s="65">
         <v>29</v>
       </c>
       <c r="T13">
-        <f>SUM(E13:S13)</f>
+        <f t="shared" si="0"/>
         <v>211</v>
       </c>
     </row>
-    <row r="14" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="str">
         <f>Q1</f>
         <v>kitchen</v>
       </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="2">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2">
+      <c r="E14" s="63">
+        <v>0</v>
+      </c>
+      <c r="F14" s="64">
+        <v>0</v>
+      </c>
+      <c r="G14" s="64">
+        <v>0</v>
+      </c>
+      <c r="H14" s="64">
+        <v>0</v>
+      </c>
+      <c r="I14" s="64">
         <v>4</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="64">
         <v>1</v>
       </c>
-      <c r="K14" s="2">
-        <v>0</v>
-      </c>
-      <c r="L14" s="2">
-        <v>0</v>
-      </c>
-      <c r="M14" s="2">
-        <v>0</v>
-      </c>
-      <c r="N14" s="2">
+      <c r="K14" s="64">
+        <v>0</v>
+      </c>
+      <c r="L14" s="64">
+        <v>0</v>
+      </c>
+      <c r="M14" s="64">
+        <v>0</v>
+      </c>
+      <c r="N14" s="64">
         <v>2</v>
       </c>
-      <c r="O14" s="2">
+      <c r="O14" s="64">
         <v>8</v>
       </c>
-      <c r="P14" s="2">
+      <c r="P14" s="64">
         <v>2</v>
       </c>
-      <c r="Q14" s="2">
+      <c r="Q14" s="64">
         <v>70</v>
       </c>
-      <c r="R14" s="2">
+      <c r="R14" s="64">
         <v>20</v>
       </c>
-      <c r="S14" s="2">
+      <c r="S14" s="65">
         <v>3</v>
       </c>
       <c r="T14">
-        <f>SUM(E14:S14)</f>
+        <f t="shared" si="0"/>
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="str">
         <f>R1</f>
         <v>livingroom</v>
       </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="2">
+      <c r="E15" s="63">
         <v>1</v>
       </c>
-      <c r="F15" s="2">
-        <v>0</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0</v>
-      </c>
-      <c r="I15" s="2">
+      <c r="F15" s="64">
+        <v>0</v>
+      </c>
+      <c r="G15" s="64">
+        <v>0</v>
+      </c>
+      <c r="H15" s="64">
+        <v>0</v>
+      </c>
+      <c r="I15" s="64">
         <v>2</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="64">
         <v>2</v>
       </c>
-      <c r="K15" s="2">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2">
+      <c r="K15" s="64">
+        <v>0</v>
+      </c>
+      <c r="L15" s="64">
         <v>2</v>
       </c>
-      <c r="M15" s="2">
-        <v>0</v>
-      </c>
-      <c r="N15" s="2">
+      <c r="M15" s="64">
+        <v>0</v>
+      </c>
+      <c r="N15" s="64">
         <v>4</v>
       </c>
-      <c r="O15" s="2">
+      <c r="O15" s="64">
         <v>14</v>
       </c>
-      <c r="P15" s="2">
+      <c r="P15" s="64">
         <v>6</v>
       </c>
-      <c r="Q15" s="2">
+      <c r="Q15" s="64">
         <v>11</v>
       </c>
-      <c r="R15" s="2">
+      <c r="R15" s="64">
         <v>135</v>
       </c>
-      <c r="S15" s="2">
+      <c r="S15" s="65">
         <v>12</v>
       </c>
       <c r="T15">
-        <f>SUM(E15:S15)</f>
+        <f t="shared" si="0"/>
         <v>189</v>
       </c>
     </row>
-    <row r="16" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="1" t="str">
         <f>S1</f>
         <v>store</v>
       </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="2">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0</v>
-      </c>
-      <c r="G16" s="2">
+      <c r="E16" s="66">
+        <v>0</v>
+      </c>
+      <c r="F16" s="67">
+        <v>0</v>
+      </c>
+      <c r="G16" s="67">
         <v>3</v>
       </c>
-      <c r="H16" s="2">
-        <v>0</v>
-      </c>
-      <c r="I16" s="2">
+      <c r="H16" s="67">
+        <v>0</v>
+      </c>
+      <c r="I16" s="67">
         <v>14</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="67">
         <v>4</v>
       </c>
-      <c r="K16" s="2">
-        <v>0</v>
-      </c>
-      <c r="L16" s="2">
+      <c r="K16" s="67">
+        <v>0</v>
+      </c>
+      <c r="L16" s="67">
         <v>6</v>
       </c>
-      <c r="M16" s="2">
+      <c r="M16" s="67">
         <v>12</v>
       </c>
-      <c r="N16" s="2">
+      <c r="N16" s="67">
         <v>3</v>
       </c>
-      <c r="O16" s="2">
+      <c r="O16" s="67">
         <v>2</v>
       </c>
-      <c r="P16" s="2">
+      <c r="P16" s="67">
         <v>3</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="Q16" s="67">
         <v>5</v>
       </c>
-      <c r="R16" s="2">
+      <c r="R16" s="67">
         <v>14</v>
       </c>
-      <c r="S16" s="2">
+      <c r="S16" s="68">
         <v>149</v>
       </c>
       <c r="T16">
-        <f>SUM(E16:S16)</f>
+        <f t="shared" si="0"/>
         <v>215</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:45" x14ac:dyDescent="0.25">
       <c r="E18">
         <f>SUM(E2:E16)</f>
         <v>158</v>
       </c>
       <c r="F18">
-        <f t="shared" ref="F18:S18" si="0">SUM(F2:F16)</f>
+        <f t="shared" ref="F18:S18" si="1">SUM(F2:F16)</f>
         <v>278</v>
       </c>
       <c r="G18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>247</v>
       </c>
       <c r="H18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>133</v>
       </c>
       <c r="I18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>199</v>
       </c>
       <c r="J18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>294</v>
       </c>
       <c r="K18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>268</v>
       </c>
       <c r="L18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>236</v>
       </c>
       <c r="M18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>287</v>
       </c>
       <c r="N18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="O18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="P18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>151</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>101</v>
       </c>
       <c r="R18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>205</v>
       </c>
       <c r="S18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>208</v>
       </c>
       <c r="T18">
@@ -1900,1484 +2188,3019 @@
         <v>2985</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="34"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="34"/>
-      <c r="S20" s="34"/>
-      <c r="T20" s="34"/>
-      <c r="U20" s="34"/>
+    <row r="20" spans="1:45" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="12"/>
+      <c r="Z20" s="12"/>
+      <c r="AA20" s="12"/>
+      <c r="AB20" s="12"/>
+      <c r="AC20" s="12"/>
+      <c r="AD20" s="12"/>
+      <c r="AE20" s="12"/>
+      <c r="AF20" s="12"/>
+      <c r="AG20" s="12"/>
+      <c r="AH20" s="12"/>
+      <c r="AI20" s="12"/>
+      <c r="AJ20" s="12"/>
+      <c r="AK20" s="12"/>
+      <c r="AL20" s="12"/>
+      <c r="AM20" s="12"/>
+      <c r="AN20" s="12"/>
+      <c r="AO20" s="12"/>
+      <c r="AP20" s="12"/>
+      <c r="AQ20" s="12"/>
+      <c r="AR20" s="12"/>
+      <c r="AS20" s="12"/>
     </row>
-    <row r="21" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="34"/>
-      <c r="B21" s="38" t="s">
+    <row r="21" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
+      <c r="B21" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="9">
-        <v>0</v>
-      </c>
-      <c r="E21" s="44">
+      <c r="C21" s="28"/>
+      <c r="D21" s="53">
+        <v>0</v>
+      </c>
+      <c r="E21" s="54">
         <v>6.25E-2</v>
       </c>
-      <c r="F21" s="44">
+      <c r="F21" s="54">
         <v>0.125</v>
       </c>
-      <c r="G21" s="44">
+      <c r="G21" s="54">
         <v>0.1875</v>
       </c>
-      <c r="H21" s="44">
+      <c r="H21" s="54">
         <v>0.25</v>
       </c>
-      <c r="I21" s="44">
+      <c r="I21" s="54">
         <v>0.3125</v>
       </c>
-      <c r="J21" s="44">
+      <c r="J21" s="54">
         <v>0.375</v>
       </c>
-      <c r="K21" s="44">
+      <c r="K21" s="54">
         <v>0.4375</v>
       </c>
-      <c r="L21" s="44">
+      <c r="L21" s="54">
         <v>0.5</v>
       </c>
-      <c r="M21" s="44">
+      <c r="M21" s="54">
         <v>0.5625</v>
       </c>
-      <c r="N21" s="44">
+      <c r="N21" s="54">
         <v>0.625</v>
       </c>
-      <c r="O21" s="44">
+      <c r="O21" s="54">
         <v>0.6875</v>
       </c>
-      <c r="P21" s="44">
+      <c r="P21" s="54">
         <v>0.75</v>
       </c>
-      <c r="Q21" s="44">
+      <c r="Q21" s="54">
         <v>0.8125</v>
       </c>
-      <c r="R21" s="44">
+      <c r="R21" s="54">
         <v>0.875</v>
       </c>
-      <c r="S21" s="44">
+      <c r="S21" s="54">
         <v>0.9375</v>
       </c>
-      <c r="T21" s="9">
+      <c r="T21" s="55">
         <v>1</v>
       </c>
-      <c r="U21" s="34"/>
+      <c r="U21" s="12"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y21" s="28"/>
+      <c r="Z21" s="56">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="57">
+        <v>6.25E-2</v>
+      </c>
+      <c r="AB21" s="57">
+        <v>0.125</v>
+      </c>
+      <c r="AC21" s="57">
+        <v>0.1875</v>
+      </c>
+      <c r="AD21" s="57">
+        <v>0.25</v>
+      </c>
+      <c r="AE21" s="57">
+        <v>0.3125</v>
+      </c>
+      <c r="AF21" s="57">
+        <v>0.375</v>
+      </c>
+      <c r="AG21" s="57">
+        <v>0.4375</v>
+      </c>
+      <c r="AH21" s="57">
+        <v>0.5</v>
+      </c>
+      <c r="AI21" s="57">
+        <v>0.5625</v>
+      </c>
+      <c r="AJ21" s="57">
+        <v>0.625</v>
+      </c>
+      <c r="AK21" s="57">
+        <v>0.6875</v>
+      </c>
+      <c r="AL21" s="57">
+        <v>0.75</v>
+      </c>
+      <c r="AM21" s="57">
+        <v>0.8125</v>
+      </c>
+      <c r="AN21" s="57">
+        <v>0.875</v>
+      </c>
+      <c r="AO21" s="57">
+        <v>0.9375</v>
+      </c>
+      <c r="AP21" s="58">
+        <f>MAX(AA25:AO39)</f>
+        <v>237</v>
+      </c>
+      <c r="AQ21" s="12"/>
+      <c r="AR21" s="12"/>
+      <c r="AS21" s="12"/>
     </row>
-    <row r="22" spans="1:22" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="34"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="34"/>
-      <c r="O22" s="34"/>
-      <c r="P22" s="34"/>
-      <c r="Q22" s="34"/>
-      <c r="R22" s="34"/>
-      <c r="S22" s="34"/>
-      <c r="T22" s="34"/>
-      <c r="U22" s="34"/>
+    <row r="22" spans="1:45" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="12"/>
+      <c r="Z22" s="12"/>
+      <c r="AA22" s="12"/>
+      <c r="AB22" s="12"/>
+      <c r="AC22" s="12"/>
+      <c r="AD22" s="12"/>
+      <c r="AE22" s="12"/>
+      <c r="AF22" s="12"/>
+      <c r="AG22" s="12"/>
+      <c r="AH22" s="12"/>
+      <c r="AI22" s="12"/>
+      <c r="AJ22" s="12"/>
+      <c r="AK22" s="12"/>
+      <c r="AL22" s="12"/>
+      <c r="AM22" s="12"/>
+      <c r="AN22" s="12"/>
+      <c r="AO22" s="12"/>
+      <c r="AP22" s="12"/>
+      <c r="AQ22" s="12"/>
+      <c r="AR22" s="12"/>
+      <c r="AS22" s="12"/>
     </row>
-    <row r="23" spans="1:22" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="34"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="3" t="s">
+    <row r="23" spans="1:45" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="21" t="s">
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="22"/>
+      <c r="T23" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="U23" s="34"/>
+      <c r="U23" s="12"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="12"/>
+      <c r="Y23" s="12"/>
+      <c r="Z23" s="12"/>
+      <c r="AA23" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB23" s="21"/>
+      <c r="AC23" s="21"/>
+      <c r="AD23" s="21"/>
+      <c r="AE23" s="21"/>
+      <c r="AF23" s="21"/>
+      <c r="AG23" s="21"/>
+      <c r="AH23" s="21"/>
+      <c r="AI23" s="21"/>
+      <c r="AJ23" s="21"/>
+      <c r="AK23" s="21"/>
+      <c r="AL23" s="21"/>
+      <c r="AM23" s="21"/>
+      <c r="AN23" s="21"/>
+      <c r="AO23" s="22"/>
+      <c r="AP23" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ23" s="12"/>
+      <c r="AR23" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="AS23" s="12"/>
     </row>
-    <row r="24" spans="1:22" ht="84" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="34"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="23" t="str">
-        <f>E1</f>
+    <row r="24" spans="1:45" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="32" t="str">
+        <f t="shared" ref="E24:S24" si="2">E1</f>
         <v>CALsuburb</v>
       </c>
-      <c r="F24" s="24" t="str">
-        <f>F1</f>
+      <c r="F24" s="33" t="str">
+        <f t="shared" si="2"/>
         <v>MITcoast</v>
       </c>
-      <c r="G24" s="24" t="str">
-        <f>G1</f>
+      <c r="G24" s="33" t="str">
+        <f t="shared" si="2"/>
         <v>MITforest</v>
       </c>
-      <c r="H24" s="24" t="str">
-        <f>H1</f>
+      <c r="H24" s="33" t="str">
+        <f t="shared" si="2"/>
         <v>MIThighway</v>
       </c>
-      <c r="I24" s="24" t="str">
-        <f>I1</f>
+      <c r="I24" s="33" t="str">
+        <f t="shared" si="2"/>
         <v>MITinsidecity</v>
       </c>
-      <c r="J24" s="24" t="str">
-        <f>J1</f>
+      <c r="J24" s="33" t="str">
+        <f t="shared" si="2"/>
         <v>MITmountain</v>
       </c>
-      <c r="K24" s="24" t="str">
-        <f>K1</f>
+      <c r="K24" s="33" t="str">
+        <f t="shared" si="2"/>
         <v>MITopencountry</v>
       </c>
-      <c r="L24" s="24" t="str">
-        <f>L1</f>
+      <c r="L24" s="33" t="str">
+        <f t="shared" si="2"/>
         <v>MITstreet</v>
       </c>
-      <c r="M24" s="24" t="str">
-        <f>M1</f>
+      <c r="M24" s="33" t="str">
+        <f t="shared" si="2"/>
         <v>MITtallbuilding</v>
       </c>
-      <c r="N24" s="24" t="str">
-        <f>N1</f>
+      <c r="N24" s="33" t="str">
+        <f t="shared" si="2"/>
         <v>PARoffice</v>
       </c>
-      <c r="O24" s="24" t="str">
-        <f>O1</f>
+      <c r="O24" s="33" t="str">
+        <f t="shared" si="2"/>
         <v>bedroom</v>
       </c>
-      <c r="P24" s="24" t="str">
-        <f>P1</f>
+      <c r="P24" s="33" t="str">
+        <f t="shared" si="2"/>
         <v>industrial</v>
       </c>
-      <c r="Q24" s="24" t="str">
-        <f>Q1</f>
+      <c r="Q24" s="33" t="str">
+        <f t="shared" si="2"/>
         <v>kitchen</v>
       </c>
-      <c r="R24" s="24" t="str">
-        <f>R1</f>
+      <c r="R24" s="33" t="str">
+        <f t="shared" si="2"/>
         <v>livingroom</v>
       </c>
-      <c r="S24" s="25" t="str">
-        <f>S1</f>
+      <c r="S24" s="34" t="str">
+        <f t="shared" si="2"/>
         <v>store</v>
       </c>
-      <c r="T24" s="22"/>
-      <c r="U24" s="34"/>
+      <c r="T24" s="27"/>
+      <c r="U24" s="12"/>
+      <c r="W24" s="12"/>
+      <c r="X24" s="12"/>
+      <c r="Y24" s="12"/>
+      <c r="Z24" s="12"/>
+      <c r="AA24" s="32" t="str">
+        <f>E24</f>
+        <v>CALsuburb</v>
+      </c>
+      <c r="AB24" s="33" t="str">
+        <f t="shared" ref="AB24:AO24" si="3">F24</f>
+        <v>MITcoast</v>
+      </c>
+      <c r="AC24" s="33" t="str">
+        <f t="shared" si="3"/>
+        <v>MITforest</v>
+      </c>
+      <c r="AD24" s="33" t="str">
+        <f t="shared" si="3"/>
+        <v>MIThighway</v>
+      </c>
+      <c r="AE24" s="33" t="str">
+        <f t="shared" si="3"/>
+        <v>MITinsidecity</v>
+      </c>
+      <c r="AF24" s="33" t="str">
+        <f t="shared" si="3"/>
+        <v>MITmountain</v>
+      </c>
+      <c r="AG24" s="33" t="str">
+        <f t="shared" si="3"/>
+        <v>MITopencountry</v>
+      </c>
+      <c r="AH24" s="33" t="str">
+        <f t="shared" si="3"/>
+        <v>MITstreet</v>
+      </c>
+      <c r="AI24" s="33" t="str">
+        <f t="shared" si="3"/>
+        <v>MITtallbuilding</v>
+      </c>
+      <c r="AJ24" s="33" t="str">
+        <f t="shared" si="3"/>
+        <v>PARoffice</v>
+      </c>
+      <c r="AK24" s="33" t="str">
+        <f t="shared" si="3"/>
+        <v>bedroom</v>
+      </c>
+      <c r="AL24" s="33" t="str">
+        <f t="shared" si="3"/>
+        <v>industrial</v>
+      </c>
+      <c r="AM24" s="33" t="str">
+        <f t="shared" si="3"/>
+        <v>kitchen</v>
+      </c>
+      <c r="AN24" s="33" t="str">
+        <f t="shared" si="3"/>
+        <v>livingroom</v>
+      </c>
+      <c r="AO24" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v>store</v>
+      </c>
+      <c r="AP24" s="27"/>
+      <c r="AQ24" s="12"/>
+      <c r="AR24" s="27"/>
+      <c r="AS24" s="12"/>
     </row>
-    <row r="25" spans="1:22" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="34"/>
-      <c r="B25" s="6" t="s">
+    <row r="25" spans="1:45" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="12"/>
+      <c r="B25" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="28" t="str">
-        <f>C2</f>
+      <c r="C25" s="35" t="str">
+        <f t="shared" ref="C25:C39" si="4">C2</f>
         <v>CALsuburb</v>
       </c>
-      <c r="D25" s="29"/>
-      <c r="E25" s="10">
-        <f>E2/$T2</f>
+      <c r="D25" s="36"/>
+      <c r="E25" s="3">
+        <f t="shared" ref="E25:S25" si="5">E2/$T2</f>
         <v>1</v>
       </c>
-      <c r="F25" s="11">
-        <f>F2/$T2</f>
-        <v>0</v>
-      </c>
-      <c r="G25" s="11">
-        <f>G2/$T2</f>
-        <v>0</v>
-      </c>
-      <c r="H25" s="11">
-        <f>H2/$T2</f>
-        <v>0</v>
-      </c>
-      <c r="I25" s="11">
-        <f>I2/$T2</f>
-        <v>0</v>
-      </c>
-      <c r="J25" s="11">
-        <f>J2/$T2</f>
-        <v>0</v>
-      </c>
-      <c r="K25" s="11">
-        <f>K2/$T2</f>
-        <v>0</v>
-      </c>
-      <c r="L25" s="11">
-        <f>L2/$T2</f>
-        <v>0</v>
-      </c>
-      <c r="M25" s="11">
-        <f>M2/$T2</f>
-        <v>0</v>
-      </c>
-      <c r="N25" s="11">
-        <f>N2/$T2</f>
-        <v>0</v>
-      </c>
-      <c r="O25" s="11">
-        <f>O2/$T2</f>
-        <v>0</v>
-      </c>
-      <c r="P25" s="11">
-        <f>P2/$T2</f>
-        <v>0</v>
-      </c>
-      <c r="Q25" s="11">
-        <f>Q2/$T2</f>
-        <v>0</v>
-      </c>
-      <c r="R25" s="11">
-        <f>R2/$T2</f>
-        <v>0</v>
-      </c>
-      <c r="S25" s="12">
-        <f>S2/$T2</f>
-        <v>0</v>
-      </c>
-      <c r="T25" s="42">
+      <c r="F25" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N25" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O25" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P25" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R25" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S25" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T25" s="17">
         <f>T2</f>
         <v>141</v>
       </c>
-      <c r="U25" s="34"/>
-      <c r="V25" s="9"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="12"/>
+      <c r="X25" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="76" t="str">
+        <f>C25</f>
+        <v>CALsuburb</v>
+      </c>
+      <c r="Z25" s="77"/>
+      <c r="AA25" s="73">
+        <f>E2</f>
+        <v>141</v>
+      </c>
+      <c r="AB25" s="74">
+        <f t="shared" ref="AB25:AO25" si="6">F2</f>
+        <v>0</v>
+      </c>
+      <c r="AC25" s="74">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AD25" s="74">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE25" s="74">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF25" s="74">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AG25" s="74">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AH25" s="74">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AI25" s="74">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="74">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AK25" s="74">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AL25" s="74">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AM25" s="74">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AN25" s="74">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AO25" s="74">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AP25" s="45">
+        <f>T25</f>
+        <v>141</v>
+      </c>
+      <c r="AQ25" s="12"/>
+      <c r="AR25" s="42">
+        <f>AA25/AP25</f>
+        <v>1</v>
+      </c>
+      <c r="AS25" s="12"/>
     </row>
-    <row r="26" spans="1:22" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="34"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="30" t="str">
-        <f>C3</f>
+    <row r="26" spans="1:45" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="12"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="37" t="str">
+        <f t="shared" si="4"/>
         <v>MITcoast</v>
       </c>
-      <c r="D26" s="31"/>
-      <c r="E26" s="13">
-        <f>E3/$T3</f>
-        <v>0</v>
-      </c>
-      <c r="F26" s="14">
-        <f>F3/$T3</f>
+      <c r="D26" s="38"/>
+      <c r="E26" s="6">
+        <f t="shared" ref="E26:S26" si="7">E3/$T3</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="7">
+        <f t="shared" si="7"/>
         <v>0.82692307692307687</v>
       </c>
-      <c r="G26" s="14">
-        <f>G3/$T3</f>
+      <c r="G26" s="7">
+        <f t="shared" si="7"/>
         <v>7.6923076923076927E-3</v>
       </c>
-      <c r="H26" s="14">
-        <f>H3/$T3</f>
+      <c r="H26" s="7">
+        <f t="shared" si="7"/>
         <v>1.5384615384615385E-2</v>
       </c>
-      <c r="I26" s="14">
-        <f>I3/$T3</f>
-        <v>0</v>
-      </c>
-      <c r="J26" s="14">
-        <f>J3/$T3</f>
+      <c r="I26" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="7">
+        <f t="shared" si="7"/>
         <v>1.5384615384615385E-2</v>
       </c>
-      <c r="K26" s="14">
-        <f>K3/$T3</f>
+      <c r="K26" s="7">
+        <f t="shared" si="7"/>
         <v>0.11923076923076924</v>
       </c>
-      <c r="L26" s="14">
-        <f>L3/$T3</f>
-        <v>0</v>
-      </c>
-      <c r="M26" s="14">
-        <f>M3/$T3</f>
-        <v>0</v>
-      </c>
-      <c r="N26" s="14">
-        <f>N3/$T3</f>
-        <v>0</v>
-      </c>
-      <c r="O26" s="14">
-        <f>O3/$T3</f>
+      <c r="L26" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N26" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O26" s="7">
+        <f t="shared" si="7"/>
         <v>1.1538461538461539E-2</v>
       </c>
-      <c r="P26" s="14">
-        <f>P3/$T3</f>
+      <c r="P26" s="7">
+        <f t="shared" si="7"/>
         <v>3.8461538461538464E-3</v>
       </c>
-      <c r="Q26" s="14">
-        <f>Q3/$T3</f>
-        <v>0</v>
-      </c>
-      <c r="R26" s="14">
-        <f>R3/$T3</f>
-        <v>0</v>
-      </c>
-      <c r="S26" s="15">
-        <f>S3/$T3</f>
-        <v>0</v>
-      </c>
-      <c r="T26" s="43">
-        <f t="shared" ref="T26:T39" si="1">T3</f>
+      <c r="Q26" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R26" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S26" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T26" s="18">
+        <f t="shared" ref="T26:T39" si="8">T3</f>
         <v>260</v>
       </c>
-      <c r="U26" s="34"/>
-      <c r="V26" s="9"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="24"/>
+      <c r="Y26" s="72" t="str">
+        <f t="shared" ref="Y26:Y39" si="9">C26</f>
+        <v>MITcoast</v>
+      </c>
+      <c r="Z26" s="78"/>
+      <c r="AA26" s="69">
+        <f t="shared" ref="AA26:AA39" si="10">E3</f>
+        <v>0</v>
+      </c>
+      <c r="AB26" s="41">
+        <f t="shared" ref="AB26:AB39" si="11">F3</f>
+        <v>215</v>
+      </c>
+      <c r="AC26" s="41">
+        <f t="shared" ref="AC26:AC39" si="12">G3</f>
+        <v>2</v>
+      </c>
+      <c r="AD26" s="41">
+        <f t="shared" ref="AD26:AD39" si="13">H3</f>
+        <v>4</v>
+      </c>
+      <c r="AE26" s="41">
+        <f t="shared" ref="AE26:AE39" si="14">I3</f>
+        <v>0</v>
+      </c>
+      <c r="AF26" s="41">
+        <f t="shared" ref="AF26:AF39" si="15">J3</f>
+        <v>4</v>
+      </c>
+      <c r="AG26" s="41">
+        <f t="shared" ref="AG26:AG39" si="16">K3</f>
+        <v>31</v>
+      </c>
+      <c r="AH26" s="41">
+        <f t="shared" ref="AH26:AH39" si="17">L3</f>
+        <v>0</v>
+      </c>
+      <c r="AI26" s="41">
+        <f t="shared" ref="AI26:AI39" si="18">M3</f>
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="41">
+        <f t="shared" ref="AJ26:AJ39" si="19">N3</f>
+        <v>0</v>
+      </c>
+      <c r="AK26" s="41">
+        <f t="shared" ref="AK26:AK39" si="20">O3</f>
+        <v>3</v>
+      </c>
+      <c r="AL26" s="41">
+        <f t="shared" ref="AL26:AL39" si="21">P3</f>
+        <v>1</v>
+      </c>
+      <c r="AM26" s="41">
+        <f t="shared" ref="AM26:AM39" si="22">Q3</f>
+        <v>0</v>
+      </c>
+      <c r="AN26" s="41">
+        <f t="shared" ref="AN26:AN39" si="23">R3</f>
+        <v>0</v>
+      </c>
+      <c r="AO26" s="41">
+        <f t="shared" ref="AO26:AO39" si="24">S3</f>
+        <v>0</v>
+      </c>
+      <c r="AP26" s="17">
+        <f t="shared" ref="AP26:AP39" si="25">T26</f>
+        <v>260</v>
+      </c>
+      <c r="AQ26" s="12"/>
+      <c r="AR26" s="42">
+        <f>AB26/AP26</f>
+        <v>0.82692307692307687</v>
+      </c>
+      <c r="AS26" s="12"/>
     </row>
-    <row r="27" spans="1:22" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="34"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="30" t="str">
-        <f>C4</f>
+    <row r="27" spans="1:45" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="12"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="37" t="str">
+        <f t="shared" si="4"/>
         <v>MITforest</v>
       </c>
-      <c r="D27" s="31"/>
-      <c r="E27" s="13">
-        <f>E4/$T4</f>
-        <v>0</v>
-      </c>
-      <c r="F27" s="14">
-        <f>F4/$T4</f>
-        <v>0</v>
-      </c>
-      <c r="G27" s="14">
-        <f>G4/$T4</f>
+      <c r="D27" s="38"/>
+      <c r="E27" s="6">
+        <f t="shared" ref="E27:S27" si="26">E4/$T4</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="7">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="7">
+        <f t="shared" si="26"/>
         <v>0.94736842105263153</v>
       </c>
-      <c r="H27" s="14">
-        <f>H4/$T4</f>
-        <v>0</v>
-      </c>
-      <c r="I27" s="14">
-        <f>I4/$T4</f>
-        <v>0</v>
-      </c>
-      <c r="J27" s="14">
-        <f>J4/$T4</f>
+      <c r="H27" s="7">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="7">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="7">
+        <f t="shared" si="26"/>
         <v>4.8245614035087717E-2</v>
       </c>
-      <c r="K27" s="14">
-        <f>K4/$T4</f>
-        <v>0</v>
-      </c>
-      <c r="L27" s="14">
-        <f>L4/$T4</f>
+      <c r="K27" s="7">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="7">
+        <f t="shared" si="26"/>
         <v>4.3859649122807015E-3</v>
       </c>
-      <c r="M27" s="14">
-        <f>M4/$T4</f>
-        <v>0</v>
-      </c>
-      <c r="N27" s="14">
-        <f>N4/$T4</f>
-        <v>0</v>
-      </c>
-      <c r="O27" s="14">
-        <f>O4/$T4</f>
-        <v>0</v>
-      </c>
-      <c r="P27" s="14">
-        <f>P4/$T4</f>
-        <v>0</v>
-      </c>
-      <c r="Q27" s="14">
-        <f>Q4/$T4</f>
-        <v>0</v>
-      </c>
-      <c r="R27" s="14">
-        <f>R4/$T4</f>
-        <v>0</v>
-      </c>
-      <c r="S27" s="15">
-        <f>S4/$T4</f>
-        <v>0</v>
-      </c>
-      <c r="T27" s="43">
-        <f t="shared" si="1"/>
+      <c r="M27" s="7">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="N27" s="7">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="7">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="7">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="7">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="R27" s="7">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S27" s="8">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="T27" s="18">
+        <f t="shared" si="8"/>
         <v>228</v>
       </c>
-      <c r="U27" s="34"/>
-      <c r="V27" s="9"/>
+      <c r="U27" s="12"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="12"/>
+      <c r="X27" s="24"/>
+      <c r="Y27" s="72" t="str">
+        <f t="shared" si="9"/>
+        <v>MITforest</v>
+      </c>
+      <c r="Z27" s="78"/>
+      <c r="AA27" s="69">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AB27" s="41">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AC27" s="41">
+        <f t="shared" si="12"/>
+        <v>216</v>
+      </c>
+      <c r="AD27" s="41">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AE27" s="41">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AF27" s="41">
+        <f t="shared" si="15"/>
+        <v>11</v>
+      </c>
+      <c r="AG27" s="41">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AH27" s="41">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="AI27" s="41">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AJ27" s="41">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AK27" s="41">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AL27" s="41">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AM27" s="41">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AN27" s="41">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AO27" s="41">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AP27" s="17">
+        <f t="shared" si="25"/>
+        <v>228</v>
+      </c>
+      <c r="AQ27" s="12"/>
+      <c r="AR27" s="42">
+        <f>AC27/AP27</f>
+        <v>0.94736842105263153</v>
+      </c>
+      <c r="AS27" s="12"/>
     </row>
-    <row r="28" spans="1:22" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="30" t="str">
-        <f>C5</f>
+    <row r="28" spans="1:45" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="12"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="37" t="str">
+        <f t="shared" si="4"/>
         <v>MIThighway</v>
       </c>
-      <c r="D28" s="31"/>
-      <c r="E28" s="13">
-        <f>E5/$T5</f>
+      <c r="D28" s="38"/>
+      <c r="E28" s="6">
+        <f t="shared" ref="E28:S28" si="27">E5/$T5</f>
         <v>6.2500000000000003E-3</v>
       </c>
-      <c r="F28" s="14">
-        <f>F5/$T5</f>
+      <c r="F28" s="7">
+        <f t="shared" si="27"/>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="G28" s="14">
-        <f>G5/$T5</f>
+      <c r="G28" s="7">
+        <f t="shared" si="27"/>
         <v>6.2500000000000003E-3</v>
       </c>
-      <c r="H28" s="14">
-        <f>H5/$T5</f>
+      <c r="H28" s="7">
+        <f t="shared" si="27"/>
         <v>0.70625000000000004</v>
       </c>
-      <c r="I28" s="14">
-        <f>I5/$T5</f>
-        <v>0</v>
-      </c>
-      <c r="J28" s="14">
-        <f>J5/$T5</f>
+      <c r="I28" s="7">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="7">
+        <f t="shared" si="27"/>
         <v>0.05</v>
       </c>
-      <c r="K28" s="14">
-        <f>K5/$T5</f>
+      <c r="K28" s="7">
+        <f t="shared" si="27"/>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="L28" s="14">
-        <f>L5/$T5</f>
+      <c r="L28" s="7">
+        <f t="shared" si="27"/>
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="M28" s="14">
-        <f>M5/$T5</f>
-        <v>0</v>
-      </c>
-      <c r="N28" s="14">
-        <f>N5/$T5</f>
-        <v>0</v>
-      </c>
-      <c r="O28" s="14">
-        <f>O5/$T5</f>
-        <v>0</v>
-      </c>
-      <c r="P28" s="14">
-        <f>P5/$T5</f>
+      <c r="M28" s="7">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="N28" s="7">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="O28" s="7">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="P28" s="7">
+        <f t="shared" si="27"/>
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="Q28" s="14">
-        <f>Q5/$T5</f>
-        <v>0</v>
-      </c>
-      <c r="R28" s="14">
-        <f>R5/$T5</f>
-        <v>0</v>
-      </c>
-      <c r="S28" s="15">
-        <f>S5/$T5</f>
+      <c r="Q28" s="7">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="R28" s="7">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="S28" s="8">
+        <f t="shared" si="27"/>
         <v>6.2500000000000003E-3</v>
       </c>
-      <c r="T28" s="43">
-        <f t="shared" si="1"/>
+      <c r="T28" s="18">
+        <f t="shared" si="8"/>
         <v>160</v>
       </c>
-      <c r="U28" s="34"/>
-      <c r="V28" s="9"/>
+      <c r="U28" s="12"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="12"/>
+      <c r="X28" s="24"/>
+      <c r="Y28" s="72" t="str">
+        <f t="shared" si="9"/>
+        <v>MIThighway</v>
+      </c>
+      <c r="Z28" s="78"/>
+      <c r="AA28" s="69">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AB28" s="41">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+      <c r="AC28" s="41">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AD28" s="41">
+        <f t="shared" si="13"/>
+        <v>113</v>
+      </c>
+      <c r="AE28" s="41">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AF28" s="41">
+        <f t="shared" si="15"/>
+        <v>8</v>
+      </c>
+      <c r="AG28" s="41">
+        <f t="shared" si="16"/>
+        <v>12</v>
+      </c>
+      <c r="AH28" s="41">
+        <f t="shared" si="17"/>
+        <v>6</v>
+      </c>
+      <c r="AI28" s="41">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="41">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AK28" s="41">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AL28" s="41">
+        <f t="shared" si="21"/>
+        <v>6</v>
+      </c>
+      <c r="AM28" s="41">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AN28" s="41">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AO28" s="41">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="AP28" s="17">
+        <f t="shared" si="25"/>
+        <v>160</v>
+      </c>
+      <c r="AQ28" s="12"/>
+      <c r="AR28" s="42">
+        <f>AD28/AP28</f>
+        <v>0.70625000000000004</v>
+      </c>
+      <c r="AS28" s="12"/>
     </row>
-    <row r="29" spans="1:22" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="34"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="30" t="str">
-        <f>C6</f>
+    <row r="29" spans="1:45" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="12"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="37" t="str">
+        <f t="shared" si="4"/>
         <v>MITinsidecity</v>
       </c>
-      <c r="D29" s="31"/>
-      <c r="E29" s="13">
-        <f>E6/$T6</f>
+      <c r="D29" s="38"/>
+      <c r="E29" s="6">
+        <f t="shared" ref="E29:S29" si="28">E6/$T6</f>
         <v>2.403846153846154E-2</v>
       </c>
-      <c r="F29" s="14">
-        <f>F6/$T6</f>
+      <c r="F29" s="7">
+        <f t="shared" si="28"/>
         <v>9.6153846153846159E-3</v>
       </c>
-      <c r="G29" s="14">
-        <f>G6/$T6</f>
-        <v>0</v>
-      </c>
-      <c r="H29" s="14">
-        <f>H6/$T6</f>
+      <c r="G29" s="7">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="7">
+        <f t="shared" si="28"/>
         <v>1.4423076923076924E-2</v>
       </c>
-      <c r="I29" s="14">
-        <f>I6/$T6</f>
+      <c r="I29" s="7">
+        <f t="shared" si="28"/>
         <v>0.73076923076923073</v>
       </c>
-      <c r="J29" s="14">
-        <f>J6/$T6</f>
-        <v>0</v>
-      </c>
-      <c r="K29" s="14">
-        <f>K6/$T6</f>
-        <v>0</v>
-      </c>
-      <c r="L29" s="14">
-        <f>L6/$T6</f>
+      <c r="J29" s="7">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="7">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="7">
+        <f t="shared" si="28"/>
         <v>0.1201923076923077</v>
       </c>
-      <c r="M29" s="14">
-        <f>M6/$T6</f>
+      <c r="M29" s="7">
+        <f t="shared" si="28"/>
         <v>2.8846153846153848E-2</v>
       </c>
-      <c r="N29" s="14">
-        <f>N6/$T6</f>
+      <c r="N29" s="7">
+        <f t="shared" si="28"/>
         <v>4.807692307692308E-3</v>
       </c>
-      <c r="O29" s="14">
-        <f>O6/$T6</f>
-        <v>0</v>
-      </c>
-      <c r="P29" s="14">
-        <f>P6/$T6</f>
+      <c r="O29" s="7">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="P29" s="7">
+        <f t="shared" si="28"/>
         <v>3.3653846153846152E-2</v>
       </c>
-      <c r="Q29" s="14">
-        <f>Q6/$T6</f>
-        <v>0</v>
-      </c>
-      <c r="R29" s="14">
-        <f>R6/$T6</f>
+      <c r="Q29" s="7">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="R29" s="7">
+        <f t="shared" si="28"/>
         <v>4.807692307692308E-3</v>
       </c>
-      <c r="S29" s="15">
-        <f>S6/$T6</f>
+      <c r="S29" s="8">
+        <f t="shared" si="28"/>
         <v>2.8846153846153848E-2</v>
       </c>
-      <c r="T29" s="43">
-        <f t="shared" si="1"/>
+      <c r="T29" s="18">
+        <f t="shared" si="8"/>
         <v>208</v>
       </c>
-      <c r="U29" s="34"/>
-      <c r="V29" s="9"/>
+      <c r="U29" s="12"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="12"/>
+      <c r="X29" s="24"/>
+      <c r="Y29" s="72" t="str">
+        <f t="shared" si="9"/>
+        <v>MITinsidecity</v>
+      </c>
+      <c r="Z29" s="78"/>
+      <c r="AA29" s="69">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="AB29" s="41">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AC29" s="41">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AD29" s="41">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="AE29" s="41">
+        <f t="shared" si="14"/>
+        <v>152</v>
+      </c>
+      <c r="AF29" s="41">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AG29" s="41">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AH29" s="41">
+        <f t="shared" si="17"/>
+        <v>25</v>
+      </c>
+      <c r="AI29" s="41">
+        <f t="shared" si="18"/>
+        <v>6</v>
+      </c>
+      <c r="AJ29" s="41">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="AK29" s="41">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AL29" s="41">
+        <f t="shared" si="21"/>
+        <v>7</v>
+      </c>
+      <c r="AM29" s="41">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AN29" s="41">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="AO29" s="41">
+        <f t="shared" si="24"/>
+        <v>6</v>
+      </c>
+      <c r="AP29" s="17">
+        <f t="shared" si="25"/>
+        <v>208</v>
+      </c>
+      <c r="AQ29" s="12"/>
+      <c r="AR29" s="42">
+        <f>AE29/AP29</f>
+        <v>0.73076923076923073</v>
+      </c>
+      <c r="AS29" s="12"/>
     </row>
-    <row r="30" spans="1:22" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="34"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="30" t="str">
-        <f>C7</f>
+    <row r="30" spans="1:45" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="12"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="37" t="str">
+        <f t="shared" si="4"/>
         <v>MITmountain</v>
       </c>
-      <c r="D30" s="31"/>
-      <c r="E30" s="13">
-        <f>E7/$T7</f>
-        <v>0</v>
-      </c>
-      <c r="F30" s="14">
-        <f>F7/$T7</f>
+      <c r="D30" s="38"/>
+      <c r="E30" s="6">
+        <f t="shared" ref="E30:S30" si="29">E7/$T7</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="7">
+        <f t="shared" si="29"/>
         <v>2.5547445255474453E-2</v>
       </c>
-      <c r="G30" s="14">
-        <f>G7/$T7</f>
+      <c r="G30" s="7">
+        <f t="shared" si="29"/>
         <v>3.2846715328467155E-2</v>
       </c>
-      <c r="H30" s="14">
-        <f>H7/$T7</f>
+      <c r="H30" s="7">
+        <f t="shared" si="29"/>
         <v>1.0948905109489052E-2</v>
       </c>
-      <c r="I30" s="14">
-        <f>I7/$T7</f>
-        <v>0</v>
-      </c>
-      <c r="J30" s="14">
-        <f>J7/$T7</f>
+      <c r="I30" s="7">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="7">
+        <f t="shared" si="29"/>
         <v>0.86131386861313863</v>
       </c>
-      <c r="K30" s="14">
-        <f>K7/$T7</f>
+      <c r="K30" s="7">
+        <f t="shared" si="29"/>
         <v>4.0145985401459854E-2</v>
       </c>
-      <c r="L30" s="14">
-        <f>L7/$T7</f>
+      <c r="L30" s="7">
+        <f t="shared" si="29"/>
         <v>1.4598540145985401E-2</v>
       </c>
-      <c r="M30" s="14">
-        <f>M7/$T7</f>
+      <c r="M30" s="7">
+        <f t="shared" si="29"/>
         <v>3.6496350364963502E-3</v>
       </c>
-      <c r="N30" s="14">
-        <f>N7/$T7</f>
-        <v>0</v>
-      </c>
-      <c r="O30" s="14">
-        <f>O7/$T7</f>
+      <c r="N30" s="7">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="O30" s="7">
+        <f t="shared" si="29"/>
         <v>3.6496350364963502E-3</v>
       </c>
-      <c r="P30" s="14">
-        <f>P7/$T7</f>
+      <c r="P30" s="7">
+        <f t="shared" si="29"/>
         <v>7.2992700729927005E-3</v>
       </c>
-      <c r="Q30" s="14">
-        <f>Q7/$T7</f>
-        <v>0</v>
-      </c>
-      <c r="R30" s="14">
-        <f>R7/$T7</f>
-        <v>0</v>
-      </c>
-      <c r="S30" s="15">
-        <f>S7/$T7</f>
-        <v>0</v>
-      </c>
-      <c r="T30" s="43">
-        <f t="shared" si="1"/>
+      <c r="Q30" s="7">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="R30" s="7">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="S30" s="8">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="T30" s="18">
+        <f t="shared" si="8"/>
         <v>274</v>
       </c>
-      <c r="U30" s="34"/>
-      <c r="V30" s="9"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="12"/>
+      <c r="X30" s="24"/>
+      <c r="Y30" s="72" t="str">
+        <f t="shared" si="9"/>
+        <v>MITmountain</v>
+      </c>
+      <c r="Z30" s="78"/>
+      <c r="AA30" s="69">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AB30" s="41">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="AC30" s="41">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="AD30" s="41">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="AE30" s="41">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AF30" s="41">
+        <f t="shared" si="15"/>
+        <v>236</v>
+      </c>
+      <c r="AG30" s="41">
+        <f t="shared" si="16"/>
+        <v>11</v>
+      </c>
+      <c r="AH30" s="41">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="AI30" s="41">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="AJ30" s="41">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AK30" s="41">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="AL30" s="41">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="AM30" s="41">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AN30" s="41">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AO30" s="41">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AP30" s="17">
+        <f t="shared" si="25"/>
+        <v>274</v>
+      </c>
+      <c r="AQ30" s="12"/>
+      <c r="AR30" s="42">
+        <f>AF30/AP30</f>
+        <v>0.86131386861313863</v>
+      </c>
+      <c r="AS30" s="12"/>
     </row>
-    <row r="31" spans="1:22" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="34"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="30" t="str">
-        <f>C8</f>
+    <row r="31" spans="1:45" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="12"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="37" t="str">
+        <f t="shared" si="4"/>
         <v>MITopencountry</v>
       </c>
-      <c r="D31" s="31"/>
-      <c r="E31" s="13">
-        <f>E8/$T8</f>
+      <c r="D31" s="38"/>
+      <c r="E31" s="6">
+        <f t="shared" ref="E31:S31" si="30">E8/$T8</f>
         <v>2.2580645161290321E-2</v>
       </c>
-      <c r="F31" s="14">
-        <f>F8/$T8</f>
+      <c r="F31" s="7">
+        <f t="shared" si="30"/>
         <v>0.13225806451612904</v>
       </c>
-      <c r="G31" s="14">
-        <f>G8/$T8</f>
+      <c r="G31" s="7">
+        <f t="shared" si="30"/>
         <v>4.5161290322580643E-2</v>
       </c>
-      <c r="H31" s="14">
-        <f>H8/$T8</f>
+      <c r="H31" s="7">
+        <f t="shared" si="30"/>
         <v>9.6774193548387101E-3</v>
       </c>
-      <c r="I31" s="14">
-        <f>I8/$T8</f>
-        <v>0</v>
-      </c>
-      <c r="J31" s="14">
-        <f>J8/$T8</f>
+      <c r="I31" s="7">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="7">
+        <f t="shared" si="30"/>
         <v>7.4193548387096769E-2</v>
       </c>
-      <c r="K31" s="14">
-        <f>K8/$T8</f>
+      <c r="K31" s="7">
+        <f t="shared" si="30"/>
         <v>0.6806451612903226</v>
       </c>
-      <c r="L31" s="14">
-        <f>L8/$T8</f>
+      <c r="L31" s="7">
+        <f t="shared" si="30"/>
         <v>1.6129032258064516E-2</v>
       </c>
-      <c r="M31" s="14">
-        <f>M8/$T8</f>
-        <v>0</v>
-      </c>
-      <c r="N31" s="14">
-        <f>N8/$T8</f>
-        <v>0</v>
-      </c>
-      <c r="O31" s="14">
-        <f>O8/$T8</f>
-        <v>0</v>
-      </c>
-      <c r="P31" s="14">
-        <f>P8/$T8</f>
+      <c r="M31" s="7">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="N31" s="7">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="7">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="P31" s="7">
+        <f t="shared" si="30"/>
         <v>9.6774193548387101E-3</v>
       </c>
-      <c r="Q31" s="14">
-        <f>Q8/$T8</f>
-        <v>0</v>
-      </c>
-      <c r="R31" s="14">
-        <f>R8/$T8</f>
-        <v>0</v>
-      </c>
-      <c r="S31" s="15">
-        <f>S8/$T8</f>
+      <c r="Q31" s="7">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="R31" s="7">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="S31" s="8">
+        <f t="shared" si="30"/>
         <v>9.6774193548387101E-3</v>
       </c>
-      <c r="T31" s="43">
-        <f t="shared" si="1"/>
+      <c r="T31" s="18">
+        <f t="shared" si="8"/>
         <v>310</v>
       </c>
-      <c r="U31" s="34"/>
-      <c r="V31" s="9"/>
+      <c r="U31" s="12"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="12"/>
+      <c r="X31" s="24"/>
+      <c r="Y31" s="72" t="str">
+        <f t="shared" si="9"/>
+        <v>MITopencountry</v>
+      </c>
+      <c r="Z31" s="78"/>
+      <c r="AA31" s="69">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="AB31" s="41">
+        <f t="shared" si="11"/>
+        <v>41</v>
+      </c>
+      <c r="AC31" s="41">
+        <f t="shared" si="12"/>
+        <v>14</v>
+      </c>
+      <c r="AD31" s="41">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="AE31" s="41">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AF31" s="41">
+        <f t="shared" si="15"/>
+        <v>23</v>
+      </c>
+      <c r="AG31" s="41">
+        <f t="shared" si="16"/>
+        <v>211</v>
+      </c>
+      <c r="AH31" s="41">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+      <c r="AI31" s="41">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AJ31" s="41">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AK31" s="41">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AL31" s="41">
+        <f t="shared" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="AM31" s="41">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AN31" s="41">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AO31" s="41">
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="AP31" s="17">
+        <f t="shared" si="25"/>
+        <v>310</v>
+      </c>
+      <c r="AQ31" s="12"/>
+      <c r="AR31" s="42">
+        <f>AG31/AP31</f>
+        <v>0.6806451612903226</v>
+      </c>
+      <c r="AS31" s="12"/>
     </row>
-    <row r="32" spans="1:22" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="34"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="30" t="str">
-        <f>C9</f>
+    <row r="32" spans="1:45" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="12"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="37" t="str">
+        <f t="shared" si="4"/>
         <v>MITstreet</v>
       </c>
-      <c r="D32" s="31"/>
-      <c r="E32" s="13">
-        <f>E9/$T9</f>
-        <v>0</v>
-      </c>
-      <c r="F32" s="14">
-        <f>F9/$T9</f>
-        <v>0</v>
-      </c>
-      <c r="G32" s="14">
-        <f>G9/$T9</f>
-        <v>0</v>
-      </c>
-      <c r="H32" s="14">
-        <f>H9/$T9</f>
+      <c r="D32" s="38"/>
+      <c r="E32" s="6">
+        <f t="shared" ref="E32:S32" si="31">E9/$T9</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="7">
+        <f t="shared" si="31"/>
         <v>3.125E-2</v>
       </c>
-      <c r="I32" s="14">
-        <f>I9/$T9</f>
+      <c r="I32" s="7">
+        <f t="shared" si="31"/>
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="J32" s="14">
-        <f>J9/$T9</f>
+      <c r="J32" s="7">
+        <f t="shared" si="31"/>
         <v>5.208333333333333E-3</v>
       </c>
-      <c r="K32" s="14">
-        <f>K9/$T9</f>
-        <v>0</v>
-      </c>
-      <c r="L32" s="14">
-        <f>L9/$T9</f>
+      <c r="K32" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="7">
+        <f t="shared" si="31"/>
         <v>0.90104166666666663</v>
       </c>
-      <c r="M32" s="14">
-        <f>M9/$T9</f>
+      <c r="M32" s="7">
+        <f t="shared" si="31"/>
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="N32" s="14">
-        <f>N9/$T9</f>
-        <v>0</v>
-      </c>
-      <c r="O32" s="14">
-        <f>O9/$T9</f>
-        <v>0</v>
-      </c>
-      <c r="P32" s="14">
-        <f>P9/$T9</f>
+      <c r="N32" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="O32" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="P32" s="7">
+        <f t="shared" si="31"/>
         <v>1.5625E-2</v>
       </c>
-      <c r="Q32" s="14">
-        <f>Q9/$T9</f>
-        <v>0</v>
-      </c>
-      <c r="R32" s="14">
-        <f>R9/$T9</f>
+      <c r="Q32" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="R32" s="7">
+        <f t="shared" si="31"/>
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="S32" s="15">
-        <f>S9/$T9</f>
+      <c r="S32" s="8">
+        <f t="shared" si="31"/>
         <v>5.208333333333333E-3</v>
       </c>
-      <c r="T32" s="43">
-        <f t="shared" si="1"/>
+      <c r="T32" s="18">
+        <f t="shared" si="8"/>
         <v>192</v>
       </c>
-      <c r="U32" s="34"/>
-      <c r="V32" s="9"/>
+      <c r="U32" s="12"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="12"/>
+      <c r="X32" s="24"/>
+      <c r="Y32" s="72" t="str">
+        <f t="shared" si="9"/>
+        <v>MITstreet</v>
+      </c>
+      <c r="Z32" s="78"/>
+      <c r="AA32" s="69">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AB32" s="41">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AC32" s="41">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AD32" s="41">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="AE32" s="41">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="AF32" s="41">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AG32" s="41">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AH32" s="41">
+        <f t="shared" si="17"/>
+        <v>173</v>
+      </c>
+      <c r="AI32" s="41">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="AJ32" s="41">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AK32" s="41">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AL32" s="41">
+        <f t="shared" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="AM32" s="41">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AN32" s="41">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="AO32" s="41">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="AP32" s="17">
+        <f t="shared" si="25"/>
+        <v>192</v>
+      </c>
+      <c r="AQ32" s="12"/>
+      <c r="AR32" s="42">
+        <f>AH32/AP32</f>
+        <v>0.90104166666666663</v>
+      </c>
+      <c r="AS32" s="12"/>
     </row>
-    <row r="33" spans="1:27" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="34"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="30" t="str">
-        <f>C10</f>
+    <row r="33" spans="1:45" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="12"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="37" t="str">
+        <f t="shared" si="4"/>
         <v>MITtallbuilding</v>
       </c>
-      <c r="D33" s="31"/>
-      <c r="E33" s="13">
-        <f>E10/$T10</f>
-        <v>0</v>
-      </c>
-      <c r="F33" s="14">
-        <f>F10/$T10</f>
-        <v>0</v>
-      </c>
-      <c r="G33" s="14">
-        <f>G10/$T10</f>
+      <c r="D33" s="38"/>
+      <c r="E33" s="6">
+        <f t="shared" ref="E33:S33" si="32">E10/$T10</f>
+        <v>0</v>
+      </c>
+      <c r="F33" s="7">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="7">
+        <f t="shared" si="32"/>
         <v>3.90625E-3</v>
       </c>
-      <c r="H33" s="14">
-        <f>H10/$T10</f>
-        <v>0</v>
-      </c>
-      <c r="I33" s="14">
-        <f>I10/$T10</f>
+      <c r="H33" s="7">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="7">
+        <f t="shared" si="32"/>
         <v>3.125E-2</v>
       </c>
-      <c r="J33" s="14">
-        <f>J10/$T10</f>
+      <c r="J33" s="7">
+        <f t="shared" si="32"/>
         <v>3.90625E-3</v>
       </c>
-      <c r="K33" s="14">
-        <f>K10/$T10</f>
-        <v>0</v>
-      </c>
-      <c r="L33" s="14">
-        <f>L10/$T10</f>
+      <c r="K33" s="7">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="7">
+        <f t="shared" si="32"/>
         <v>3.90625E-3</v>
       </c>
-      <c r="M33" s="14">
-        <f>M10/$T10</f>
+      <c r="M33" s="7">
+        <f t="shared" si="32"/>
         <v>0.92578125</v>
       </c>
-      <c r="N33" s="14">
-        <f>N10/$T10</f>
-        <v>0</v>
-      </c>
-      <c r="O33" s="14">
-        <f>O10/$T10</f>
-        <v>0</v>
-      </c>
-      <c r="P33" s="14">
-        <f>P10/$T10</f>
+      <c r="N33" s="7">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="O33" s="7">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="P33" s="7">
+        <f t="shared" si="32"/>
         <v>2.34375E-2</v>
       </c>
-      <c r="Q33" s="14">
-        <f>Q10/$T10</f>
-        <v>0</v>
-      </c>
-      <c r="R33" s="14">
-        <f>R10/$T10</f>
+      <c r="Q33" s="7">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="R33" s="7">
+        <f t="shared" si="32"/>
         <v>3.90625E-3</v>
       </c>
-      <c r="S33" s="15">
-        <f>S10/$T10</f>
+      <c r="S33" s="8">
+        <f t="shared" si="32"/>
         <v>3.90625E-3</v>
       </c>
-      <c r="T33" s="43">
-        <f t="shared" si="1"/>
+      <c r="T33" s="18">
+        <f t="shared" si="8"/>
         <v>256</v>
       </c>
-      <c r="U33" s="34"/>
-      <c r="V33" s="9"/>
+      <c r="U33" s="12"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="12"/>
+      <c r="X33" s="24"/>
+      <c r="Y33" s="72" t="str">
+        <f t="shared" si="9"/>
+        <v>MITtallbuilding</v>
+      </c>
+      <c r="Z33" s="78"/>
+      <c r="AA33" s="69">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AB33" s="41">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AC33" s="41">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AD33" s="41">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AE33" s="41">
+        <f t="shared" si="14"/>
+        <v>8</v>
+      </c>
+      <c r="AF33" s="41">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AG33" s="41">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AH33" s="41">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="AI33" s="41">
+        <f t="shared" si="18"/>
+        <v>237</v>
+      </c>
+      <c r="AJ33" s="41">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AK33" s="41">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AL33" s="41">
+        <f t="shared" si="21"/>
+        <v>6</v>
+      </c>
+      <c r="AM33" s="41">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AN33" s="41">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="AO33" s="41">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="AP33" s="17">
+        <f t="shared" si="25"/>
+        <v>256</v>
+      </c>
+      <c r="AQ33" s="12"/>
+      <c r="AR33" s="42">
+        <f>AI33/AP33</f>
+        <v>0.92578125</v>
+      </c>
+      <c r="AS33" s="12"/>
     </row>
-    <row r="34" spans="1:27" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="34"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="30" t="str">
-        <f>C11</f>
+    <row r="34" spans="1:45" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="12"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="37" t="str">
+        <f t="shared" si="4"/>
         <v>PARoffice</v>
       </c>
-      <c r="D34" s="31"/>
-      <c r="E34" s="13">
-        <f>E11/$T11</f>
-        <v>0</v>
-      </c>
-      <c r="F34" s="14">
-        <f>F11/$T11</f>
-        <v>0</v>
-      </c>
-      <c r="G34" s="14">
-        <f>G11/$T11</f>
-        <v>0</v>
-      </c>
-      <c r="H34" s="14">
-        <f>H11/$T11</f>
-        <v>0</v>
-      </c>
-      <c r="I34" s="14">
-        <f>I11/$T11</f>
-        <v>0</v>
-      </c>
-      <c r="J34" s="14">
-        <f>J11/$T11</f>
-        <v>0</v>
-      </c>
-      <c r="K34" s="14">
-        <f>K11/$T11</f>
-        <v>0</v>
-      </c>
-      <c r="L34" s="14">
-        <f>L11/$T11</f>
-        <v>0</v>
-      </c>
-      <c r="M34" s="14">
-        <f>M11/$T11</f>
-        <v>0</v>
-      </c>
-      <c r="N34" s="14">
-        <f>N11/$T11</f>
+      <c r="D34" s="38"/>
+      <c r="E34" s="6">
+        <f t="shared" ref="E34:S34" si="33">E11/$T11</f>
+        <v>0</v>
+      </c>
+      <c r="F34" s="7">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="7">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="7">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="7">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="7">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="7">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="7">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="7">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="N34" s="7">
+        <f t="shared" si="33"/>
         <v>0.88695652173913042</v>
       </c>
-      <c r="O34" s="14">
-        <f>O11/$T11</f>
+      <c r="O34" s="7">
+        <f t="shared" si="33"/>
         <v>8.6956521739130436E-3</v>
       </c>
-      <c r="P34" s="14">
-        <f>P11/$T11</f>
+      <c r="P34" s="7">
+        <f t="shared" si="33"/>
         <v>8.6956521739130436E-3</v>
       </c>
-      <c r="Q34" s="14">
-        <f>Q11/$T11</f>
+      <c r="Q34" s="7">
+        <f t="shared" si="33"/>
         <v>6.9565217391304349E-2</v>
       </c>
-      <c r="R34" s="14">
-        <f>R11/$T11</f>
+      <c r="R34" s="7">
+        <f t="shared" si="33"/>
         <v>1.7391304347826087E-2</v>
       </c>
-      <c r="S34" s="15">
-        <f>S11/$T11</f>
+      <c r="S34" s="8">
+        <f t="shared" si="33"/>
         <v>8.6956521739130436E-3</v>
       </c>
-      <c r="T34" s="43">
-        <f t="shared" si="1"/>
+      <c r="T34" s="18">
+        <f t="shared" si="8"/>
         <v>115</v>
       </c>
-      <c r="U34" s="34"/>
-      <c r="V34" s="9"/>
+      <c r="U34" s="12"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="12"/>
+      <c r="X34" s="24"/>
+      <c r="Y34" s="72" t="str">
+        <f t="shared" si="9"/>
+        <v>PARoffice</v>
+      </c>
+      <c r="Z34" s="78"/>
+      <c r="AA34" s="69">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AB34" s="41">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AC34" s="41">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AD34" s="41">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AE34" s="41">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AF34" s="41">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AG34" s="41">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AH34" s="41">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AI34" s="41">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AJ34" s="41">
+        <f t="shared" si="19"/>
+        <v>102</v>
+      </c>
+      <c r="AK34" s="41">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="AL34" s="41">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="AM34" s="41">
+        <f t="shared" si="22"/>
+        <v>8</v>
+      </c>
+      <c r="AN34" s="41">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="AO34" s="41">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="AP34" s="17">
+        <f t="shared" si="25"/>
+        <v>115</v>
+      </c>
+      <c r="AQ34" s="12"/>
+      <c r="AR34" s="42">
+        <f>AJ34/AP34</f>
+        <v>0.88695652173913042</v>
+      </c>
+      <c r="AS34" s="12"/>
     </row>
-    <row r="35" spans="1:27" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="34"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="30" t="str">
-        <f>C12</f>
+    <row r="35" spans="1:45" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="12"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="37" t="str">
+        <f t="shared" si="4"/>
         <v>bedroom</v>
       </c>
-      <c r="D35" s="31"/>
-      <c r="E35" s="13">
-        <f>E12/$T12</f>
-        <v>0</v>
-      </c>
-      <c r="F35" s="14">
-        <f>F12/$T12</f>
-        <v>0</v>
-      </c>
-      <c r="G35" s="14">
-        <f>G12/$T12</f>
-        <v>0</v>
-      </c>
-      <c r="H35" s="14">
-        <f>H12/$T12</f>
+      <c r="D35" s="38"/>
+      <c r="E35" s="6">
+        <f t="shared" ref="E35:S35" si="34">E12/$T12</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="7">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="7">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="7">
+        <f t="shared" si="34"/>
         <v>8.6206896551724137E-3</v>
       </c>
-      <c r="I35" s="14">
-        <f>I12/$T12</f>
-        <v>0</v>
-      </c>
-      <c r="J35" s="14">
-        <f>J12/$T12</f>
+      <c r="I35" s="7">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="7">
+        <f t="shared" si="34"/>
         <v>8.6206896551724137E-3</v>
       </c>
-      <c r="K35" s="14">
-        <f>K12/$T12</f>
+      <c r="K35" s="7">
+        <f t="shared" si="34"/>
         <v>8.6206896551724137E-3</v>
       </c>
-      <c r="L35" s="14">
-        <f>L12/$T12</f>
+      <c r="L35" s="7">
+        <f t="shared" si="34"/>
         <v>1.7241379310344827E-2</v>
       </c>
-      <c r="M35" s="14">
-        <f>M12/$T12</f>
-        <v>0</v>
-      </c>
-      <c r="N35" s="14">
-        <f>N12/$T12</f>
+      <c r="M35" s="7">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="N35" s="7">
+        <f t="shared" si="34"/>
         <v>4.3103448275862072E-2</v>
       </c>
-      <c r="O35" s="14">
-        <f>O12/$T12</f>
+      <c r="O35" s="7">
+        <f t="shared" si="34"/>
         <v>0.59482758620689657</v>
       </c>
-      <c r="P35" s="14">
-        <f>P12/$T12</f>
+      <c r="P35" s="7">
+        <f t="shared" si="34"/>
         <v>1.7241379310344827E-2</v>
       </c>
-      <c r="Q35" s="14">
-        <f>Q12/$T12</f>
+      <c r="Q35" s="7">
+        <f t="shared" si="34"/>
         <v>6.0344827586206899E-2</v>
       </c>
-      <c r="R35" s="14">
-        <f>R12/$T12</f>
+      <c r="R35" s="7">
+        <f t="shared" si="34"/>
         <v>0.22413793103448276</v>
       </c>
-      <c r="S35" s="15">
-        <f>S12/$T12</f>
+      <c r="S35" s="8">
+        <f t="shared" si="34"/>
         <v>1.7241379310344827E-2</v>
       </c>
-      <c r="T35" s="43">
-        <f t="shared" si="1"/>
+      <c r="T35" s="18">
+        <f t="shared" si="8"/>
         <v>116</v>
       </c>
-      <c r="U35" s="34"/>
-      <c r="V35" s="9"/>
+      <c r="U35" s="12"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="12"/>
+      <c r="X35" s="24"/>
+      <c r="Y35" s="72" t="str">
+        <f t="shared" si="9"/>
+        <v>bedroom</v>
+      </c>
+      <c r="Z35" s="78"/>
+      <c r="AA35" s="69">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AB35" s="41">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AC35" s="41">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AD35" s="41">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AE35" s="41">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AF35" s="41">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AG35" s="41">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AH35" s="41">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="AI35" s="41">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AJ35" s="41">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
+      <c r="AK35" s="41">
+        <f t="shared" si="20"/>
+        <v>69</v>
+      </c>
+      <c r="AL35" s="41">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="AM35" s="41">
+        <f t="shared" si="22"/>
+        <v>7</v>
+      </c>
+      <c r="AN35" s="41">
+        <f t="shared" si="23"/>
+        <v>26</v>
+      </c>
+      <c r="AO35" s="41">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="AP35" s="17">
+        <f t="shared" si="25"/>
+        <v>116</v>
+      </c>
+      <c r="AQ35" s="12"/>
+      <c r="AR35" s="42">
+        <f>AK35/AP35</f>
+        <v>0.59482758620689657</v>
+      </c>
+      <c r="AS35" s="12"/>
     </row>
-    <row r="36" spans="1:27" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="34"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="30" t="str">
-        <f>C13</f>
+    <row r="36" spans="1:45" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="12"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="37" t="str">
+        <f t="shared" si="4"/>
         <v>industrial</v>
       </c>
-      <c r="D36" s="31"/>
-      <c r="E36" s="13">
-        <f>E13/$T13</f>
+      <c r="D36" s="38"/>
+      <c r="E36" s="6">
+        <f t="shared" ref="E36:S36" si="35">E13/$T13</f>
         <v>1.4218009478672985E-2</v>
       </c>
-      <c r="F36" s="14">
-        <f>F13/$T13</f>
+      <c r="F36" s="7">
+        <f t="shared" si="35"/>
         <v>4.7393364928909956E-3</v>
       </c>
-      <c r="G36" s="14">
-        <f>G13/$T13</f>
+      <c r="G36" s="7">
+        <f t="shared" si="35"/>
         <v>4.7393364928909956E-3</v>
       </c>
-      <c r="H36" s="14">
-        <f>H13/$T13</f>
-        <v>0</v>
-      </c>
-      <c r="I36" s="14">
-        <f>I13/$T13</f>
+      <c r="H36" s="7">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="7">
+        <f t="shared" si="35"/>
         <v>8.0568720379146919E-2</v>
       </c>
-      <c r="J36" s="14">
-        <f>J13/$T13</f>
+      <c r="J36" s="7">
+        <f t="shared" si="35"/>
         <v>9.4786729857819912E-3</v>
       </c>
-      <c r="K36" s="14">
-        <f>K13/$T13</f>
+      <c r="K36" s="7">
+        <f t="shared" si="35"/>
         <v>9.4786729857819912E-3</v>
       </c>
-      <c r="L36" s="14">
-        <f>L13/$T13</f>
+      <c r="L36" s="7">
+        <f t="shared" si="35"/>
         <v>5.2132701421800945E-2</v>
       </c>
-      <c r="M36" s="14">
-        <f>M13/$T13</f>
+      <c r="M36" s="7">
+        <f t="shared" si="35"/>
         <v>0.12796208530805686</v>
       </c>
-      <c r="N36" s="14">
-        <f>N13/$T13</f>
+      <c r="N36" s="7">
+        <f t="shared" si="35"/>
         <v>1.4218009478672985E-2</v>
       </c>
-      <c r="O36" s="14">
-        <f>O13/$T13</f>
+      <c r="O36" s="7">
+        <f t="shared" si="35"/>
         <v>9.4786729857819912E-3</v>
       </c>
-      <c r="P36" s="14">
-        <f>P13/$T13</f>
+      <c r="P36" s="7">
+        <f t="shared" si="35"/>
         <v>0.51658767772511849</v>
       </c>
-      <c r="Q36" s="14">
-        <f>Q13/$T13</f>
-        <v>0</v>
-      </c>
-      <c r="R36" s="14">
-        <f>R13/$T13</f>
+      <c r="Q36" s="7">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="R36" s="7">
+        <f t="shared" si="35"/>
         <v>1.8957345971563982E-2</v>
       </c>
-      <c r="S36" s="15">
-        <f>S13/$T13</f>
+      <c r="S36" s="8">
+        <f t="shared" si="35"/>
         <v>0.13744075829383887</v>
       </c>
-      <c r="T36" s="43">
-        <f t="shared" si="1"/>
+      <c r="T36" s="18">
+        <f t="shared" si="8"/>
         <v>211</v>
       </c>
-      <c r="U36" s="34"/>
+      <c r="U36" s="12"/>
+      <c r="W36" s="12"/>
+      <c r="X36" s="24"/>
+      <c r="Y36" s="72" t="str">
+        <f t="shared" si="9"/>
+        <v>industrial</v>
+      </c>
+      <c r="Z36" s="78"/>
+      <c r="AA36" s="69">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="AB36" s="41">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AC36" s="41">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AD36" s="41">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AE36" s="41">
+        <f t="shared" si="14"/>
+        <v>17</v>
+      </c>
+      <c r="AF36" s="41">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="AG36" s="41">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="AH36" s="41">
+        <f t="shared" si="17"/>
+        <v>11</v>
+      </c>
+      <c r="AI36" s="41">
+        <f t="shared" si="18"/>
+        <v>27</v>
+      </c>
+      <c r="AJ36" s="41">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="AK36" s="41">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="AL36" s="41">
+        <f t="shared" si="21"/>
+        <v>109</v>
+      </c>
+      <c r="AM36" s="41">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AN36" s="41">
+        <f t="shared" si="23"/>
+        <v>4</v>
+      </c>
+      <c r="AO36" s="41">
+        <f t="shared" si="24"/>
+        <v>29</v>
+      </c>
+      <c r="AP36" s="17">
+        <f t="shared" si="25"/>
+        <v>211</v>
+      </c>
+      <c r="AQ36" s="12"/>
+      <c r="AR36" s="42">
+        <f>AL36/AP36</f>
+        <v>0.51658767772511849</v>
+      </c>
+      <c r="AS36" s="12"/>
     </row>
-    <row r="37" spans="1:27" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="34"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="30" t="str">
-        <f>C14</f>
+    <row r="37" spans="1:45" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="12"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="37" t="str">
+        <f t="shared" si="4"/>
         <v>kitchen</v>
       </c>
-      <c r="D37" s="31"/>
-      <c r="E37" s="13">
-        <f>E14/$T14</f>
-        <v>0</v>
-      </c>
-      <c r="F37" s="14">
-        <f>F14/$T14</f>
-        <v>0</v>
-      </c>
-      <c r="G37" s="14">
-        <f>G14/$T14</f>
-        <v>0</v>
-      </c>
-      <c r="H37" s="14">
-        <f>H14/$T14</f>
-        <v>0</v>
-      </c>
-      <c r="I37" s="14">
-        <f>I14/$T14</f>
+      <c r="D37" s="38"/>
+      <c r="E37" s="6">
+        <f t="shared" ref="E37:S37" si="36">E14/$T14</f>
+        <v>0</v>
+      </c>
+      <c r="F37" s="7">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="7">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="H37" s="7">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="7">
+        <f t="shared" si="36"/>
         <v>3.6363636363636362E-2</v>
       </c>
-      <c r="J37" s="14">
-        <f>J14/$T14</f>
+      <c r="J37" s="7">
+        <f t="shared" si="36"/>
         <v>9.0909090909090905E-3</v>
       </c>
-      <c r="K37" s="14">
-        <f>K14/$T14</f>
-        <v>0</v>
-      </c>
-      <c r="L37" s="14">
-        <f>L14/$T14</f>
-        <v>0</v>
-      </c>
-      <c r="M37" s="14">
-        <f>M14/$T14</f>
-        <v>0</v>
-      </c>
-      <c r="N37" s="14">
-        <f>N14/$T14</f>
+      <c r="K37" s="7">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="L37" s="7">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="M37" s="7">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="N37" s="7">
+        <f t="shared" si="36"/>
         <v>1.8181818181818181E-2</v>
       </c>
-      <c r="O37" s="14">
-        <f>O14/$T14</f>
+      <c r="O37" s="7">
+        <f t="shared" si="36"/>
         <v>7.2727272727272724E-2</v>
       </c>
-      <c r="P37" s="14">
-        <f>P14/$T14</f>
+      <c r="P37" s="7">
+        <f t="shared" si="36"/>
         <v>1.8181818181818181E-2</v>
       </c>
-      <c r="Q37" s="14">
-        <f>Q14/$T14</f>
+      <c r="Q37" s="7">
+        <f t="shared" si="36"/>
         <v>0.63636363636363635</v>
       </c>
-      <c r="R37" s="14">
-        <f>R14/$T14</f>
+      <c r="R37" s="7">
+        <f t="shared" si="36"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="S37" s="15">
-        <f>S14/$T14</f>
+      <c r="S37" s="8">
+        <f t="shared" si="36"/>
         <v>2.7272727272727271E-2</v>
       </c>
-      <c r="T37" s="43">
-        <f t="shared" si="1"/>
+      <c r="T37" s="18">
+        <f t="shared" si="8"/>
         <v>110</v>
       </c>
-      <c r="U37" s="34"/>
+      <c r="U37" s="12"/>
+      <c r="W37" s="12"/>
+      <c r="X37" s="24"/>
+      <c r="Y37" s="72" t="str">
+        <f t="shared" si="9"/>
+        <v>kitchen</v>
+      </c>
+      <c r="Z37" s="78"/>
+      <c r="AA37" s="69">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AB37" s="41">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AC37" s="41">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AD37" s="41">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AE37" s="41">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="AF37" s="41">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AG37" s="41">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AH37" s="41">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AI37" s="41">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AJ37" s="41">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="AK37" s="41">
+        <f t="shared" si="20"/>
+        <v>8</v>
+      </c>
+      <c r="AL37" s="41">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="AM37" s="41">
+        <f t="shared" si="22"/>
+        <v>70</v>
+      </c>
+      <c r="AN37" s="41">
+        <f t="shared" si="23"/>
+        <v>20</v>
+      </c>
+      <c r="AO37" s="41">
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="AP37" s="17">
+        <f t="shared" si="25"/>
+        <v>110</v>
+      </c>
+      <c r="AQ37" s="12"/>
+      <c r="AR37" s="42">
+        <f>AM37/AP37</f>
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="AS37" s="12"/>
     </row>
-    <row r="38" spans="1:27" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="34"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="30" t="str">
-        <f>C15</f>
+    <row r="38" spans="1:45" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="12"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="37" t="str">
+        <f t="shared" si="4"/>
         <v>livingroom</v>
       </c>
-      <c r="D38" s="31"/>
-      <c r="E38" s="13">
-        <f>E15/$T15</f>
+      <c r="D38" s="38"/>
+      <c r="E38" s="6">
+        <f t="shared" ref="E38:S38" si="37">E15/$T15</f>
         <v>5.2910052910052907E-3</v>
       </c>
-      <c r="F38" s="14">
-        <f>F15/$T15</f>
-        <v>0</v>
-      </c>
-      <c r="G38" s="14">
-        <f>G15/$T15</f>
-        <v>0</v>
-      </c>
-      <c r="H38" s="14">
-        <f>H15/$T15</f>
-        <v>0</v>
-      </c>
-      <c r="I38" s="14">
-        <f>I15/$T15</f>
+      <c r="F38" s="7">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="7">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="7">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="7">
+        <f t="shared" si="37"/>
         <v>1.0582010582010581E-2</v>
       </c>
-      <c r="J38" s="14">
-        <f>J15/$T15</f>
+      <c r="J38" s="7">
+        <f t="shared" si="37"/>
         <v>1.0582010582010581E-2</v>
       </c>
-      <c r="K38" s="14">
-        <f>K15/$T15</f>
-        <v>0</v>
-      </c>
-      <c r="L38" s="14">
-        <f>L15/$T15</f>
+      <c r="K38" s="7">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="L38" s="7">
+        <f t="shared" si="37"/>
         <v>1.0582010582010581E-2</v>
       </c>
-      <c r="M38" s="14">
-        <f>M15/$T15</f>
-        <v>0</v>
-      </c>
-      <c r="N38" s="14">
-        <f>N15/$T15</f>
+      <c r="M38" s="7">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="N38" s="7">
+        <f t="shared" si="37"/>
         <v>2.1164021164021163E-2</v>
       </c>
-      <c r="O38" s="14">
-        <f>O15/$T15</f>
+      <c r="O38" s="7">
+        <f t="shared" si="37"/>
         <v>7.407407407407407E-2</v>
       </c>
-      <c r="P38" s="14">
-        <f>P15/$T15</f>
+      <c r="P38" s="7">
+        <f t="shared" si="37"/>
         <v>3.1746031746031744E-2</v>
       </c>
-      <c r="Q38" s="14">
-        <f>Q15/$T15</f>
+      <c r="Q38" s="7">
+        <f t="shared" si="37"/>
         <v>5.8201058201058198E-2</v>
       </c>
-      <c r="R38" s="14">
-        <f>R15/$T15</f>
+      <c r="R38" s="7">
+        <f t="shared" si="37"/>
         <v>0.7142857142857143</v>
       </c>
-      <c r="S38" s="15">
-        <f>S15/$T15</f>
+      <c r="S38" s="8">
+        <f t="shared" si="37"/>
         <v>6.3492063492063489E-2</v>
       </c>
-      <c r="T38" s="43">
-        <f t="shared" si="1"/>
+      <c r="T38" s="18">
+        <f t="shared" si="8"/>
         <v>189</v>
       </c>
-      <c r="U38" s="34"/>
+      <c r="U38" s="12"/>
+      <c r="W38" s="12"/>
+      <c r="X38" s="24"/>
+      <c r="Y38" s="72" t="str">
+        <f t="shared" si="9"/>
+        <v>livingroom</v>
+      </c>
+      <c r="Z38" s="78"/>
+      <c r="AA38" s="69">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AB38" s="41">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AC38" s="41">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AD38" s="41">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AE38" s="41">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="AF38" s="41">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="AG38" s="41">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AH38" s="41">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="AI38" s="41">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AJ38" s="41">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="AK38" s="41">
+        <f t="shared" si="20"/>
+        <v>14</v>
+      </c>
+      <c r="AL38" s="41">
+        <f t="shared" si="21"/>
+        <v>6</v>
+      </c>
+      <c r="AM38" s="41">
+        <f t="shared" si="22"/>
+        <v>11</v>
+      </c>
+      <c r="AN38" s="41">
+        <f t="shared" si="23"/>
+        <v>135</v>
+      </c>
+      <c r="AO38" s="41">
+        <f t="shared" si="24"/>
+        <v>12</v>
+      </c>
+      <c r="AP38" s="17">
+        <f t="shared" si="25"/>
+        <v>189</v>
+      </c>
+      <c r="AQ38" s="12"/>
+      <c r="AR38" s="42">
+        <f>AN38/AP38</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="AS38" s="12"/>
     </row>
-    <row r="39" spans="1:27" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="34"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="32" t="str">
-        <f>C16</f>
+    <row r="39" spans="1:45" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="12"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="39" t="str">
+        <f t="shared" si="4"/>
         <v>store</v>
       </c>
-      <c r="D39" s="33"/>
-      <c r="E39" s="16">
-        <f>E16/$T16</f>
-        <v>0</v>
-      </c>
-      <c r="F39" s="17">
-        <f>F16/$T16</f>
-        <v>0</v>
-      </c>
-      <c r="G39" s="17">
-        <f>G16/$T16</f>
+      <c r="D39" s="40"/>
+      <c r="E39" s="9">
+        <f t="shared" ref="E39:S39" si="38">E16/$T16</f>
+        <v>0</v>
+      </c>
+      <c r="F39" s="10">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="10">
+        <f t="shared" si="38"/>
         <v>1.3953488372093023E-2</v>
       </c>
-      <c r="H39" s="17">
-        <f>H16/$T16</f>
-        <v>0</v>
-      </c>
-      <c r="I39" s="17">
-        <f>I16/$T16</f>
+      <c r="H39" s="10">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="10">
+        <f t="shared" si="38"/>
         <v>6.5116279069767441E-2</v>
       </c>
-      <c r="J39" s="17">
-        <f>J16/$T16</f>
+      <c r="J39" s="10">
+        <f t="shared" si="38"/>
         <v>1.8604651162790697E-2</v>
       </c>
-      <c r="K39" s="17">
-        <f>K16/$T16</f>
-        <v>0</v>
-      </c>
-      <c r="L39" s="17">
-        <f>L16/$T16</f>
+      <c r="K39" s="10">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="L39" s="10">
+        <f t="shared" si="38"/>
         <v>2.7906976744186046E-2</v>
       </c>
-      <c r="M39" s="17">
-        <f>M16/$T16</f>
+      <c r="M39" s="10">
+        <f t="shared" si="38"/>
         <v>5.5813953488372092E-2</v>
       </c>
-      <c r="N39" s="17">
-        <f>N16/$T16</f>
+      <c r="N39" s="10">
+        <f t="shared" si="38"/>
         <v>1.3953488372093023E-2</v>
       </c>
-      <c r="O39" s="17">
-        <f>O16/$T16</f>
+      <c r="O39" s="10">
+        <f t="shared" si="38"/>
         <v>9.3023255813953487E-3</v>
       </c>
-      <c r="P39" s="17">
-        <f>P16/$T16</f>
+      <c r="P39" s="10">
+        <f t="shared" si="38"/>
         <v>1.3953488372093023E-2</v>
       </c>
-      <c r="Q39" s="17">
-        <f>Q16/$T16</f>
+      <c r="Q39" s="10">
+        <f t="shared" si="38"/>
         <v>2.3255813953488372E-2</v>
       </c>
-      <c r="R39" s="17">
-        <f>R16/$T16</f>
+      <c r="R39" s="10">
+        <f t="shared" si="38"/>
         <v>6.5116279069767441E-2</v>
       </c>
-      <c r="S39" s="18">
-        <f>S16/$T16</f>
+      <c r="S39" s="11">
+        <f t="shared" si="38"/>
         <v>0.69302325581395352</v>
       </c>
-      <c r="T39" s="43">
-        <f t="shared" si="1"/>
+      <c r="T39" s="18">
+        <f t="shared" si="8"/>
         <v>215</v>
       </c>
-      <c r="U39" s="34"/>
+      <c r="U39" s="12"/>
+      <c r="W39" s="12"/>
+      <c r="X39" s="25"/>
+      <c r="Y39" s="79" t="str">
+        <f t="shared" si="9"/>
+        <v>store</v>
+      </c>
+      <c r="Z39" s="80"/>
+      <c r="AA39" s="69">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AB39" s="41">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AC39" s="41">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="AD39" s="41">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AE39" s="41">
+        <f t="shared" si="14"/>
+        <v>14</v>
+      </c>
+      <c r="AF39" s="41">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="AG39" s="41">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AH39" s="41">
+        <f t="shared" si="17"/>
+        <v>6</v>
+      </c>
+      <c r="AI39" s="41">
+        <f t="shared" si="18"/>
+        <v>12</v>
+      </c>
+      <c r="AJ39" s="41">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="AK39" s="41">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="AL39" s="41">
+        <f t="shared" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="AM39" s="41">
+        <f t="shared" si="22"/>
+        <v>5</v>
+      </c>
+      <c r="AN39" s="41">
+        <f t="shared" si="23"/>
+        <v>14</v>
+      </c>
+      <c r="AO39" s="41">
+        <f t="shared" si="24"/>
+        <v>149</v>
+      </c>
+      <c r="AP39" s="17">
+        <f t="shared" si="25"/>
+        <v>215</v>
+      </c>
+      <c r="AQ39" s="12"/>
+      <c r="AR39" s="42">
+        <f>AO39/AP39</f>
+        <v>0.69302325581395352</v>
+      </c>
+      <c r="AS39" s="12"/>
     </row>
-    <row r="40" spans="1:27" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="34"/>
-      <c r="B40" s="19" t="s">
+    <row r="40" spans="1:45" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="12"/>
+      <c r="B40" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="27"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="39">
+      <c r="C40" s="30"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="14">
         <f>E18</f>
         <v>158</v>
       </c>
-      <c r="F40" s="40">
-        <f t="shared" ref="F40:S40" si="2">F18</f>
+      <c r="F40" s="15">
+        <f t="shared" ref="F40:S40" si="39">F18</f>
         <v>278</v>
       </c>
-      <c r="G40" s="40">
-        <f t="shared" si="2"/>
+      <c r="G40" s="15">
+        <f t="shared" si="39"/>
         <v>247</v>
       </c>
-      <c r="H40" s="40">
-        <f t="shared" si="2"/>
+      <c r="H40" s="15">
+        <f t="shared" si="39"/>
         <v>133</v>
       </c>
-      <c r="I40" s="40">
-        <f t="shared" si="2"/>
+      <c r="I40" s="15">
+        <f t="shared" si="39"/>
         <v>199</v>
       </c>
-      <c r="J40" s="40">
-        <f t="shared" si="2"/>
+      <c r="J40" s="15">
+        <f t="shared" si="39"/>
         <v>294</v>
       </c>
-      <c r="K40" s="40">
-        <f t="shared" si="2"/>
+      <c r="K40" s="15">
+        <f t="shared" si="39"/>
         <v>268</v>
       </c>
-      <c r="L40" s="40">
-        <f t="shared" si="2"/>
+      <c r="L40" s="15">
+        <f t="shared" si="39"/>
         <v>236</v>
       </c>
-      <c r="M40" s="40">
-        <f t="shared" si="2"/>
+      <c r="M40" s="15">
+        <f t="shared" si="39"/>
         <v>287</v>
       </c>
-      <c r="N40" s="40">
-        <f t="shared" si="2"/>
+      <c r="N40" s="15">
+        <f t="shared" si="39"/>
         <v>120</v>
       </c>
-      <c r="O40" s="40">
-        <f t="shared" si="2"/>
+      <c r="O40" s="15">
+        <f t="shared" si="39"/>
         <v>100</v>
       </c>
-      <c r="P40" s="40">
-        <f t="shared" si="2"/>
+      <c r="P40" s="15">
+        <f t="shared" si="39"/>
         <v>151</v>
       </c>
-      <c r="Q40" s="40">
-        <f t="shared" si="2"/>
+      <c r="Q40" s="15">
+        <f t="shared" si="39"/>
         <v>101</v>
       </c>
-      <c r="R40" s="40">
-        <f t="shared" si="2"/>
+      <c r="R40" s="15">
+        <f t="shared" si="39"/>
         <v>205</v>
       </c>
-      <c r="S40" s="40">
-        <f t="shared" si="2"/>
+      <c r="S40" s="15">
+        <f t="shared" si="39"/>
         <v>208</v>
       </c>
-      <c r="T40" s="41">
+      <c r="T40" s="16">
         <f>T18</f>
         <v>2985</v>
       </c>
-      <c r="U40" s="34"/>
+      <c r="U40" s="12"/>
+      <c r="W40" s="12"/>
+      <c r="X40" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y40" s="70"/>
+      <c r="Z40" s="71"/>
+      <c r="AA40" s="14">
+        <f>E40</f>
+        <v>158</v>
+      </c>
+      <c r="AB40" s="14">
+        <f t="shared" ref="AB40:AP40" si="40">F40</f>
+        <v>278</v>
+      </c>
+      <c r="AC40" s="14">
+        <f t="shared" si="40"/>
+        <v>247</v>
+      </c>
+      <c r="AD40" s="14">
+        <f t="shared" si="40"/>
+        <v>133</v>
+      </c>
+      <c r="AE40" s="14">
+        <f t="shared" si="40"/>
+        <v>199</v>
+      </c>
+      <c r="AF40" s="14">
+        <f t="shared" si="40"/>
+        <v>294</v>
+      </c>
+      <c r="AG40" s="14">
+        <f t="shared" si="40"/>
+        <v>268</v>
+      </c>
+      <c r="AH40" s="14">
+        <f t="shared" si="40"/>
+        <v>236</v>
+      </c>
+      <c r="AI40" s="14">
+        <f t="shared" si="40"/>
+        <v>287</v>
+      </c>
+      <c r="AJ40" s="14">
+        <f t="shared" si="40"/>
+        <v>120</v>
+      </c>
+      <c r="AK40" s="14">
+        <f t="shared" si="40"/>
+        <v>100</v>
+      </c>
+      <c r="AL40" s="14">
+        <f t="shared" si="40"/>
+        <v>151</v>
+      </c>
+      <c r="AM40" s="14">
+        <f t="shared" si="40"/>
+        <v>101</v>
+      </c>
+      <c r="AN40" s="14">
+        <f t="shared" si="40"/>
+        <v>205</v>
+      </c>
+      <c r="AO40" s="44">
+        <f t="shared" si="40"/>
+        <v>208</v>
+      </c>
+      <c r="AP40" s="16">
+        <f t="shared" si="40"/>
+        <v>2985</v>
+      </c>
+      <c r="AQ40" s="12"/>
+      <c r="AR40" s="46">
+        <f>AVERAGE(AR25:AR39)</f>
+        <v>0.77480913782996774</v>
+      </c>
+      <c r="AS40" s="12"/>
     </row>
-    <row r="41" spans="1:27" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="34"/>
-      <c r="B41" s="34"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="34"/>
-      <c r="J41" s="34"/>
-      <c r="K41" s="34"/>
-      <c r="L41" s="34"/>
-      <c r="M41" s="34"/>
-      <c r="N41" s="34"/>
-      <c r="O41" s="34"/>
-      <c r="P41" s="34"/>
-      <c r="Q41" s="34"/>
-      <c r="R41" s="34"/>
-      <c r="S41" s="34"/>
-      <c r="T41" s="34"/>
-      <c r="U41" s="34"/>
+    <row r="41" spans="1:45" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="12"/>
+      <c r="S41" s="12"/>
+      <c r="T41" s="12"/>
+      <c r="U41" s="12"/>
+      <c r="W41" s="12"/>
+      <c r="X41" s="12"/>
+      <c r="Y41" s="12"/>
+      <c r="Z41" s="12"/>
+      <c r="AA41" s="12"/>
+      <c r="AB41" s="12"/>
+      <c r="AC41" s="12"/>
+      <c r="AD41" s="12"/>
+      <c r="AE41" s="12"/>
+      <c r="AF41" s="12"/>
+      <c r="AG41" s="12"/>
+      <c r="AH41" s="12"/>
+      <c r="AI41" s="12"/>
+      <c r="AJ41" s="12"/>
+      <c r="AK41" s="12"/>
+      <c r="AL41" s="12"/>
+      <c r="AM41" s="12"/>
+      <c r="AN41" s="12"/>
+      <c r="AO41" s="12"/>
+      <c r="AP41" s="12"/>
+      <c r="AQ41" s="12"/>
+      <c r="AR41" s="12"/>
+      <c r="AS41" s="12"/>
     </row>
-    <row r="42" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="35"/>
-      <c r="B42" s="35"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="35"/>
-      <c r="I42" s="35"/>
-      <c r="J42" s="35"/>
-      <c r="K42" s="35"/>
-      <c r="L42" s="35"/>
-      <c r="M42" s="35"/>
-      <c r="N42" s="35"/>
-      <c r="O42" s="35"/>
-      <c r="P42" s="35"/>
-      <c r="Q42" s="36" t="s">
+    <row r="42" spans="1:45" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A42" s="13"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="13"/>
+      <c r="N42" s="13"/>
+      <c r="O42" s="13"/>
+      <c r="P42" s="13"/>
+      <c r="Q42" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="R42" s="36"/>
-      <c r="S42" s="37">
+      <c r="R42" s="19"/>
+      <c r="S42" s="43">
         <f>AVERAGE(E25,F26,G27,H28,I29,J30,K31,L32,M33,N34,O35,P36,Q37,R38,S39)</f>
         <v>0.77480913782996774</v>
       </c>
-      <c r="T42" s="37"/>
-      <c r="U42" s="35"/>
-      <c r="AA42" s="26"/>
+      <c r="T42" s="43"/>
+      <c r="U42" s="13"/>
+      <c r="W42" s="13"/>
+      <c r="X42" s="13"/>
+      <c r="Y42" s="13"/>
+      <c r="Z42" s="13"/>
+      <c r="AA42" s="13"/>
+      <c r="AB42" s="13"/>
+      <c r="AC42" s="13"/>
+      <c r="AD42" s="13"/>
+      <c r="AE42" s="13"/>
+      <c r="AF42" s="13"/>
+      <c r="AG42" s="13"/>
+      <c r="AH42" s="13"/>
+      <c r="AI42" s="13"/>
+      <c r="AJ42" s="13"/>
+      <c r="AK42" s="13"/>
+      <c r="AL42" s="13"/>
+      <c r="AM42" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN42" s="19"/>
+      <c r="AO42" s="43">
+        <f>S42</f>
+        <v>0.77480913782996774</v>
+      </c>
+      <c r="AP42" s="43"/>
+      <c r="AQ42" s="13"/>
+      <c r="AR42" s="12"/>
+      <c r="AS42" s="12"/>
     </row>
-    <row r="43" spans="1:27" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="35"/>
-      <c r="B43" s="35"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="35"/>
-      <c r="I43" s="35"/>
-      <c r="J43" s="35"/>
-      <c r="K43" s="35"/>
-      <c r="L43" s="35"/>
-      <c r="M43" s="35"/>
-      <c r="N43" s="35"/>
-      <c r="O43" s="35"/>
-      <c r="P43" s="35"/>
-      <c r="Q43" s="35"/>
-      <c r="R43" s="35"/>
-      <c r="S43" s="35"/>
-      <c r="T43" s="35"/>
-      <c r="U43" s="35"/>
+    <row r="43" spans="1:45" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="13"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="13"/>
+      <c r="N43" s="13"/>
+      <c r="O43" s="13"/>
+      <c r="P43" s="13"/>
+      <c r="Q43" s="13"/>
+      <c r="R43" s="13"/>
+      <c r="S43" s="13"/>
+      <c r="T43" s="13"/>
+      <c r="U43" s="13"/>
+      <c r="W43" s="13"/>
+      <c r="X43" s="13"/>
+      <c r="Y43" s="13"/>
+      <c r="Z43" s="13"/>
+      <c r="AA43" s="13"/>
+      <c r="AB43" s="13"/>
+      <c r="AC43" s="13"/>
+      <c r="AD43" s="13"/>
+      <c r="AE43" s="13"/>
+      <c r="AF43" s="13"/>
+      <c r="AG43" s="13"/>
+      <c r="AH43" s="13"/>
+      <c r="AI43" s="13"/>
+      <c r="AJ43" s="13"/>
+      <c r="AK43" s="13"/>
+      <c r="AL43" s="13"/>
+      <c r="AM43" s="13"/>
+      <c r="AN43" s="13"/>
+      <c r="AO43" s="13"/>
+      <c r="AP43" s="13"/>
+      <c r="AQ43" s="13"/>
+      <c r="AR43" s="12"/>
+      <c r="AS43" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C29:D29"/>
+  <mergeCells count="45">
+    <mergeCell ref="AO42:AP42"/>
+    <mergeCell ref="AR23:AR24"/>
+    <mergeCell ref="Y37:Z37"/>
+    <mergeCell ref="Y38:Z38"/>
+    <mergeCell ref="Y39:Z39"/>
+    <mergeCell ref="X40:Z40"/>
+    <mergeCell ref="AM42:AN42"/>
+    <mergeCell ref="X21:Y21"/>
+    <mergeCell ref="AA23:AO23"/>
+    <mergeCell ref="AP23:AP24"/>
+    <mergeCell ref="X25:X39"/>
+    <mergeCell ref="Y25:Z25"/>
+    <mergeCell ref="Y26:Z26"/>
+    <mergeCell ref="Y27:Z27"/>
+    <mergeCell ref="Y28:Z28"/>
+    <mergeCell ref="Y29:Z29"/>
+    <mergeCell ref="Y30:Z30"/>
+    <mergeCell ref="Y31:Z31"/>
+    <mergeCell ref="Y32:Z32"/>
+    <mergeCell ref="Y33:Z33"/>
+    <mergeCell ref="Y34:Z34"/>
+    <mergeCell ref="Y35:Z35"/>
+    <mergeCell ref="Y36:Z36"/>
+    <mergeCell ref="E23:S23"/>
+    <mergeCell ref="B25:B39"/>
+    <mergeCell ref="T23:T24"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C39:D39"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="Q42:R42"/>
     <mergeCell ref="C38:D38"/>
@@ -3386,18 +5209,15 @@
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E23:S23"/>
-    <mergeCell ref="B25:B39"/>
-    <mergeCell ref="T23:T24"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
     <mergeCell ref="B40:D40"/>
-    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C29:D29"/>
   </mergeCells>
   <conditionalFormatting sqref="E25:S39">
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="0.75"/>
@@ -3407,7 +5227,7 @@
         <color rgb="FFC00000"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="7">
+    <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="0.75"/>
@@ -3417,7 +5237,7 @@
         <color rgb="FFC00000"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="8">
+    <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="0.5"/>
@@ -3427,7 +5247,7 @@
         <color rgb="FFC00000"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="9">
+    <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="0.6"/>
@@ -3437,7 +5257,7 @@
         <color rgb="FFFF0000"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="10">
+    <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="0.5"/>
@@ -3447,7 +5267,7 @@
         <color rgb="FFFF0000"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="12">
+    <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="0.75"/>
@@ -3457,7 +5277,7 @@
         <color rgb="FFFF0000"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="13">
+    <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="0.75"/>
@@ -3467,7 +5287,7 @@
         <color rgb="FFFF0000"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="14">
+    <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="0.5"/>
@@ -3477,7 +5297,7 @@
         <color rgb="FFFF0000"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="15">
+    <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="0.5"/>
@@ -3487,7 +5307,7 @@
         <color rgb="FFFF0000"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="16">
+    <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="0.75"/>
@@ -3497,7 +5317,7 @@
         <color rgb="FFFF0000"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="17">
+    <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="75"/>
@@ -3507,7 +5327,7 @@
         <color rgb="FFFF0000"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="18">
+    <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="75"/>
@@ -3517,7 +5337,7 @@
         <color rgb="FFFF0000"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="19">
+    <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3527,7 +5347,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="20">
+    <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3539,6 +5359,212 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V25:V35">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0.5"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF002060"/>
+        <color rgb="FFFFC000"/>
+        <color rgb="FFC00000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0.75"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF002060"/>
+        <color rgb="FFFFC000"/>
+        <color rgb="FFC00000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21:T21">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0.5"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF002060"/>
+        <color rgb="FFFFC000"/>
+        <color rgb="FFC00000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0.75"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF002060"/>
+        <color rgb="FFFFC000"/>
+        <color rgb="FFC00000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA25:AO39">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0.75"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF002060"/>
+        <color rgb="FFFFC000"/>
+        <color rgb="FFC00000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0.75"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF002060"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFC00000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0.5"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF002060"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFC00000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0.6"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF002060"/>
+        <color rgb="FFFFC000"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0.5"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF002060"/>
+        <color rgb="FFFFC000"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0.75"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF002060"/>
+        <color rgb="FFFFC000"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0.75"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF002060"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0.5"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF002060"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0.5"/>
+        <cfvo type="num" val="1"/>
+        <color theme="3"/>
+        <color rgb="FFFFC000"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0.75"/>
+        <cfvo type="num" val="1"/>
+        <color theme="3"/>
+        <color rgb="FFFFC000"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="75"/>
+        <cfvo type="max"/>
+        <color theme="3"/>
+        <color rgb="FFFFC000"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="75"/>
+        <cfvo type="max"/>
+        <color theme="3"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="3"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF002060"/>
+        <color rgb="FFFFC000"/>
+        <color rgb="FFC00000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF002060"/>
+        <color rgb="FFFFC000"/>
+        <color rgb="FFC00000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z21:AP21">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -3550,28 +5576,6 @@
       </colorScale>
     </cfRule>
     <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="0.75"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FF002060"/>
-        <color rgb="FFFFC000"/>
-        <color rgb="FFC00000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D21:T21">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="0.5"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FF002060"/>
-        <color rgb="FFFFC000"/>
-        <color rgb="FFC00000"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="0.75"/>

--- a/mat/cMat.xlsx
+++ b/mat/cMat.xlsx
@@ -742,45 +742,6 @@
     <xf numFmtId="1" fontId="7" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
@@ -790,32 +751,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -863,23 +803,65 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -887,14 +869,32 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1200,7 +1200,7 @@
   <dimension ref="A1:AS43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AN12" sqref="AN12"/>
+      <selection activeCell="W20" sqref="W20:AS43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1275,50 +1275,50 @@
         <v>CALsuburb</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="60">
-        <v>141</v>
-      </c>
-      <c r="F2" s="61">
-        <v>0</v>
-      </c>
-      <c r="G2" s="61">
-        <v>0</v>
-      </c>
-      <c r="H2" s="61">
-        <v>0</v>
-      </c>
-      <c r="I2" s="61">
-        <v>0</v>
-      </c>
-      <c r="J2" s="61">
-        <v>0</v>
-      </c>
-      <c r="K2" s="61">
-        <v>0</v>
-      </c>
-      <c r="L2" s="61">
-        <v>0</v>
-      </c>
-      <c r="M2" s="61">
-        <v>0</v>
-      </c>
-      <c r="N2" s="61">
-        <v>0</v>
-      </c>
-      <c r="O2" s="61">
-        <v>0</v>
-      </c>
-      <c r="P2" s="61">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="61">
-        <v>0</v>
-      </c>
-      <c r="R2" s="61">
-        <v>0</v>
-      </c>
-      <c r="S2" s="62">
-        <v>0</v>
+      <c r="E2" s="40">
+        <v>7</v>
+      </c>
+      <c r="F2" s="41">
+        <v>10</v>
+      </c>
+      <c r="G2" s="41">
+        <v>15</v>
+      </c>
+      <c r="H2" s="41">
+        <v>10</v>
+      </c>
+      <c r="I2" s="41">
+        <v>6</v>
+      </c>
+      <c r="J2" s="41">
+        <v>8</v>
+      </c>
+      <c r="K2" s="41">
+        <v>6</v>
+      </c>
+      <c r="L2" s="41">
+        <v>8</v>
+      </c>
+      <c r="M2" s="41">
+        <v>10</v>
+      </c>
+      <c r="N2" s="41">
+        <v>8</v>
+      </c>
+      <c r="O2" s="41">
+        <v>7</v>
+      </c>
+      <c r="P2" s="41">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="41">
+        <v>11</v>
+      </c>
+      <c r="R2" s="41">
+        <v>10</v>
+      </c>
+      <c r="S2" s="42">
+        <v>12</v>
       </c>
       <c r="T2">
         <f t="shared" ref="T2:T16" si="0">SUM(E2:S2)</f>
@@ -1331,50 +1331,50 @@
         <v>MITcoast</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="63">
-        <v>0</v>
-      </c>
-      <c r="F3" s="64">
-        <v>215</v>
-      </c>
-      <c r="G3" s="64">
-        <v>2</v>
-      </c>
-      <c r="H3" s="64">
-        <v>4</v>
-      </c>
-      <c r="I3" s="64">
-        <v>0</v>
-      </c>
-      <c r="J3" s="64">
-        <v>4</v>
-      </c>
-      <c r="K3" s="64">
-        <v>31</v>
-      </c>
-      <c r="L3" s="64">
-        <v>0</v>
-      </c>
-      <c r="M3" s="64">
-        <v>0</v>
-      </c>
-      <c r="N3" s="64">
-        <v>0</v>
-      </c>
-      <c r="O3" s="64">
-        <v>3</v>
-      </c>
-      <c r="P3" s="64">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="64">
-        <v>0</v>
-      </c>
-      <c r="R3" s="64">
-        <v>0</v>
-      </c>
-      <c r="S3" s="65">
-        <v>0</v>
+      <c r="E3" s="43">
+        <v>15</v>
+      </c>
+      <c r="F3" s="44">
+        <v>19</v>
+      </c>
+      <c r="G3" s="44">
+        <v>22</v>
+      </c>
+      <c r="H3" s="44">
+        <v>20</v>
+      </c>
+      <c r="I3" s="44">
+        <v>11</v>
+      </c>
+      <c r="J3" s="44">
+        <v>20</v>
+      </c>
+      <c r="K3" s="44">
+        <v>22</v>
+      </c>
+      <c r="L3" s="44">
+        <v>23</v>
+      </c>
+      <c r="M3" s="44">
+        <v>15</v>
+      </c>
+      <c r="N3" s="44">
+        <v>19</v>
+      </c>
+      <c r="O3" s="44">
+        <v>16</v>
+      </c>
+      <c r="P3" s="44">
+        <v>9</v>
+      </c>
+      <c r="Q3" s="44">
+        <v>16</v>
+      </c>
+      <c r="R3" s="44">
+        <v>17</v>
+      </c>
+      <c r="S3" s="45">
+        <v>16</v>
       </c>
       <c r="T3">
         <f t="shared" si="0"/>
@@ -1387,50 +1387,50 @@
         <v>MITforest</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="63">
-        <v>0</v>
-      </c>
-      <c r="F4" s="64">
-        <v>0</v>
-      </c>
-      <c r="G4" s="64">
-        <v>216</v>
-      </c>
-      <c r="H4" s="64">
-        <v>0</v>
-      </c>
-      <c r="I4" s="64">
-        <v>0</v>
-      </c>
-      <c r="J4" s="64">
+      <c r="E4" s="43">
+        <v>9</v>
+      </c>
+      <c r="F4" s="44">
+        <v>14</v>
+      </c>
+      <c r="G4" s="44">
+        <v>15</v>
+      </c>
+      <c r="H4" s="44">
+        <v>15</v>
+      </c>
+      <c r="I4" s="44">
+        <v>12</v>
+      </c>
+      <c r="J4" s="44">
+        <v>12</v>
+      </c>
+      <c r="K4" s="44">
+        <v>19</v>
+      </c>
+      <c r="L4" s="44">
+        <v>19</v>
+      </c>
+      <c r="M4" s="44">
+        <v>14</v>
+      </c>
+      <c r="N4" s="44">
+        <v>21</v>
+      </c>
+      <c r="O4" s="44">
+        <v>22</v>
+      </c>
+      <c r="P4" s="44">
+        <v>19</v>
+      </c>
+      <c r="Q4" s="44">
+        <v>15</v>
+      </c>
+      <c r="R4" s="44">
         <v>11</v>
       </c>
-      <c r="K4" s="64">
-        <v>0</v>
-      </c>
-      <c r="L4" s="64">
-        <v>1</v>
-      </c>
-      <c r="M4" s="64">
-        <v>0</v>
-      </c>
-      <c r="N4" s="64">
-        <v>0</v>
-      </c>
-      <c r="O4" s="64">
-        <v>0</v>
-      </c>
-      <c r="P4" s="64">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="64">
-        <v>0</v>
-      </c>
-      <c r="R4" s="64">
-        <v>0</v>
-      </c>
-      <c r="S4" s="65">
-        <v>0</v>
+      <c r="S4" s="45">
+        <v>11</v>
       </c>
       <c r="T4">
         <f t="shared" si="0"/>
@@ -1443,50 +1443,50 @@
         <v>MIThighway</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="63">
-        <v>1</v>
-      </c>
-      <c r="F5" s="64">
+      <c r="E5" s="43">
+        <v>17</v>
+      </c>
+      <c r="F5" s="44">
+        <v>15</v>
+      </c>
+      <c r="G5" s="44">
+        <v>13</v>
+      </c>
+      <c r="H5" s="44">
+        <v>7</v>
+      </c>
+      <c r="I5" s="44">
+        <v>14</v>
+      </c>
+      <c r="J5" s="44">
+        <v>8</v>
+      </c>
+      <c r="K5" s="44">
+        <v>7</v>
+      </c>
+      <c r="L5" s="44">
+        <v>10</v>
+      </c>
+      <c r="M5" s="44">
+        <v>13</v>
+      </c>
+      <c r="N5" s="44">
+        <v>10</v>
+      </c>
+      <c r="O5" s="44">
+        <v>8</v>
+      </c>
+      <c r="P5" s="44">
         <v>12</v>
       </c>
-      <c r="G5" s="64">
-        <v>1</v>
-      </c>
-      <c r="H5" s="64">
-        <v>113</v>
-      </c>
-      <c r="I5" s="64">
-        <v>0</v>
-      </c>
-      <c r="J5" s="64">
+      <c r="Q5" s="44">
+        <v>9</v>
+      </c>
+      <c r="R5" s="44">
+        <v>9</v>
+      </c>
+      <c r="S5" s="45">
         <v>8</v>
-      </c>
-      <c r="K5" s="64">
-        <v>12</v>
-      </c>
-      <c r="L5" s="64">
-        <v>6</v>
-      </c>
-      <c r="M5" s="64">
-        <v>0</v>
-      </c>
-      <c r="N5" s="64">
-        <v>0</v>
-      </c>
-      <c r="O5" s="64">
-        <v>0</v>
-      </c>
-      <c r="P5" s="64">
-        <v>6</v>
-      </c>
-      <c r="Q5" s="64">
-        <v>0</v>
-      </c>
-      <c r="R5" s="64">
-        <v>0</v>
-      </c>
-      <c r="S5" s="65">
-        <v>1</v>
       </c>
       <c r="T5">
         <f t="shared" si="0"/>
@@ -1499,50 +1499,50 @@
         <v>MITinsidecity</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="63">
-        <v>5</v>
-      </c>
-      <c r="F6" s="64">
-        <v>2</v>
-      </c>
-      <c r="G6" s="64">
-        <v>0</v>
-      </c>
-      <c r="H6" s="64">
-        <v>3</v>
-      </c>
-      <c r="I6" s="64">
-        <v>152</v>
-      </c>
-      <c r="J6" s="64">
-        <v>0</v>
-      </c>
-      <c r="K6" s="64">
-        <v>0</v>
-      </c>
-      <c r="L6" s="64">
+      <c r="E6" s="43">
+        <v>8</v>
+      </c>
+      <c r="F6" s="44">
         <v>25</v>
       </c>
-      <c r="M6" s="64">
+      <c r="G6" s="44">
+        <v>16</v>
+      </c>
+      <c r="H6" s="44">
+        <v>15</v>
+      </c>
+      <c r="I6" s="44">
+        <v>14</v>
+      </c>
+      <c r="J6" s="44">
+        <v>12</v>
+      </c>
+      <c r="K6" s="44">
+        <v>17</v>
+      </c>
+      <c r="L6" s="44">
+        <v>9</v>
+      </c>
+      <c r="M6" s="44">
+        <v>11</v>
+      </c>
+      <c r="N6" s="44">
+        <v>15</v>
+      </c>
+      <c r="O6" s="44">
+        <v>16</v>
+      </c>
+      <c r="P6" s="44">
+        <v>25</v>
+      </c>
+      <c r="Q6" s="44">
         <v>6</v>
       </c>
-      <c r="N6" s="64">
-        <v>1</v>
-      </c>
-      <c r="O6" s="64">
-        <v>0</v>
-      </c>
-      <c r="P6" s="64">
-        <v>7</v>
-      </c>
-      <c r="Q6" s="64">
-        <v>0</v>
-      </c>
-      <c r="R6" s="64">
-        <v>1</v>
-      </c>
-      <c r="S6" s="65">
-        <v>6</v>
+      <c r="R6" s="44">
+        <v>9</v>
+      </c>
+      <c r="S6" s="45">
+        <v>10</v>
       </c>
       <c r="T6">
         <f t="shared" si="0"/>
@@ -1555,50 +1555,50 @@
         <v>MITmountain</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="63">
-        <v>0</v>
-      </c>
-      <c r="F7" s="64">
-        <v>7</v>
-      </c>
-      <c r="G7" s="64">
-        <v>9</v>
-      </c>
-      <c r="H7" s="64">
-        <v>3</v>
-      </c>
-      <c r="I7" s="64">
-        <v>0</v>
-      </c>
-      <c r="J7" s="64">
-        <v>236</v>
-      </c>
-      <c r="K7" s="64">
-        <v>11</v>
-      </c>
-      <c r="L7" s="64">
-        <v>4</v>
-      </c>
-      <c r="M7" s="64">
-        <v>1</v>
-      </c>
-      <c r="N7" s="64">
-        <v>0</v>
-      </c>
-      <c r="O7" s="64">
-        <v>1</v>
-      </c>
-      <c r="P7" s="64">
-        <v>2</v>
-      </c>
-      <c r="Q7" s="64">
-        <v>0</v>
-      </c>
-      <c r="R7" s="64">
-        <v>0</v>
-      </c>
-      <c r="S7" s="65">
-        <v>0</v>
+      <c r="E7" s="43">
+        <v>19</v>
+      </c>
+      <c r="F7" s="44">
+        <v>16</v>
+      </c>
+      <c r="G7" s="44">
+        <v>18</v>
+      </c>
+      <c r="H7" s="44">
+        <v>15</v>
+      </c>
+      <c r="I7" s="44">
+        <v>16</v>
+      </c>
+      <c r="J7" s="44">
+        <v>27</v>
+      </c>
+      <c r="K7" s="44">
+        <v>13</v>
+      </c>
+      <c r="L7" s="44">
+        <v>14</v>
+      </c>
+      <c r="M7" s="44">
+        <v>17</v>
+      </c>
+      <c r="N7" s="44">
+        <v>22</v>
+      </c>
+      <c r="O7" s="44">
+        <v>24</v>
+      </c>
+      <c r="P7" s="44">
+        <v>17</v>
+      </c>
+      <c r="Q7" s="44">
+        <v>17</v>
+      </c>
+      <c r="R7" s="44">
+        <v>18</v>
+      </c>
+      <c r="S7" s="45">
+        <v>21</v>
       </c>
       <c r="T7">
         <f t="shared" si="0"/>
@@ -1611,57 +1611,57 @@
         <v>MITopencountry</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="63">
-        <v>7</v>
-      </c>
-      <c r="F8" s="64">
-        <v>41</v>
-      </c>
-      <c r="G8" s="64">
+      <c r="E8" s="43">
+        <v>17</v>
+      </c>
+      <c r="F8" s="44">
+        <v>18</v>
+      </c>
+      <c r="G8" s="44">
+        <v>20</v>
+      </c>
+      <c r="H8" s="44">
+        <v>19</v>
+      </c>
+      <c r="I8" s="44">
+        <v>18</v>
+      </c>
+      <c r="J8" s="44">
+        <v>21</v>
+      </c>
+      <c r="K8" s="44">
+        <v>32</v>
+      </c>
+      <c r="L8" s="44">
+        <v>20</v>
+      </c>
+      <c r="M8" s="44">
+        <v>29</v>
+      </c>
+      <c r="N8" s="44">
         <v>14</v>
       </c>
-      <c r="H8" s="64">
-        <v>3</v>
-      </c>
-      <c r="I8" s="64">
-        <v>0</v>
-      </c>
-      <c r="J8" s="64">
-        <v>23</v>
-      </c>
-      <c r="K8" s="64">
-        <v>211</v>
-      </c>
-      <c r="L8" s="64">
-        <v>5</v>
-      </c>
-      <c r="M8" s="64">
-        <v>0</v>
-      </c>
-      <c r="N8" s="64">
-        <v>0</v>
-      </c>
-      <c r="O8" s="64">
-        <v>0</v>
-      </c>
-      <c r="P8" s="64">
-        <v>3</v>
-      </c>
-      <c r="Q8" s="64">
-        <v>0</v>
-      </c>
-      <c r="R8" s="64">
-        <v>0</v>
-      </c>
-      <c r="S8" s="65">
-        <v>3</v>
+      <c r="O8" s="44">
+        <v>24</v>
+      </c>
+      <c r="P8" s="44">
+        <v>11</v>
+      </c>
+      <c r="Q8" s="44">
+        <v>24</v>
+      </c>
+      <c r="R8" s="44">
+        <v>22</v>
+      </c>
+      <c r="S8" s="45">
+        <v>21</v>
       </c>
       <c r="T8">
         <f t="shared" si="0"/>
         <v>310</v>
       </c>
-      <c r="AC8" s="47"/>
-      <c r="AD8" s="48"/>
+      <c r="AC8" s="27"/>
+      <c r="AD8" s="28"/>
     </row>
     <row r="9" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="str">
@@ -1669,58 +1669,58 @@
         <v>MITstreet</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="63">
-        <v>0</v>
-      </c>
-      <c r="F9" s="64">
-        <v>0</v>
-      </c>
-      <c r="G9" s="64">
-        <v>0</v>
-      </c>
-      <c r="H9" s="64">
-        <v>6</v>
-      </c>
-      <c r="I9" s="64">
-        <v>2</v>
-      </c>
-      <c r="J9" s="64">
-        <v>1</v>
-      </c>
-      <c r="K9" s="64">
-        <v>0</v>
-      </c>
-      <c r="L9" s="64">
-        <v>173</v>
-      </c>
-      <c r="M9" s="64">
-        <v>4</v>
-      </c>
-      <c r="N9" s="64">
-        <v>0</v>
-      </c>
-      <c r="O9" s="64">
-        <v>0</v>
-      </c>
-      <c r="P9" s="64">
-        <v>3</v>
-      </c>
-      <c r="Q9" s="64">
-        <v>0</v>
-      </c>
-      <c r="R9" s="64">
-        <v>2</v>
-      </c>
-      <c r="S9" s="65">
-        <v>1</v>
+      <c r="E9" s="43">
+        <v>12</v>
+      </c>
+      <c r="F9" s="44">
+        <v>12</v>
+      </c>
+      <c r="G9" s="44">
+        <v>14</v>
+      </c>
+      <c r="H9" s="44">
+        <v>10</v>
+      </c>
+      <c r="I9" s="44">
+        <v>15</v>
+      </c>
+      <c r="J9" s="44">
+        <v>11</v>
+      </c>
+      <c r="K9" s="44">
+        <v>13</v>
+      </c>
+      <c r="L9" s="44">
+        <v>14</v>
+      </c>
+      <c r="M9" s="44">
+        <v>16</v>
+      </c>
+      <c r="N9" s="44">
+        <v>9</v>
+      </c>
+      <c r="O9" s="44">
+        <v>16</v>
+      </c>
+      <c r="P9" s="44">
+        <v>12</v>
+      </c>
+      <c r="Q9" s="44">
+        <v>15</v>
+      </c>
+      <c r="R9" s="44">
+        <v>7</v>
+      </c>
+      <c r="S9" s="45">
+        <v>16</v>
       </c>
       <c r="T9">
         <f t="shared" si="0"/>
         <v>192</v>
       </c>
-      <c r="Z9" s="59"/>
-      <c r="AC9" s="49"/>
-      <c r="AD9" s="50"/>
+      <c r="Z9" s="39"/>
+      <c r="AC9" s="29"/>
+      <c r="AD9" s="30"/>
     </row>
     <row r="10" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="str">
@@ -1728,57 +1728,57 @@
         <v>MITtallbuilding</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="63">
-        <v>0</v>
-      </c>
-      <c r="F10" s="64">
-        <v>0</v>
-      </c>
-      <c r="G10" s="64">
-        <v>1</v>
-      </c>
-      <c r="H10" s="64">
-        <v>0</v>
-      </c>
-      <c r="I10" s="64">
-        <v>8</v>
-      </c>
-      <c r="J10" s="64">
-        <v>1</v>
-      </c>
-      <c r="K10" s="64">
-        <v>0</v>
-      </c>
-      <c r="L10" s="64">
-        <v>1</v>
-      </c>
-      <c r="M10" s="64">
-        <v>237</v>
-      </c>
-      <c r="N10" s="64">
-        <v>0</v>
-      </c>
-      <c r="O10" s="64">
-        <v>0</v>
-      </c>
-      <c r="P10" s="64">
-        <v>6</v>
-      </c>
-      <c r="Q10" s="64">
-        <v>0</v>
-      </c>
-      <c r="R10" s="64">
-        <v>1</v>
-      </c>
-      <c r="S10" s="65">
-        <v>1</v>
+      <c r="E10" s="43">
+        <v>18</v>
+      </c>
+      <c r="F10" s="44">
+        <v>13</v>
+      </c>
+      <c r="G10" s="44">
+        <v>18</v>
+      </c>
+      <c r="H10" s="44">
+        <v>18</v>
+      </c>
+      <c r="I10" s="44">
+        <v>13</v>
+      </c>
+      <c r="J10" s="44">
+        <v>20</v>
+      </c>
+      <c r="K10" s="44">
+        <v>22</v>
+      </c>
+      <c r="L10" s="44">
+        <v>9</v>
+      </c>
+      <c r="M10" s="44">
+        <v>21</v>
+      </c>
+      <c r="N10" s="44">
+        <v>15</v>
+      </c>
+      <c r="O10" s="44">
+        <v>11</v>
+      </c>
+      <c r="P10" s="44">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="44">
+        <v>21</v>
+      </c>
+      <c r="R10" s="44">
+        <v>18</v>
+      </c>
+      <c r="S10" s="45">
+        <v>19</v>
       </c>
       <c r="T10">
         <f t="shared" si="0"/>
         <v>256</v>
       </c>
-      <c r="AC10" s="49"/>
-      <c r="AD10" s="50"/>
+      <c r="AC10" s="29"/>
+      <c r="AD10" s="30"/>
     </row>
     <row r="11" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="str">
@@ -1786,57 +1786,57 @@
         <v>PARoffice</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="63">
-        <v>0</v>
-      </c>
-      <c r="F11" s="64">
-        <v>0</v>
-      </c>
-      <c r="G11" s="64">
-        <v>0</v>
-      </c>
-      <c r="H11" s="64">
-        <v>0</v>
-      </c>
-      <c r="I11" s="64">
-        <v>0</v>
-      </c>
-      <c r="J11" s="64">
-        <v>0</v>
-      </c>
-      <c r="K11" s="64">
-        <v>0</v>
-      </c>
-      <c r="L11" s="64">
-        <v>0</v>
-      </c>
-      <c r="M11" s="64">
-        <v>0</v>
-      </c>
-      <c r="N11" s="64">
-        <v>102</v>
-      </c>
-      <c r="O11" s="64">
-        <v>1</v>
-      </c>
-      <c r="P11" s="64">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="64">
+      <c r="E11" s="43">
+        <v>4</v>
+      </c>
+      <c r="F11" s="44">
+        <v>5</v>
+      </c>
+      <c r="G11" s="44">
+        <v>4</v>
+      </c>
+      <c r="H11" s="44">
+        <v>9</v>
+      </c>
+      <c r="I11" s="44">
+        <v>9</v>
+      </c>
+      <c r="J11" s="44">
+        <v>6</v>
+      </c>
+      <c r="K11" s="44">
         <v>8</v>
       </c>
-      <c r="R11" s="64">
-        <v>2</v>
-      </c>
-      <c r="S11" s="65">
-        <v>1</v>
+      <c r="L11" s="44">
+        <v>7</v>
+      </c>
+      <c r="M11" s="44">
+        <v>9</v>
+      </c>
+      <c r="N11" s="44">
+        <v>12</v>
+      </c>
+      <c r="O11" s="44">
+        <v>5</v>
+      </c>
+      <c r="P11" s="44">
+        <v>8</v>
+      </c>
+      <c r="Q11" s="44">
+        <v>10</v>
+      </c>
+      <c r="R11" s="44">
+        <v>7</v>
+      </c>
+      <c r="S11" s="45">
+        <v>12</v>
       </c>
       <c r="T11">
         <f t="shared" si="0"/>
         <v>115</v>
       </c>
-      <c r="AC11" s="51"/>
-      <c r="AD11" s="52"/>
+      <c r="AC11" s="31"/>
+      <c r="AD11" s="32"/>
     </row>
     <row r="12" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="str">
@@ -1844,50 +1844,50 @@
         <v>bedroom</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="63">
-        <v>0</v>
-      </c>
-      <c r="F12" s="64">
-        <v>0</v>
-      </c>
-      <c r="G12" s="64">
-        <v>0</v>
-      </c>
-      <c r="H12" s="64">
-        <v>1</v>
-      </c>
-      <c r="I12" s="64">
-        <v>0</v>
-      </c>
-      <c r="J12" s="64">
-        <v>1</v>
-      </c>
-      <c r="K12" s="64">
-        <v>1</v>
-      </c>
-      <c r="L12" s="64">
-        <v>2</v>
-      </c>
-      <c r="M12" s="64">
-        <v>0</v>
-      </c>
-      <c r="N12" s="64">
+      <c r="E12" s="43">
+        <v>8</v>
+      </c>
+      <c r="F12" s="44">
+        <v>9</v>
+      </c>
+      <c r="G12" s="44">
+        <v>6</v>
+      </c>
+      <c r="H12" s="44">
+        <v>6</v>
+      </c>
+      <c r="I12" s="44">
+        <v>7</v>
+      </c>
+      <c r="J12" s="44">
+        <v>3</v>
+      </c>
+      <c r="K12" s="44">
+        <v>12</v>
+      </c>
+      <c r="L12" s="44">
         <v>5</v>
       </c>
-      <c r="O12" s="64">
-        <v>69</v>
-      </c>
-      <c r="P12" s="64">
-        <v>2</v>
-      </c>
-      <c r="Q12" s="64">
-        <v>7</v>
-      </c>
-      <c r="R12" s="64">
-        <v>26</v>
-      </c>
-      <c r="S12" s="65">
-        <v>2</v>
+      <c r="M12" s="44">
+        <v>10</v>
+      </c>
+      <c r="N12" s="44">
+        <v>8</v>
+      </c>
+      <c r="O12" s="44">
+        <v>9</v>
+      </c>
+      <c r="P12" s="44">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="44">
+        <v>9</v>
+      </c>
+      <c r="R12" s="44">
+        <v>8</v>
+      </c>
+      <c r="S12" s="45">
+        <v>6</v>
       </c>
       <c r="T12">
         <f t="shared" si="0"/>
@@ -1900,50 +1900,50 @@
         <v>industrial</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="63">
-        <v>3</v>
-      </c>
-      <c r="F13" s="64">
-        <v>1</v>
-      </c>
-      <c r="G13" s="64">
-        <v>1</v>
-      </c>
-      <c r="H13" s="64">
-        <v>0</v>
-      </c>
-      <c r="I13" s="64">
-        <v>17</v>
-      </c>
-      <c r="J13" s="64">
-        <v>2</v>
-      </c>
-      <c r="K13" s="64">
-        <v>2</v>
-      </c>
-      <c r="L13" s="64">
+      <c r="E13" s="43">
+        <v>13</v>
+      </c>
+      <c r="F13" s="44">
+        <v>20</v>
+      </c>
+      <c r="G13" s="44">
+        <v>12</v>
+      </c>
+      <c r="H13" s="44">
+        <v>14</v>
+      </c>
+      <c r="I13" s="44">
+        <v>21</v>
+      </c>
+      <c r="J13" s="44">
         <v>11</v>
       </c>
-      <c r="M13" s="64">
-        <v>27</v>
-      </c>
-      <c r="N13" s="64">
-        <v>3</v>
-      </c>
-      <c r="O13" s="64">
-        <v>2</v>
-      </c>
-      <c r="P13" s="64">
-        <v>109</v>
-      </c>
-      <c r="Q13" s="64">
-        <v>0</v>
-      </c>
-      <c r="R13" s="64">
-        <v>4</v>
-      </c>
-      <c r="S13" s="65">
-        <v>29</v>
+      <c r="K13" s="44">
+        <v>14</v>
+      </c>
+      <c r="L13" s="44">
+        <v>18</v>
+      </c>
+      <c r="M13" s="44">
+        <v>12</v>
+      </c>
+      <c r="N13" s="44">
+        <v>12</v>
+      </c>
+      <c r="O13" s="44">
+        <v>11</v>
+      </c>
+      <c r="P13" s="44">
+        <v>13</v>
+      </c>
+      <c r="Q13" s="44">
+        <v>15</v>
+      </c>
+      <c r="R13" s="44">
+        <v>15</v>
+      </c>
+      <c r="S13" s="45">
+        <v>10</v>
       </c>
       <c r="T13">
         <f t="shared" si="0"/>
@@ -1956,50 +1956,50 @@
         <v>kitchen</v>
       </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="63">
-        <v>0</v>
-      </c>
-      <c r="F14" s="64">
-        <v>0</v>
-      </c>
-      <c r="G14" s="64">
-        <v>0</v>
-      </c>
-      <c r="H14" s="64">
-        <v>0</v>
-      </c>
-      <c r="I14" s="64">
-        <v>4</v>
-      </c>
-      <c r="J14" s="64">
-        <v>1</v>
-      </c>
-      <c r="K14" s="64">
-        <v>0</v>
-      </c>
-      <c r="L14" s="64">
-        <v>0</v>
-      </c>
-      <c r="M14" s="64">
-        <v>0</v>
-      </c>
-      <c r="N14" s="64">
-        <v>2</v>
-      </c>
-      <c r="O14" s="64">
+      <c r="E14" s="43">
+        <v>9</v>
+      </c>
+      <c r="F14" s="44">
+        <v>6</v>
+      </c>
+      <c r="G14" s="44">
+        <v>7</v>
+      </c>
+      <c r="H14" s="44">
+        <v>7</v>
+      </c>
+      <c r="I14" s="44">
+        <v>3</v>
+      </c>
+      <c r="J14" s="44">
+        <v>6</v>
+      </c>
+      <c r="K14" s="44">
+        <v>9</v>
+      </c>
+      <c r="L14" s="44">
+        <v>10</v>
+      </c>
+      <c r="M14" s="44">
+        <v>7</v>
+      </c>
+      <c r="N14" s="44">
+        <v>7</v>
+      </c>
+      <c r="O14" s="44">
         <v>8</v>
       </c>
-      <c r="P14" s="64">
-        <v>2</v>
-      </c>
-      <c r="Q14" s="64">
-        <v>70</v>
-      </c>
-      <c r="R14" s="64">
-        <v>20</v>
-      </c>
-      <c r="S14" s="65">
-        <v>3</v>
+      <c r="P14" s="44">
+        <v>6</v>
+      </c>
+      <c r="Q14" s="44">
+        <v>10</v>
+      </c>
+      <c r="R14" s="44">
+        <v>10</v>
+      </c>
+      <c r="S14" s="45">
+        <v>5</v>
       </c>
       <c r="T14">
         <f t="shared" si="0"/>
@@ -2012,50 +2012,50 @@
         <v>livingroom</v>
       </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="63">
-        <v>1</v>
-      </c>
-      <c r="F15" s="64">
-        <v>0</v>
-      </c>
-      <c r="G15" s="64">
-        <v>0</v>
-      </c>
-      <c r="H15" s="64">
-        <v>0</v>
-      </c>
-      <c r="I15" s="64">
-        <v>2</v>
-      </c>
-      <c r="J15" s="64">
-        <v>2</v>
-      </c>
-      <c r="K15" s="64">
-        <v>0</v>
-      </c>
-      <c r="L15" s="64">
-        <v>2</v>
-      </c>
-      <c r="M15" s="64">
-        <v>0</v>
-      </c>
-      <c r="N15" s="64">
-        <v>4</v>
-      </c>
-      <c r="O15" s="64">
+      <c r="E15" s="43">
+        <v>13</v>
+      </c>
+      <c r="F15" s="44">
         <v>14</v>
       </c>
-      <c r="P15" s="64">
-        <v>6</v>
-      </c>
-      <c r="Q15" s="64">
+      <c r="G15" s="44">
+        <v>7</v>
+      </c>
+      <c r="H15" s="44">
         <v>11</v>
       </c>
-      <c r="R15" s="64">
-        <v>135</v>
-      </c>
-      <c r="S15" s="65">
+      <c r="I15" s="44">
+        <v>11</v>
+      </c>
+      <c r="J15" s="44">
+        <v>13</v>
+      </c>
+      <c r="K15" s="44">
+        <v>13</v>
+      </c>
+      <c r="L15" s="44">
+        <v>14</v>
+      </c>
+      <c r="M15" s="44">
+        <v>13</v>
+      </c>
+      <c r="N15" s="44">
         <v>12</v>
+      </c>
+      <c r="O15" s="44">
+        <v>9</v>
+      </c>
+      <c r="P15" s="44">
+        <v>11</v>
+      </c>
+      <c r="Q15" s="44">
+        <v>19</v>
+      </c>
+      <c r="R15" s="44">
+        <v>15</v>
+      </c>
+      <c r="S15" s="45">
+        <v>14</v>
       </c>
       <c r="T15">
         <f t="shared" si="0"/>
@@ -2068,50 +2068,50 @@
         <v>store</v>
       </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="66">
-        <v>0</v>
-      </c>
-      <c r="F16" s="67">
-        <v>0</v>
-      </c>
-      <c r="G16" s="67">
-        <v>3</v>
-      </c>
-      <c r="H16" s="67">
-        <v>0</v>
-      </c>
-      <c r="I16" s="67">
+      <c r="E16" s="46">
+        <v>11</v>
+      </c>
+      <c r="F16" s="47">
+        <v>17</v>
+      </c>
+      <c r="G16" s="47">
+        <v>12</v>
+      </c>
+      <c r="H16" s="47">
+        <v>15</v>
+      </c>
+      <c r="I16" s="47">
+        <v>6</v>
+      </c>
+      <c r="J16" s="47">
+        <v>15</v>
+      </c>
+      <c r="K16" s="47">
+        <v>12</v>
+      </c>
+      <c r="L16" s="47">
+        <v>22</v>
+      </c>
+      <c r="M16" s="47">
         <v>14</v>
       </c>
-      <c r="J16" s="67">
-        <v>4</v>
-      </c>
-      <c r="K16" s="67">
-        <v>0</v>
-      </c>
-      <c r="L16" s="67">
-        <v>6</v>
-      </c>
-      <c r="M16" s="67">
-        <v>12</v>
-      </c>
-      <c r="N16" s="67">
-        <v>3</v>
-      </c>
-      <c r="O16" s="67">
-        <v>2</v>
-      </c>
-      <c r="P16" s="67">
-        <v>3</v>
-      </c>
-      <c r="Q16" s="67">
-        <v>5</v>
-      </c>
-      <c r="R16" s="67">
+      <c r="N16" s="47">
+        <v>13</v>
+      </c>
+      <c r="O16" s="47">
+        <v>18</v>
+      </c>
+      <c r="P16" s="47">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="47">
+        <v>15</v>
+      </c>
+      <c r="R16" s="47">
+        <v>20</v>
+      </c>
+      <c r="S16" s="48">
         <v>14</v>
-      </c>
-      <c r="S16" s="68">
-        <v>149</v>
       </c>
       <c r="T16">
         <f t="shared" si="0"/>
@@ -2125,63 +2125,63 @@
     <row r="18" spans="1:45" x14ac:dyDescent="0.25">
       <c r="E18">
         <f>SUM(E2:E16)</f>
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="F18">
         <f t="shared" ref="F18:S18" si="1">SUM(F2:F16)</f>
-        <v>278</v>
+        <v>213</v>
       </c>
       <c r="G18">
         <f t="shared" si="1"/>
-        <v>247</v>
+        <v>199</v>
       </c>
       <c r="H18">
         <f t="shared" si="1"/>
-        <v>133</v>
+        <v>191</v>
       </c>
       <c r="I18">
         <f t="shared" si="1"/>
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="J18">
         <f t="shared" si="1"/>
-        <v>294</v>
+        <v>193</v>
       </c>
       <c r="K18">
         <f t="shared" si="1"/>
-        <v>268</v>
+        <v>219</v>
       </c>
       <c r="L18">
         <f t="shared" si="1"/>
-        <v>236</v>
+        <v>202</v>
       </c>
       <c r="M18">
         <f t="shared" si="1"/>
-        <v>287</v>
+        <v>211</v>
       </c>
       <c r="N18">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>197</v>
       </c>
       <c r="O18">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>204</v>
       </c>
       <c r="P18">
         <f t="shared" si="1"/>
-        <v>151</v>
+        <v>197</v>
       </c>
       <c r="Q18">
         <f t="shared" si="1"/>
-        <v>101</v>
+        <v>212</v>
       </c>
       <c r="R18">
         <f t="shared" si="1"/>
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="S18">
         <f t="shared" si="1"/>
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="T18">
         <f>SUM(T2:T16)</f>
@@ -2236,118 +2236,118 @@
     </row>
     <row r="21" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="53">
+      <c r="C21" s="63"/>
+      <c r="D21" s="33">
         <v>0</v>
       </c>
-      <c r="E21" s="54">
+      <c r="E21" s="34">
         <v>6.25E-2</v>
       </c>
-      <c r="F21" s="54">
+      <c r="F21" s="34">
         <v>0.125</v>
       </c>
-      <c r="G21" s="54">
+      <c r="G21" s="34">
         <v>0.1875</v>
       </c>
-      <c r="H21" s="54">
+      <c r="H21" s="34">
         <v>0.25</v>
       </c>
-      <c r="I21" s="54">
+      <c r="I21" s="34">
         <v>0.3125</v>
       </c>
-      <c r="J21" s="54">
+      <c r="J21" s="34">
         <v>0.375</v>
       </c>
-      <c r="K21" s="54">
+      <c r="K21" s="34">
         <v>0.4375</v>
       </c>
-      <c r="L21" s="54">
+      <c r="L21" s="34">
         <v>0.5</v>
       </c>
-      <c r="M21" s="54">
+      <c r="M21" s="34">
         <v>0.5625</v>
       </c>
-      <c r="N21" s="54">
+      <c r="N21" s="34">
         <v>0.625</v>
       </c>
-      <c r="O21" s="54">
+      <c r="O21" s="34">
         <v>0.6875</v>
       </c>
-      <c r="P21" s="54">
+      <c r="P21" s="34">
         <v>0.75</v>
       </c>
-      <c r="Q21" s="54">
+      <c r="Q21" s="34">
         <v>0.8125</v>
       </c>
-      <c r="R21" s="54">
+      <c r="R21" s="34">
         <v>0.875</v>
       </c>
-      <c r="S21" s="54">
+      <c r="S21" s="34">
         <v>0.9375</v>
       </c>
-      <c r="T21" s="55">
+      <c r="T21" s="35">
         <v>1</v>
       </c>
       <c r="U21" s="12"/>
       <c r="W21" s="12"/>
-      <c r="X21" s="28" t="s">
+      <c r="X21" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="Y21" s="28"/>
-      <c r="Z21" s="56">
+      <c r="Y21" s="63"/>
+      <c r="Z21" s="36">
         <v>0</v>
       </c>
-      <c r="AA21" s="57">
+      <c r="AA21" s="37">
         <v>6.25E-2</v>
       </c>
-      <c r="AB21" s="57">
+      <c r="AB21" s="37">
         <v>0.125</v>
       </c>
-      <c r="AC21" s="57">
+      <c r="AC21" s="37">
         <v>0.1875</v>
       </c>
-      <c r="AD21" s="57">
+      <c r="AD21" s="37">
         <v>0.25</v>
       </c>
-      <c r="AE21" s="57">
+      <c r="AE21" s="37">
         <v>0.3125</v>
       </c>
-      <c r="AF21" s="57">
+      <c r="AF21" s="37">
         <v>0.375</v>
       </c>
-      <c r="AG21" s="57">
+      <c r="AG21" s="37">
         <v>0.4375</v>
       </c>
-      <c r="AH21" s="57">
+      <c r="AH21" s="37">
         <v>0.5</v>
       </c>
-      <c r="AI21" s="57">
+      <c r="AI21" s="37">
         <v>0.5625</v>
       </c>
-      <c r="AJ21" s="57">
+      <c r="AJ21" s="37">
         <v>0.625</v>
       </c>
-      <c r="AK21" s="57">
+      <c r="AK21" s="37">
         <v>0.6875</v>
       </c>
-      <c r="AL21" s="57">
+      <c r="AL21" s="37">
         <v>0.75</v>
       </c>
-      <c r="AM21" s="57">
+      <c r="AM21" s="37">
         <v>0.8125</v>
       </c>
-      <c r="AN21" s="57">
+      <c r="AN21" s="37">
         <v>0.875</v>
       </c>
-      <c r="AO21" s="57">
+      <c r="AO21" s="37">
         <v>0.9375</v>
       </c>
-      <c r="AP21" s="58">
+      <c r="AP21" s="38">
         <f>MAX(AA25:AO39)</f>
-        <v>237</v>
+        <v>32</v>
       </c>
       <c r="AQ21" s="12"/>
       <c r="AR21" s="12"/>
@@ -2404,24 +2404,24 @@
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
-      <c r="E23" s="20" t="s">
+      <c r="E23" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="21"/>
-      <c r="S23" s="22"/>
-      <c r="T23" s="26" t="s">
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="65"/>
+      <c r="N23" s="65"/>
+      <c r="O23" s="65"/>
+      <c r="P23" s="65"/>
+      <c r="Q23" s="65"/>
+      <c r="R23" s="65"/>
+      <c r="S23" s="66"/>
+      <c r="T23" s="53" t="s">
         <v>17</v>
       </c>
       <c r="U23" s="12"/>
@@ -2429,28 +2429,28 @@
       <c r="X23" s="12"/>
       <c r="Y23" s="12"/>
       <c r="Z23" s="12"/>
-      <c r="AA23" s="20" t="s">
+      <c r="AA23" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="AB23" s="21"/>
-      <c r="AC23" s="21"/>
-      <c r="AD23" s="21"/>
-      <c r="AE23" s="21"/>
-      <c r="AF23" s="21"/>
-      <c r="AG23" s="21"/>
-      <c r="AH23" s="21"/>
-      <c r="AI23" s="21"/>
-      <c r="AJ23" s="21"/>
-      <c r="AK23" s="21"/>
-      <c r="AL23" s="21"/>
-      <c r="AM23" s="21"/>
-      <c r="AN23" s="21"/>
-      <c r="AO23" s="22"/>
-      <c r="AP23" s="26" t="s">
+      <c r="AB23" s="65"/>
+      <c r="AC23" s="65"/>
+      <c r="AD23" s="65"/>
+      <c r="AE23" s="65"/>
+      <c r="AF23" s="65"/>
+      <c r="AG23" s="65"/>
+      <c r="AH23" s="65"/>
+      <c r="AI23" s="65"/>
+      <c r="AJ23" s="65"/>
+      <c r="AK23" s="65"/>
+      <c r="AL23" s="65"/>
+      <c r="AM23" s="65"/>
+      <c r="AN23" s="65"/>
+      <c r="AO23" s="66"/>
+      <c r="AP23" s="53" t="s">
         <v>17</v>
       </c>
       <c r="AQ23" s="12"/>
-      <c r="AR23" s="26" t="s">
+      <c r="AR23" s="53" t="s">
         <v>22</v>
       </c>
       <c r="AS23" s="12"/>
@@ -2460,206 +2460,206 @@
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
-      <c r="E24" s="32" t="str">
+      <c r="E24" s="19" t="str">
         <f t="shared" ref="E24:S24" si="2">E1</f>
         <v>CALsuburb</v>
       </c>
-      <c r="F24" s="33" t="str">
+      <c r="F24" s="20" t="str">
         <f t="shared" si="2"/>
         <v>MITcoast</v>
       </c>
-      <c r="G24" s="33" t="str">
+      <c r="G24" s="20" t="str">
         <f t="shared" si="2"/>
         <v>MITforest</v>
       </c>
-      <c r="H24" s="33" t="str">
+      <c r="H24" s="20" t="str">
         <f t="shared" si="2"/>
         <v>MIThighway</v>
       </c>
-      <c r="I24" s="33" t="str">
+      <c r="I24" s="20" t="str">
         <f t="shared" si="2"/>
         <v>MITinsidecity</v>
       </c>
-      <c r="J24" s="33" t="str">
+      <c r="J24" s="20" t="str">
         <f t="shared" si="2"/>
         <v>MITmountain</v>
       </c>
-      <c r="K24" s="33" t="str">
+      <c r="K24" s="20" t="str">
         <f t="shared" si="2"/>
         <v>MITopencountry</v>
       </c>
-      <c r="L24" s="33" t="str">
+      <c r="L24" s="20" t="str">
         <f t="shared" si="2"/>
         <v>MITstreet</v>
       </c>
-      <c r="M24" s="33" t="str">
+      <c r="M24" s="20" t="str">
         <f t="shared" si="2"/>
         <v>MITtallbuilding</v>
       </c>
-      <c r="N24" s="33" t="str">
+      <c r="N24" s="20" t="str">
         <f t="shared" si="2"/>
         <v>PARoffice</v>
       </c>
-      <c r="O24" s="33" t="str">
+      <c r="O24" s="20" t="str">
         <f t="shared" si="2"/>
         <v>bedroom</v>
       </c>
-      <c r="P24" s="33" t="str">
+      <c r="P24" s="20" t="str">
         <f t="shared" si="2"/>
         <v>industrial</v>
       </c>
-      <c r="Q24" s="33" t="str">
+      <c r="Q24" s="20" t="str">
         <f t="shared" si="2"/>
         <v>kitchen</v>
       </c>
-      <c r="R24" s="33" t="str">
+      <c r="R24" s="20" t="str">
         <f t="shared" si="2"/>
         <v>livingroom</v>
       </c>
-      <c r="S24" s="34" t="str">
+      <c r="S24" s="21" t="str">
         <f t="shared" si="2"/>
         <v>store</v>
       </c>
-      <c r="T24" s="27"/>
+      <c r="T24" s="54"/>
       <c r="U24" s="12"/>
       <c r="W24" s="12"/>
       <c r="X24" s="12"/>
       <c r="Y24" s="12"/>
       <c r="Z24" s="12"/>
-      <c r="AA24" s="32" t="str">
+      <c r="AA24" s="19" t="str">
         <f>E24</f>
         <v>CALsuburb</v>
       </c>
-      <c r="AB24" s="33" t="str">
+      <c r="AB24" s="20" t="str">
         <f t="shared" ref="AB24:AO24" si="3">F24</f>
         <v>MITcoast</v>
       </c>
-      <c r="AC24" s="33" t="str">
+      <c r="AC24" s="20" t="str">
         <f t="shared" si="3"/>
         <v>MITforest</v>
       </c>
-      <c r="AD24" s="33" t="str">
+      <c r="AD24" s="20" t="str">
         <f t="shared" si="3"/>
         <v>MIThighway</v>
       </c>
-      <c r="AE24" s="33" t="str">
+      <c r="AE24" s="20" t="str">
         <f t="shared" si="3"/>
         <v>MITinsidecity</v>
       </c>
-      <c r="AF24" s="33" t="str">
+      <c r="AF24" s="20" t="str">
         <f t="shared" si="3"/>
         <v>MITmountain</v>
       </c>
-      <c r="AG24" s="33" t="str">
+      <c r="AG24" s="20" t="str">
         <f t="shared" si="3"/>
         <v>MITopencountry</v>
       </c>
-      <c r="AH24" s="33" t="str">
+      <c r="AH24" s="20" t="str">
         <f t="shared" si="3"/>
         <v>MITstreet</v>
       </c>
-      <c r="AI24" s="33" t="str">
+      <c r="AI24" s="20" t="str">
         <f t="shared" si="3"/>
         <v>MITtallbuilding</v>
       </c>
-      <c r="AJ24" s="33" t="str">
+      <c r="AJ24" s="20" t="str">
         <f t="shared" si="3"/>
         <v>PARoffice</v>
       </c>
-      <c r="AK24" s="33" t="str">
+      <c r="AK24" s="20" t="str">
         <f t="shared" si="3"/>
         <v>bedroom</v>
       </c>
-      <c r="AL24" s="33" t="str">
+      <c r="AL24" s="20" t="str">
         <f t="shared" si="3"/>
         <v>industrial</v>
       </c>
-      <c r="AM24" s="33" t="str">
+      <c r="AM24" s="20" t="str">
         <f t="shared" si="3"/>
         <v>kitchen</v>
       </c>
-      <c r="AN24" s="33" t="str">
+      <c r="AN24" s="20" t="str">
         <f t="shared" si="3"/>
         <v>livingroom</v>
       </c>
-      <c r="AO24" s="34" t="str">
+      <c r="AO24" s="21" t="str">
         <f t="shared" si="3"/>
         <v>store</v>
       </c>
-      <c r="AP24" s="27"/>
+      <c r="AP24" s="54"/>
       <c r="AQ24" s="12"/>
-      <c r="AR24" s="27"/>
+      <c r="AR24" s="54"/>
       <c r="AS24" s="12"/>
     </row>
     <row r="25" spans="1:45" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12"/>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="35" t="str">
+      <c r="C25" s="72" t="str">
         <f t="shared" ref="C25:C39" si="4">C2</f>
         <v>CALsuburb</v>
       </c>
-      <c r="D25" s="36"/>
+      <c r="D25" s="73"/>
       <c r="E25" s="3">
         <f t="shared" ref="E25:S25" si="5">E2/$T2</f>
-        <v>1</v>
+        <v>4.9645390070921988E-2</v>
       </c>
       <c r="F25" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>7.0921985815602842E-2</v>
       </c>
       <c r="G25" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.10638297872340426</v>
       </c>
       <c r="H25" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>7.0921985815602842E-2</v>
       </c>
       <c r="I25" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4.2553191489361701E-2</v>
       </c>
       <c r="J25" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5.6737588652482268E-2</v>
       </c>
       <c r="K25" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4.2553191489361701E-2</v>
       </c>
       <c r="L25" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5.6737588652482268E-2</v>
       </c>
       <c r="M25" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>7.0921985815602842E-2</v>
       </c>
       <c r="N25" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5.6737588652482268E-2</v>
       </c>
       <c r="O25" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4.9645390070921988E-2</v>
       </c>
       <c r="P25" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>9.2198581560283682E-2</v>
       </c>
       <c r="Q25" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>7.8014184397163122E-2</v>
       </c>
       <c r="R25" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>7.0921985815602842E-2</v>
       </c>
       <c r="S25" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>8.5106382978723402E-2</v>
       </c>
       <c r="T25" s="17">
         <f>T2</f>
@@ -2668,152 +2668,152 @@
       <c r="U25" s="12"/>
       <c r="V25" s="2"/>
       <c r="W25" s="12"/>
-      <c r="X25" s="23" t="s">
+      <c r="X25" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="Y25" s="76" t="str">
+      <c r="Y25" s="70" t="str">
         <f>C25</f>
         <v>CALsuburb</v>
       </c>
-      <c r="Z25" s="77"/>
-      <c r="AA25" s="73">
+      <c r="Z25" s="71"/>
+      <c r="AA25" s="50">
         <f>E2</f>
-        <v>141</v>
-      </c>
-      <c r="AB25" s="74">
+        <v>7</v>
+      </c>
+      <c r="AB25" s="51">
         <f t="shared" ref="AB25:AO25" si="6">F2</f>
-        <v>0</v>
-      </c>
-      <c r="AC25" s="74">
+        <v>10</v>
+      </c>
+      <c r="AC25" s="51">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD25" s="74">
+        <v>15</v>
+      </c>
+      <c r="AD25" s="51">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AE25" s="74">
+        <v>10</v>
+      </c>
+      <c r="AE25" s="51">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AF25" s="74">
+        <v>6</v>
+      </c>
+      <c r="AF25" s="51">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AG25" s="74">
+        <v>8</v>
+      </c>
+      <c r="AG25" s="51">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AH25" s="74">
+        <v>6</v>
+      </c>
+      <c r="AH25" s="51">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AI25" s="74">
+        <v>8</v>
+      </c>
+      <c r="AI25" s="51">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AJ25" s="74">
+        <v>10</v>
+      </c>
+      <c r="AJ25" s="51">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AK25" s="74">
+        <v>8</v>
+      </c>
+      <c r="AK25" s="51">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AL25" s="74">
+        <v>7</v>
+      </c>
+      <c r="AL25" s="51">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AM25" s="74">
+        <v>13</v>
+      </c>
+      <c r="AM25" s="51">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AN25" s="74">
+        <v>11</v>
+      </c>
+      <c r="AN25" s="51">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AO25" s="74">
+        <v>10</v>
+      </c>
+      <c r="AO25" s="51">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AP25" s="45">
+        <v>12</v>
+      </c>
+      <c r="AP25" s="25">
         <f>T25</f>
         <v>141</v>
       </c>
       <c r="AQ25" s="12"/>
-      <c r="AR25" s="42">
+      <c r="AR25" s="23">
         <f>AA25/AP25</f>
-        <v>1</v>
+        <v>4.9645390070921988E-2</v>
       </c>
       <c r="AS25" s="12"/>
     </row>
     <row r="26" spans="1:45" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="37" t="str">
+      <c r="B26" s="68"/>
+      <c r="C26" s="74" t="str">
         <f t="shared" si="4"/>
         <v>MITcoast</v>
       </c>
-      <c r="D26" s="38"/>
+      <c r="D26" s="75"/>
       <c r="E26" s="6">
         <f t="shared" ref="E26:S26" si="7">E3/$T3</f>
-        <v>0</v>
+        <v>5.7692307692307696E-2</v>
       </c>
       <c r="F26" s="7">
         <f t="shared" si="7"/>
-        <v>0.82692307692307687</v>
+        <v>7.3076923076923081E-2</v>
       </c>
       <c r="G26" s="7">
         <f t="shared" si="7"/>
-        <v>7.6923076923076927E-3</v>
+        <v>8.461538461538462E-2</v>
       </c>
       <c r="H26" s="7">
         <f t="shared" si="7"/>
-        <v>1.5384615384615385E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="I26" s="7">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>4.230769230769231E-2</v>
       </c>
       <c r="J26" s="7">
         <f t="shared" si="7"/>
-        <v>1.5384615384615385E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="K26" s="7">
         <f t="shared" si="7"/>
-        <v>0.11923076923076924</v>
+        <v>8.461538461538462E-2</v>
       </c>
       <c r="L26" s="7">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>8.8461538461538466E-2</v>
       </c>
       <c r="M26" s="7">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5.7692307692307696E-2</v>
       </c>
       <c r="N26" s="7">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>7.3076923076923081E-2</v>
       </c>
       <c r="O26" s="7">
         <f t="shared" si="7"/>
-        <v>1.1538461538461539E-2</v>
+        <v>6.1538461538461542E-2</v>
       </c>
       <c r="P26" s="7">
         <f t="shared" si="7"/>
-        <v>3.8461538461538464E-3</v>
+        <v>3.4615384615384617E-2</v>
       </c>
       <c r="Q26" s="7">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>6.1538461538461542E-2</v>
       </c>
       <c r="R26" s="7">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>6.5384615384615388E-2</v>
       </c>
       <c r="S26" s="8">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>6.1538461538461542E-2</v>
       </c>
       <c r="T26" s="18">
         <f t="shared" ref="T26:T39" si="8">T3</f>
@@ -2822,150 +2822,150 @@
       <c r="U26" s="12"/>
       <c r="V26" s="2"/>
       <c r="W26" s="12"/>
-      <c r="X26" s="24"/>
-      <c r="Y26" s="72" t="str">
+      <c r="X26" s="68"/>
+      <c r="Y26" s="55" t="str">
         <f t="shared" ref="Y26:Y39" si="9">C26</f>
         <v>MITcoast</v>
       </c>
-      <c r="Z26" s="78"/>
-      <c r="AA26" s="69">
+      <c r="Z26" s="56"/>
+      <c r="AA26" s="49">
         <f t="shared" ref="AA26:AA39" si="10">E3</f>
-        <v>0</v>
-      </c>
-      <c r="AB26" s="41">
+        <v>15</v>
+      </c>
+      <c r="AB26" s="22">
         <f t="shared" ref="AB26:AB39" si="11">F3</f>
-        <v>215</v>
-      </c>
-      <c r="AC26" s="41">
+        <v>19</v>
+      </c>
+      <c r="AC26" s="22">
         <f t="shared" ref="AC26:AC39" si="12">G3</f>
-        <v>2</v>
-      </c>
-      <c r="AD26" s="41">
+        <v>22</v>
+      </c>
+      <c r="AD26" s="22">
         <f t="shared" ref="AD26:AD39" si="13">H3</f>
-        <v>4</v>
-      </c>
-      <c r="AE26" s="41">
+        <v>20</v>
+      </c>
+      <c r="AE26" s="22">
         <f t="shared" ref="AE26:AE39" si="14">I3</f>
-        <v>0</v>
-      </c>
-      <c r="AF26" s="41">
+        <v>11</v>
+      </c>
+      <c r="AF26" s="22">
         <f t="shared" ref="AF26:AF39" si="15">J3</f>
-        <v>4</v>
-      </c>
-      <c r="AG26" s="41">
+        <v>20</v>
+      </c>
+      <c r="AG26" s="22">
         <f t="shared" ref="AG26:AG39" si="16">K3</f>
-        <v>31</v>
-      </c>
-      <c r="AH26" s="41">
+        <v>22</v>
+      </c>
+      <c r="AH26" s="22">
         <f t="shared" ref="AH26:AH39" si="17">L3</f>
-        <v>0</v>
-      </c>
-      <c r="AI26" s="41">
+        <v>23</v>
+      </c>
+      <c r="AI26" s="22">
         <f t="shared" ref="AI26:AI39" si="18">M3</f>
-        <v>0</v>
-      </c>
-      <c r="AJ26" s="41">
+        <v>15</v>
+      </c>
+      <c r="AJ26" s="22">
         <f t="shared" ref="AJ26:AJ39" si="19">N3</f>
-        <v>0</v>
-      </c>
-      <c r="AK26" s="41">
+        <v>19</v>
+      </c>
+      <c r="AK26" s="22">
         <f t="shared" ref="AK26:AK39" si="20">O3</f>
-        <v>3</v>
-      </c>
-      <c r="AL26" s="41">
+        <v>16</v>
+      </c>
+      <c r="AL26" s="22">
         <f t="shared" ref="AL26:AL39" si="21">P3</f>
-        <v>1</v>
-      </c>
-      <c r="AM26" s="41">
+        <v>9</v>
+      </c>
+      <c r="AM26" s="22">
         <f t="shared" ref="AM26:AM39" si="22">Q3</f>
-        <v>0</v>
-      </c>
-      <c r="AN26" s="41">
+        <v>16</v>
+      </c>
+      <c r="AN26" s="22">
         <f t="shared" ref="AN26:AN39" si="23">R3</f>
-        <v>0</v>
-      </c>
-      <c r="AO26" s="41">
+        <v>17</v>
+      </c>
+      <c r="AO26" s="22">
         <f t="shared" ref="AO26:AO39" si="24">S3</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AP26" s="17">
         <f t="shared" ref="AP26:AP39" si="25">T26</f>
         <v>260</v>
       </c>
       <c r="AQ26" s="12"/>
-      <c r="AR26" s="42">
+      <c r="AR26" s="23">
         <f>AB26/AP26</f>
-        <v>0.82692307692307687</v>
+        <v>7.3076923076923081E-2</v>
       </c>
       <c r="AS26" s="12"/>
     </row>
     <row r="27" spans="1:45" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="37" t="str">
+      <c r="B27" s="68"/>
+      <c r="C27" s="74" t="str">
         <f t="shared" si="4"/>
         <v>MITforest</v>
       </c>
-      <c r="D27" s="38"/>
+      <c r="D27" s="75"/>
       <c r="E27" s="6">
         <f t="shared" ref="E27:S27" si="26">E4/$T4</f>
-        <v>0</v>
+        <v>3.9473684210526314E-2</v>
       </c>
       <c r="F27" s="7">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>6.1403508771929821E-2</v>
       </c>
       <c r="G27" s="7">
         <f t="shared" si="26"/>
-        <v>0.94736842105263153</v>
+        <v>6.5789473684210523E-2</v>
       </c>
       <c r="H27" s="7">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>6.5789473684210523E-2</v>
       </c>
       <c r="I27" s="7">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="J27" s="7">
         <f t="shared" si="26"/>
-        <v>4.8245614035087717E-2</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="K27" s="7">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="L27" s="7">
         <f t="shared" si="26"/>
-        <v>4.3859649122807015E-3</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="M27" s="7">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>6.1403508771929821E-2</v>
       </c>
       <c r="N27" s="7">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>9.2105263157894732E-2</v>
       </c>
       <c r="O27" s="7">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>9.6491228070175433E-2</v>
       </c>
       <c r="P27" s="7">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="Q27" s="7">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>6.5789473684210523E-2</v>
       </c>
       <c r="R27" s="7">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>4.8245614035087717E-2</v>
       </c>
       <c r="S27" s="8">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>4.8245614035087717E-2</v>
       </c>
       <c r="T27" s="18">
         <f t="shared" si="8"/>
@@ -2974,110 +2974,110 @@
       <c r="U27" s="12"/>
       <c r="V27" s="2"/>
       <c r="W27" s="12"/>
-      <c r="X27" s="24"/>
-      <c r="Y27" s="72" t="str">
+      <c r="X27" s="68"/>
+      <c r="Y27" s="55" t="str">
         <f t="shared" si="9"/>
         <v>MITforest</v>
       </c>
-      <c r="Z27" s="78"/>
-      <c r="AA27" s="69">
+      <c r="Z27" s="56"/>
+      <c r="AA27" s="49">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AB27" s="41">
+        <v>9</v>
+      </c>
+      <c r="AB27" s="22">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AC27" s="41">
+        <v>14</v>
+      </c>
+      <c r="AC27" s="22">
         <f t="shared" si="12"/>
-        <v>216</v>
-      </c>
-      <c r="AD27" s="41">
+        <v>15</v>
+      </c>
+      <c r="AD27" s="22">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AE27" s="41">
+        <v>15</v>
+      </c>
+      <c r="AE27" s="22">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AF27" s="41">
+        <v>12</v>
+      </c>
+      <c r="AF27" s="22">
         <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+      <c r="AG27" s="22">
+        <f t="shared" si="16"/>
+        <v>19</v>
+      </c>
+      <c r="AH27" s="22">
+        <f t="shared" si="17"/>
+        <v>19</v>
+      </c>
+      <c r="AI27" s="22">
+        <f t="shared" si="18"/>
+        <v>14</v>
+      </c>
+      <c r="AJ27" s="22">
+        <f t="shared" si="19"/>
+        <v>21</v>
+      </c>
+      <c r="AK27" s="22">
+        <f t="shared" si="20"/>
+        <v>22</v>
+      </c>
+      <c r="AL27" s="22">
+        <f t="shared" si="21"/>
+        <v>19</v>
+      </c>
+      <c r="AM27" s="22">
+        <f t="shared" si="22"/>
+        <v>15</v>
+      </c>
+      <c r="AN27" s="22">
+        <f t="shared" si="23"/>
         <v>11</v>
       </c>
-      <c r="AG27" s="41">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AH27" s="41">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="AI27" s="41">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AJ27" s="41">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AK27" s="41">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AL27" s="41">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AM27" s="41">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AN27" s="41">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AO27" s="41">
+      <c r="AO27" s="22">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AP27" s="17">
         <f t="shared" si="25"/>
         <v>228</v>
       </c>
       <c r="AQ27" s="12"/>
-      <c r="AR27" s="42">
+      <c r="AR27" s="23">
         <f>AC27/AP27</f>
-        <v>0.94736842105263153</v>
+        <v>6.5789473684210523E-2</v>
       </c>
       <c r="AS27" s="12"/>
     </row>
     <row r="28" spans="1:45" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="37" t="str">
+      <c r="B28" s="68"/>
+      <c r="C28" s="74" t="str">
         <f t="shared" si="4"/>
         <v>MIThighway</v>
       </c>
-      <c r="D28" s="38"/>
+      <c r="D28" s="75"/>
       <c r="E28" s="6">
         <f t="shared" ref="E28:S28" si="27">E5/$T5</f>
-        <v>6.2500000000000003E-3</v>
+        <v>0.10625</v>
       </c>
       <c r="F28" s="7">
         <f t="shared" si="27"/>
-        <v>7.4999999999999997E-2</v>
+        <v>9.375E-2</v>
       </c>
       <c r="G28" s="7">
         <f t="shared" si="27"/>
-        <v>6.2500000000000003E-3</v>
+        <v>8.1250000000000003E-2</v>
       </c>
       <c r="H28" s="7">
         <f t="shared" si="27"/>
-        <v>0.70625000000000004</v>
+        <v>4.3749999999999997E-2</v>
       </c>
       <c r="I28" s="7">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>8.7499999999999994E-2</v>
       </c>
       <c r="J28" s="7">
         <f t="shared" si="27"/>
@@ -3085,39 +3085,39 @@
       </c>
       <c r="K28" s="7">
         <f t="shared" si="27"/>
-        <v>7.4999999999999997E-2</v>
+        <v>4.3749999999999997E-2</v>
       </c>
       <c r="L28" s="7">
         <f t="shared" si="27"/>
-        <v>3.7499999999999999E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="M28" s="7">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>8.1250000000000003E-2</v>
       </c>
       <c r="N28" s="7">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="O28" s="7">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="P28" s="7">
         <f t="shared" si="27"/>
-        <v>3.7499999999999999E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="Q28" s="7">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>5.6250000000000001E-2</v>
       </c>
       <c r="R28" s="7">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>5.6250000000000001E-2</v>
       </c>
       <c r="S28" s="8">
         <f t="shared" si="27"/>
-        <v>6.2500000000000003E-3</v>
+        <v>0.05</v>
       </c>
       <c r="T28" s="18">
         <f t="shared" si="8"/>
@@ -3126,150 +3126,150 @@
       <c r="U28" s="12"/>
       <c r="V28" s="2"/>
       <c r="W28" s="12"/>
-      <c r="X28" s="24"/>
-      <c r="Y28" s="72" t="str">
+      <c r="X28" s="68"/>
+      <c r="Y28" s="55" t="str">
         <f t="shared" si="9"/>
         <v>MIThighway</v>
       </c>
-      <c r="Z28" s="78"/>
-      <c r="AA28" s="69">
+      <c r="Z28" s="56"/>
+      <c r="AA28" s="49">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="AB28" s="41">
+        <v>17</v>
+      </c>
+      <c r="AB28" s="22">
         <f t="shared" si="11"/>
-        <v>12</v>
-      </c>
-      <c r="AC28" s="41">
+        <v>15</v>
+      </c>
+      <c r="AC28" s="22">
         <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="AD28" s="41">
+        <v>13</v>
+      </c>
+      <c r="AD28" s="22">
         <f t="shared" si="13"/>
-        <v>113</v>
-      </c>
-      <c r="AE28" s="41">
+        <v>7</v>
+      </c>
+      <c r="AE28" s="22">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AF28" s="41">
+        <v>14</v>
+      </c>
+      <c r="AF28" s="22">
         <f t="shared" si="15"/>
         <v>8</v>
       </c>
-      <c r="AG28" s="41">
+      <c r="AG28" s="22">
         <f t="shared" si="16"/>
+        <v>7</v>
+      </c>
+      <c r="AH28" s="22">
+        <f t="shared" si="17"/>
+        <v>10</v>
+      </c>
+      <c r="AI28" s="22">
+        <f t="shared" si="18"/>
+        <v>13</v>
+      </c>
+      <c r="AJ28" s="22">
+        <f t="shared" si="19"/>
+        <v>10</v>
+      </c>
+      <c r="AK28" s="22">
+        <f t="shared" si="20"/>
+        <v>8</v>
+      </c>
+      <c r="AL28" s="22">
+        <f t="shared" si="21"/>
         <v>12</v>
       </c>
-      <c r="AH28" s="41">
-        <f t="shared" si="17"/>
-        <v>6</v>
-      </c>
-      <c r="AI28" s="41">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AJ28" s="41">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AK28" s="41">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AL28" s="41">
-        <f t="shared" si="21"/>
-        <v>6</v>
-      </c>
-      <c r="AM28" s="41">
+      <c r="AM28" s="22">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AN28" s="41">
+        <v>9</v>
+      </c>
+      <c r="AN28" s="22">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AO28" s="41">
+        <v>9</v>
+      </c>
+      <c r="AO28" s="22">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AP28" s="17">
         <f t="shared" si="25"/>
         <v>160</v>
       </c>
       <c r="AQ28" s="12"/>
-      <c r="AR28" s="42">
+      <c r="AR28" s="23">
         <f>AD28/AP28</f>
-        <v>0.70625000000000004</v>
+        <v>4.3749999999999997E-2</v>
       </c>
       <c r="AS28" s="12"/>
     </row>
     <row r="29" spans="1:45" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="37" t="str">
+      <c r="B29" s="68"/>
+      <c r="C29" s="74" t="str">
         <f t="shared" si="4"/>
         <v>MITinsidecity</v>
       </c>
-      <c r="D29" s="38"/>
+      <c r="D29" s="75"/>
       <c r="E29" s="6">
         <f t="shared" ref="E29:S29" si="28">E6/$T6</f>
-        <v>2.403846153846154E-2</v>
+        <v>3.8461538461538464E-2</v>
       </c>
       <c r="F29" s="7">
         <f t="shared" si="28"/>
-        <v>9.6153846153846159E-3</v>
+        <v>0.1201923076923077</v>
       </c>
       <c r="G29" s="7">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="H29" s="7">
         <f t="shared" si="28"/>
-        <v>1.4423076923076924E-2</v>
+        <v>7.2115384615384609E-2</v>
       </c>
       <c r="I29" s="7">
         <f t="shared" si="28"/>
-        <v>0.73076923076923073</v>
+        <v>6.7307692307692304E-2</v>
       </c>
       <c r="J29" s="7">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>5.7692307692307696E-2</v>
       </c>
       <c r="K29" s="7">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>8.1730769230769232E-2</v>
       </c>
       <c r="L29" s="7">
         <f t="shared" si="28"/>
-        <v>0.1201923076923077</v>
+        <v>4.3269230769230768E-2</v>
       </c>
       <c r="M29" s="7">
         <f t="shared" si="28"/>
-        <v>2.8846153846153848E-2</v>
+        <v>5.2884615384615384E-2</v>
       </c>
       <c r="N29" s="7">
         <f t="shared" si="28"/>
-        <v>4.807692307692308E-3</v>
+        <v>7.2115384615384609E-2</v>
       </c>
       <c r="O29" s="7">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="P29" s="7">
         <f t="shared" si="28"/>
-        <v>3.3653846153846152E-2</v>
+        <v>0.1201923076923077</v>
       </c>
       <c r="Q29" s="7">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>2.8846153846153848E-2</v>
       </c>
       <c r="R29" s="7">
         <f t="shared" si="28"/>
-        <v>4.807692307692308E-3</v>
+        <v>4.3269230769230768E-2</v>
       </c>
       <c r="S29" s="8">
         <f t="shared" si="28"/>
-        <v>2.8846153846153848E-2</v>
+        <v>4.807692307692308E-2</v>
       </c>
       <c r="T29" s="18">
         <f t="shared" si="8"/>
@@ -3278,150 +3278,150 @@
       <c r="U29" s="12"/>
       <c r="V29" s="2"/>
       <c r="W29" s="12"/>
-      <c r="X29" s="24"/>
-      <c r="Y29" s="72" t="str">
+      <c r="X29" s="68"/>
+      <c r="Y29" s="55" t="str">
         <f t="shared" si="9"/>
         <v>MITinsidecity</v>
       </c>
-      <c r="Z29" s="78"/>
-      <c r="AA29" s="69">
+      <c r="Z29" s="56"/>
+      <c r="AA29" s="49">
         <f t="shared" si="10"/>
-        <v>5</v>
-      </c>
-      <c r="AB29" s="41">
+        <v>8</v>
+      </c>
+      <c r="AB29" s="22">
         <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="AC29" s="41">
+        <v>25</v>
+      </c>
+      <c r="AC29" s="22">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AD29" s="41">
+        <v>16</v>
+      </c>
+      <c r="AD29" s="22">
         <f t="shared" si="13"/>
-        <v>3</v>
-      </c>
-      <c r="AE29" s="41">
+        <v>15</v>
+      </c>
+      <c r="AE29" s="22">
         <f t="shared" si="14"/>
-        <v>152</v>
-      </c>
-      <c r="AF29" s="41">
+        <v>14</v>
+      </c>
+      <c r="AF29" s="22">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AG29" s="41">
+        <v>12</v>
+      </c>
+      <c r="AG29" s="22">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AH29" s="41">
+        <v>17</v>
+      </c>
+      <c r="AH29" s="22">
         <f t="shared" si="17"/>
+        <v>9</v>
+      </c>
+      <c r="AI29" s="22">
+        <f t="shared" si="18"/>
+        <v>11</v>
+      </c>
+      <c r="AJ29" s="22">
+        <f t="shared" si="19"/>
+        <v>15</v>
+      </c>
+      <c r="AK29" s="22">
+        <f t="shared" si="20"/>
+        <v>16</v>
+      </c>
+      <c r="AL29" s="22">
+        <f t="shared" si="21"/>
         <v>25</v>
       </c>
-      <c r="AI29" s="41">
-        <f t="shared" si="18"/>
+      <c r="AM29" s="22">
+        <f t="shared" si="22"/>
         <v>6</v>
       </c>
-      <c r="AJ29" s="41">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="AK29" s="41">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AL29" s="41">
-        <f t="shared" si="21"/>
-        <v>7</v>
-      </c>
-      <c r="AM29" s="41">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AN29" s="41">
+      <c r="AN29" s="22">
         <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="AO29" s="41">
+        <v>9</v>
+      </c>
+      <c r="AO29" s="22">
         <f t="shared" si="24"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AP29" s="17">
         <f t="shared" si="25"/>
         <v>208</v>
       </c>
       <c r="AQ29" s="12"/>
-      <c r="AR29" s="42">
+      <c r="AR29" s="23">
         <f>AE29/AP29</f>
-        <v>0.73076923076923073</v>
+        <v>6.7307692307692304E-2</v>
       </c>
       <c r="AS29" s="12"/>
     </row>
     <row r="30" spans="1:45" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="37" t="str">
+      <c r="B30" s="68"/>
+      <c r="C30" s="74" t="str">
         <f t="shared" si="4"/>
         <v>MITmountain</v>
       </c>
-      <c r="D30" s="38"/>
+      <c r="D30" s="75"/>
       <c r="E30" s="6">
         <f t="shared" ref="E30:S30" si="29">E7/$T7</f>
-        <v>0</v>
+        <v>6.9343065693430656E-2</v>
       </c>
       <c r="F30" s="7">
         <f t="shared" si="29"/>
-        <v>2.5547445255474453E-2</v>
+        <v>5.8394160583941604E-2</v>
       </c>
       <c r="G30" s="7">
         <f t="shared" si="29"/>
-        <v>3.2846715328467155E-2</v>
+        <v>6.569343065693431E-2</v>
       </c>
       <c r="H30" s="7">
         <f t="shared" si="29"/>
-        <v>1.0948905109489052E-2</v>
+        <v>5.4744525547445258E-2</v>
       </c>
       <c r="I30" s="7">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>5.8394160583941604E-2</v>
       </c>
       <c r="J30" s="7">
         <f t="shared" si="29"/>
-        <v>0.86131386861313863</v>
+        <v>9.8540145985401464E-2</v>
       </c>
       <c r="K30" s="7">
         <f t="shared" si="29"/>
-        <v>4.0145985401459854E-2</v>
+        <v>4.7445255474452552E-2</v>
       </c>
       <c r="L30" s="7">
         <f t="shared" si="29"/>
-        <v>1.4598540145985401E-2</v>
+        <v>5.1094890510948905E-2</v>
       </c>
       <c r="M30" s="7">
         <f t="shared" si="29"/>
-        <v>3.6496350364963502E-3</v>
+        <v>6.2043795620437957E-2</v>
       </c>
       <c r="N30" s="7">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>8.0291970802919707E-2</v>
       </c>
       <c r="O30" s="7">
         <f t="shared" si="29"/>
-        <v>3.6496350364963502E-3</v>
+        <v>8.7591240875912413E-2</v>
       </c>
       <c r="P30" s="7">
         <f t="shared" si="29"/>
-        <v>7.2992700729927005E-3</v>
+        <v>6.2043795620437957E-2</v>
       </c>
       <c r="Q30" s="7">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>6.2043795620437957E-2</v>
       </c>
       <c r="R30" s="7">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>6.569343065693431E-2</v>
       </c>
       <c r="S30" s="8">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>7.6642335766423361E-2</v>
       </c>
       <c r="T30" s="18">
         <f t="shared" si="8"/>
@@ -3430,150 +3430,150 @@
       <c r="U30" s="12"/>
       <c r="V30" s="2"/>
       <c r="W30" s="12"/>
-      <c r="X30" s="24"/>
-      <c r="Y30" s="72" t="str">
+      <c r="X30" s="68"/>
+      <c r="Y30" s="55" t="str">
         <f t="shared" si="9"/>
         <v>MITmountain</v>
       </c>
-      <c r="Z30" s="78"/>
-      <c r="AA30" s="69">
+      <c r="Z30" s="56"/>
+      <c r="AA30" s="49">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AB30" s="41">
+        <v>19</v>
+      </c>
+      <c r="AB30" s="22">
         <f t="shared" si="11"/>
-        <v>7</v>
-      </c>
-      <c r="AC30" s="41">
+        <v>16</v>
+      </c>
+      <c r="AC30" s="22">
         <f t="shared" si="12"/>
-        <v>9</v>
-      </c>
-      <c r="AD30" s="41">
+        <v>18</v>
+      </c>
+      <c r="AD30" s="22">
         <f t="shared" si="13"/>
-        <v>3</v>
-      </c>
-      <c r="AE30" s="41">
+        <v>15</v>
+      </c>
+      <c r="AE30" s="22">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AF30" s="41">
+        <v>16</v>
+      </c>
+      <c r="AF30" s="22">
         <f t="shared" si="15"/>
-        <v>236</v>
-      </c>
-      <c r="AG30" s="41">
+        <v>27</v>
+      </c>
+      <c r="AG30" s="22">
         <f t="shared" si="16"/>
-        <v>11</v>
-      </c>
-      <c r="AH30" s="41">
+        <v>13</v>
+      </c>
+      <c r="AH30" s="22">
         <f t="shared" si="17"/>
-        <v>4</v>
-      </c>
-      <c r="AI30" s="41">
+        <v>14</v>
+      </c>
+      <c r="AI30" s="22">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="AJ30" s="41">
+        <v>17</v>
+      </c>
+      <c r="AJ30" s="22">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AK30" s="41">
+        <v>22</v>
+      </c>
+      <c r="AK30" s="22">
         <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="AL30" s="41">
+        <v>24</v>
+      </c>
+      <c r="AL30" s="22">
         <f t="shared" si="21"/>
-        <v>2</v>
-      </c>
-      <c r="AM30" s="41">
+        <v>17</v>
+      </c>
+      <c r="AM30" s="22">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AN30" s="41">
+        <v>17</v>
+      </c>
+      <c r="AN30" s="22">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AO30" s="41">
+        <v>18</v>
+      </c>
+      <c r="AO30" s="22">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AP30" s="17">
         <f t="shared" si="25"/>
         <v>274</v>
       </c>
       <c r="AQ30" s="12"/>
-      <c r="AR30" s="42">
+      <c r="AR30" s="23">
         <f>AF30/AP30</f>
-        <v>0.86131386861313863</v>
+        <v>9.8540145985401464E-2</v>
       </c>
       <c r="AS30" s="12"/>
     </row>
     <row r="31" spans="1:45" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="12"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="37" t="str">
+      <c r="B31" s="68"/>
+      <c r="C31" s="74" t="str">
         <f t="shared" si="4"/>
         <v>MITopencountry</v>
       </c>
-      <c r="D31" s="38"/>
+      <c r="D31" s="75"/>
       <c r="E31" s="6">
         <f t="shared" ref="E31:S31" si="30">E8/$T8</f>
-        <v>2.2580645161290321E-2</v>
+        <v>5.4838709677419356E-2</v>
       </c>
       <c r="F31" s="7">
         <f t="shared" si="30"/>
-        <v>0.13225806451612904</v>
+        <v>5.8064516129032261E-2</v>
       </c>
       <c r="G31" s="7">
         <f t="shared" si="30"/>
-        <v>4.5161290322580643E-2</v>
+        <v>6.4516129032258063E-2</v>
       </c>
       <c r="H31" s="7">
         <f t="shared" si="30"/>
-        <v>9.6774193548387101E-3</v>
+        <v>6.1290322580645158E-2</v>
       </c>
       <c r="I31" s="7">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>5.8064516129032261E-2</v>
       </c>
       <c r="J31" s="7">
         <f t="shared" si="30"/>
-        <v>7.4193548387096769E-2</v>
+        <v>6.7741935483870974E-2</v>
       </c>
       <c r="K31" s="7">
         <f t="shared" si="30"/>
-        <v>0.6806451612903226</v>
+        <v>0.1032258064516129</v>
       </c>
       <c r="L31" s="7">
         <f t="shared" si="30"/>
-        <v>1.6129032258064516E-2</v>
+        <v>6.4516129032258063E-2</v>
       </c>
       <c r="M31" s="7">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>9.3548387096774197E-2</v>
       </c>
       <c r="N31" s="7">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>4.5161290322580643E-2</v>
       </c>
       <c r="O31" s="7">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>7.7419354838709681E-2</v>
       </c>
       <c r="P31" s="7">
         <f t="shared" si="30"/>
-        <v>9.6774193548387101E-3</v>
+        <v>3.5483870967741936E-2</v>
       </c>
       <c r="Q31" s="7">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>7.7419354838709681E-2</v>
       </c>
       <c r="R31" s="7">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>7.0967741935483872E-2</v>
       </c>
       <c r="S31" s="8">
         <f t="shared" si="30"/>
-        <v>9.6774193548387101E-3</v>
+        <v>6.7741935483870974E-2</v>
       </c>
       <c r="T31" s="18">
         <f t="shared" si="8"/>
@@ -3582,150 +3582,150 @@
       <c r="U31" s="12"/>
       <c r="V31" s="2"/>
       <c r="W31" s="12"/>
-      <c r="X31" s="24"/>
-      <c r="Y31" s="72" t="str">
+      <c r="X31" s="68"/>
+      <c r="Y31" s="55" t="str">
         <f t="shared" si="9"/>
         <v>MITopencountry</v>
       </c>
-      <c r="Z31" s="78"/>
-      <c r="AA31" s="69">
+      <c r="Z31" s="56"/>
+      <c r="AA31" s="49">
         <f t="shared" si="10"/>
-        <v>7</v>
-      </c>
-      <c r="AB31" s="41">
+        <v>17</v>
+      </c>
+      <c r="AB31" s="22">
         <f t="shared" si="11"/>
-        <v>41</v>
-      </c>
-      <c r="AC31" s="41">
+        <v>18</v>
+      </c>
+      <c r="AC31" s="22">
         <f t="shared" si="12"/>
+        <v>20</v>
+      </c>
+      <c r="AD31" s="22">
+        <f t="shared" si="13"/>
+        <v>19</v>
+      </c>
+      <c r="AE31" s="22">
+        <f t="shared" si="14"/>
+        <v>18</v>
+      </c>
+      <c r="AF31" s="22">
+        <f t="shared" si="15"/>
+        <v>21</v>
+      </c>
+      <c r="AG31" s="22">
+        <f t="shared" si="16"/>
+        <v>32</v>
+      </c>
+      <c r="AH31" s="22">
+        <f t="shared" si="17"/>
+        <v>20</v>
+      </c>
+      <c r="AI31" s="22">
+        <f t="shared" si="18"/>
+        <v>29</v>
+      </c>
+      <c r="AJ31" s="22">
+        <f t="shared" si="19"/>
         <v>14</v>
       </c>
-      <c r="AD31" s="41">
-        <f t="shared" si="13"/>
-        <v>3</v>
-      </c>
-      <c r="AE31" s="41">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AF31" s="41">
-        <f t="shared" si="15"/>
-        <v>23</v>
-      </c>
-      <c r="AG31" s="41">
-        <f t="shared" si="16"/>
-        <v>211</v>
-      </c>
-      <c r="AH31" s="41">
-        <f t="shared" si="17"/>
-        <v>5</v>
-      </c>
-      <c r="AI31" s="41">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AJ31" s="41">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AK31" s="41">
+      <c r="AK31" s="22">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AL31" s="41">
+        <v>24</v>
+      </c>
+      <c r="AL31" s="22">
         <f t="shared" si="21"/>
-        <v>3</v>
-      </c>
-      <c r="AM31" s="41">
+        <v>11</v>
+      </c>
+      <c r="AM31" s="22">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AN31" s="41">
+        <v>24</v>
+      </c>
+      <c r="AN31" s="22">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="AO31" s="41">
+        <v>22</v>
+      </c>
+      <c r="AO31" s="22">
         <f t="shared" si="24"/>
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="AP31" s="17">
         <f t="shared" si="25"/>
         <v>310</v>
       </c>
       <c r="AQ31" s="12"/>
-      <c r="AR31" s="42">
+      <c r="AR31" s="23">
         <f>AG31/AP31</f>
-        <v>0.6806451612903226</v>
+        <v>0.1032258064516129</v>
       </c>
       <c r="AS31" s="12"/>
     </row>
     <row r="32" spans="1:45" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="12"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="37" t="str">
+      <c r="B32" s="68"/>
+      <c r="C32" s="74" t="str">
         <f t="shared" si="4"/>
         <v>MITstreet</v>
       </c>
-      <c r="D32" s="38"/>
+      <c r="D32" s="75"/>
       <c r="E32" s="6">
         <f t="shared" ref="E32:S32" si="31">E9/$T9</f>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="F32" s="7">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="G32" s="7">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>7.2916666666666671E-2</v>
       </c>
       <c r="H32" s="7">
         <f t="shared" si="31"/>
-        <v>3.125E-2</v>
+        <v>5.2083333333333336E-2</v>
       </c>
       <c r="I32" s="7">
         <f t="shared" si="31"/>
-        <v>1.0416666666666666E-2</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="J32" s="7">
         <f t="shared" si="31"/>
-        <v>5.208333333333333E-3</v>
+        <v>5.7291666666666664E-2</v>
       </c>
       <c r="K32" s="7">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>6.7708333333333329E-2</v>
       </c>
       <c r="L32" s="7">
         <f t="shared" si="31"/>
-        <v>0.90104166666666663</v>
+        <v>7.2916666666666671E-2</v>
       </c>
       <c r="M32" s="7">
         <f t="shared" si="31"/>
-        <v>2.0833333333333332E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="N32" s="7">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>4.6875E-2</v>
       </c>
       <c r="O32" s="7">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="P32" s="7">
         <f t="shared" si="31"/>
-        <v>1.5625E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="Q32" s="7">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="R32" s="7">
         <f t="shared" si="31"/>
-        <v>1.0416666666666666E-2</v>
+        <v>3.6458333333333336E-2</v>
       </c>
       <c r="S32" s="8">
         <f t="shared" si="31"/>
-        <v>5.208333333333333E-3</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="T32" s="18">
         <f t="shared" si="8"/>
@@ -3734,150 +3734,150 @@
       <c r="U32" s="12"/>
       <c r="V32" s="2"/>
       <c r="W32" s="12"/>
-      <c r="X32" s="24"/>
-      <c r="Y32" s="72" t="str">
+      <c r="X32" s="68"/>
+      <c r="Y32" s="55" t="str">
         <f t="shared" si="9"/>
         <v>MITstreet</v>
       </c>
-      <c r="Z32" s="78"/>
-      <c r="AA32" s="69">
+      <c r="Z32" s="56"/>
+      <c r="AA32" s="49">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AB32" s="41">
+        <v>12</v>
+      </c>
+      <c r="AB32" s="22">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AC32" s="41">
+        <v>12</v>
+      </c>
+      <c r="AC32" s="22">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AD32" s="41">
+        <v>14</v>
+      </c>
+      <c r="AD32" s="22">
         <f t="shared" si="13"/>
-        <v>6</v>
-      </c>
-      <c r="AE32" s="41">
+        <v>10</v>
+      </c>
+      <c r="AE32" s="22">
         <f t="shared" si="14"/>
-        <v>2</v>
-      </c>
-      <c r="AF32" s="41">
+        <v>15</v>
+      </c>
+      <c r="AF32" s="22">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AG32" s="41">
+        <v>11</v>
+      </c>
+      <c r="AG32" s="22">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AH32" s="41">
+        <v>13</v>
+      </c>
+      <c r="AH32" s="22">
         <f t="shared" si="17"/>
-        <v>173</v>
-      </c>
-      <c r="AI32" s="41">
+        <v>14</v>
+      </c>
+      <c r="AI32" s="22">
         <f t="shared" si="18"/>
-        <v>4</v>
-      </c>
-      <c r="AJ32" s="41">
+        <v>16</v>
+      </c>
+      <c r="AJ32" s="22">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AK32" s="41">
+        <v>9</v>
+      </c>
+      <c r="AK32" s="22">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AL32" s="41">
+        <v>16</v>
+      </c>
+      <c r="AL32" s="22">
         <f t="shared" si="21"/>
-        <v>3</v>
-      </c>
-      <c r="AM32" s="41">
+        <v>12</v>
+      </c>
+      <c r="AM32" s="22">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AN32" s="41">
+        <v>15</v>
+      </c>
+      <c r="AN32" s="22">
         <f t="shared" si="23"/>
-        <v>2</v>
-      </c>
-      <c r="AO32" s="41">
+        <v>7</v>
+      </c>
+      <c r="AO32" s="22">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="AP32" s="17">
         <f t="shared" si="25"/>
         <v>192</v>
       </c>
       <c r="AQ32" s="12"/>
-      <c r="AR32" s="42">
+      <c r="AR32" s="23">
         <f>AH32/AP32</f>
-        <v>0.90104166666666663</v>
+        <v>7.2916666666666671E-2</v>
       </c>
       <c r="AS32" s="12"/>
     </row>
     <row r="33" spans="1:45" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="12"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="37" t="str">
+      <c r="B33" s="68"/>
+      <c r="C33" s="74" t="str">
         <f t="shared" si="4"/>
         <v>MITtallbuilding</v>
       </c>
-      <c r="D33" s="38"/>
+      <c r="D33" s="75"/>
       <c r="E33" s="6">
         <f t="shared" ref="E33:S33" si="32">E10/$T10</f>
-        <v>0</v>
+        <v>7.03125E-2</v>
       </c>
       <c r="F33" s="7">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>5.078125E-2</v>
       </c>
       <c r="G33" s="7">
         <f t="shared" si="32"/>
-        <v>3.90625E-3</v>
+        <v>7.03125E-2</v>
       </c>
       <c r="H33" s="7">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>7.03125E-2</v>
       </c>
       <c r="I33" s="7">
         <f t="shared" si="32"/>
-        <v>3.125E-2</v>
+        <v>5.078125E-2</v>
       </c>
       <c r="J33" s="7">
         <f t="shared" si="32"/>
-        <v>3.90625E-3</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="K33" s="7">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>8.59375E-2</v>
       </c>
       <c r="L33" s="7">
         <f t="shared" si="32"/>
-        <v>3.90625E-3</v>
+        <v>3.515625E-2</v>
       </c>
       <c r="M33" s="7">
         <f t="shared" si="32"/>
-        <v>0.92578125</v>
+        <v>8.203125E-2</v>
       </c>
       <c r="N33" s="7">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>5.859375E-2</v>
       </c>
       <c r="O33" s="7">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>4.296875E-2</v>
       </c>
       <c r="P33" s="7">
         <f t="shared" si="32"/>
-        <v>2.34375E-2</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="Q33" s="7">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>8.203125E-2</v>
       </c>
       <c r="R33" s="7">
         <f t="shared" si="32"/>
-        <v>3.90625E-3</v>
+        <v>7.03125E-2</v>
       </c>
       <c r="S33" s="8">
         <f t="shared" si="32"/>
-        <v>3.90625E-3</v>
+        <v>7.421875E-2</v>
       </c>
       <c r="T33" s="18">
         <f t="shared" si="8"/>
@@ -3886,150 +3886,150 @@
       <c r="U33" s="12"/>
       <c r="V33" s="2"/>
       <c r="W33" s="12"/>
-      <c r="X33" s="24"/>
-      <c r="Y33" s="72" t="str">
+      <c r="X33" s="68"/>
+      <c r="Y33" s="55" t="str">
         <f t="shared" si="9"/>
         <v>MITtallbuilding</v>
       </c>
-      <c r="Z33" s="78"/>
-      <c r="AA33" s="69">
+      <c r="Z33" s="56"/>
+      <c r="AA33" s="49">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AB33" s="41">
+        <v>18</v>
+      </c>
+      <c r="AB33" s="22">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AC33" s="41">
+        <v>13</v>
+      </c>
+      <c r="AC33" s="22">
         <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="AD33" s="41">
+        <v>18</v>
+      </c>
+      <c r="AD33" s="22">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AE33" s="41">
+        <v>18</v>
+      </c>
+      <c r="AE33" s="22">
         <f t="shared" si="14"/>
-        <v>8</v>
-      </c>
-      <c r="AF33" s="41">
+        <v>13</v>
+      </c>
+      <c r="AF33" s="22">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AG33" s="41">
+        <v>20</v>
+      </c>
+      <c r="AG33" s="22">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AH33" s="41">
+        <v>22</v>
+      </c>
+      <c r="AH33" s="22">
         <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="AI33" s="41">
+        <v>9</v>
+      </c>
+      <c r="AI33" s="22">
         <f t="shared" si="18"/>
-        <v>237</v>
-      </c>
-      <c r="AJ33" s="41">
+        <v>21</v>
+      </c>
+      <c r="AJ33" s="22">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AK33" s="41">
+        <v>15</v>
+      </c>
+      <c r="AK33" s="22">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="AL33" s="41">
+        <v>11</v>
+      </c>
+      <c r="AL33" s="22">
         <f t="shared" si="21"/>
-        <v>6</v>
-      </c>
-      <c r="AM33" s="41">
+        <v>20</v>
+      </c>
+      <c r="AM33" s="22">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AN33" s="41">
+        <v>21</v>
+      </c>
+      <c r="AN33" s="22">
         <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="AO33" s="41">
+        <v>18</v>
+      </c>
+      <c r="AO33" s="22">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="AP33" s="17">
         <f t="shared" si="25"/>
         <v>256</v>
       </c>
       <c r="AQ33" s="12"/>
-      <c r="AR33" s="42">
+      <c r="AR33" s="23">
         <f>AI33/AP33</f>
-        <v>0.92578125</v>
+        <v>8.203125E-2</v>
       </c>
       <c r="AS33" s="12"/>
     </row>
     <row r="34" spans="1:45" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="12"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="37" t="str">
+      <c r="B34" s="68"/>
+      <c r="C34" s="74" t="str">
         <f t="shared" si="4"/>
         <v>PARoffice</v>
       </c>
-      <c r="D34" s="38"/>
+      <c r="D34" s="75"/>
       <c r="E34" s="6">
         <f t="shared" ref="E34:S34" si="33">E11/$T11</f>
-        <v>0</v>
+        <v>3.4782608695652174E-2</v>
       </c>
       <c r="F34" s="7">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>4.3478260869565216E-2</v>
       </c>
       <c r="G34" s="7">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>3.4782608695652174E-2</v>
       </c>
       <c r="H34" s="7">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>7.8260869565217397E-2</v>
       </c>
       <c r="I34" s="7">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>7.8260869565217397E-2</v>
       </c>
       <c r="J34" s="7">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>5.2173913043478258E-2</v>
       </c>
       <c r="K34" s="7">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>6.9565217391304349E-2</v>
       </c>
       <c r="L34" s="7">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>6.0869565217391307E-2</v>
       </c>
       <c r="M34" s="7">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>7.8260869565217397E-2</v>
       </c>
       <c r="N34" s="7">
         <f t="shared" si="33"/>
-        <v>0.88695652173913042</v>
+        <v>0.10434782608695652</v>
       </c>
       <c r="O34" s="7">
         <f t="shared" si="33"/>
-        <v>8.6956521739130436E-3</v>
+        <v>4.3478260869565216E-2</v>
       </c>
       <c r="P34" s="7">
         <f t="shared" si="33"/>
-        <v>8.6956521739130436E-3</v>
+        <v>6.9565217391304349E-2</v>
       </c>
       <c r="Q34" s="7">
         <f t="shared" si="33"/>
-        <v>6.9565217391304349E-2</v>
+        <v>8.6956521739130432E-2</v>
       </c>
       <c r="R34" s="7">
         <f t="shared" si="33"/>
-        <v>1.7391304347826087E-2</v>
+        <v>6.0869565217391307E-2</v>
       </c>
       <c r="S34" s="8">
         <f t="shared" si="33"/>
-        <v>8.6956521739130436E-3</v>
+        <v>0.10434782608695652</v>
       </c>
       <c r="T34" s="18">
         <f t="shared" si="8"/>
@@ -4038,150 +4038,150 @@
       <c r="U34" s="12"/>
       <c r="V34" s="2"/>
       <c r="W34" s="12"/>
-      <c r="X34" s="24"/>
-      <c r="Y34" s="72" t="str">
+      <c r="X34" s="68"/>
+      <c r="Y34" s="55" t="str">
         <f t="shared" si="9"/>
         <v>PARoffice</v>
       </c>
-      <c r="Z34" s="78"/>
-      <c r="AA34" s="69">
+      <c r="Z34" s="56"/>
+      <c r="AA34" s="49">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AB34" s="41">
+        <v>4</v>
+      </c>
+      <c r="AB34" s="22">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AC34" s="41">
+        <v>5</v>
+      </c>
+      <c r="AC34" s="22">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AD34" s="41">
+        <v>4</v>
+      </c>
+      <c r="AD34" s="22">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AE34" s="41">
+        <v>9</v>
+      </c>
+      <c r="AE34" s="22">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AF34" s="41">
+        <v>9</v>
+      </c>
+      <c r="AF34" s="22">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AG34" s="41">
+        <v>6</v>
+      </c>
+      <c r="AG34" s="22">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AH34" s="41">
+        <v>8</v>
+      </c>
+      <c r="AH34" s="22">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AI34" s="41">
+        <v>7</v>
+      </c>
+      <c r="AI34" s="22">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AJ34" s="41">
+        <v>9</v>
+      </c>
+      <c r="AJ34" s="22">
         <f t="shared" si="19"/>
-        <v>102</v>
-      </c>
-      <c r="AK34" s="41">
+        <v>12</v>
+      </c>
+      <c r="AK34" s="22">
         <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="AL34" s="41">
+        <v>5</v>
+      </c>
+      <c r="AL34" s="22">
         <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="AM34" s="41">
+        <v>8</v>
+      </c>
+      <c r="AM34" s="22">
         <f t="shared" si="22"/>
-        <v>8</v>
-      </c>
-      <c r="AN34" s="41">
+        <v>10</v>
+      </c>
+      <c r="AN34" s="22">
         <f t="shared" si="23"/>
-        <v>2</v>
-      </c>
-      <c r="AO34" s="41">
+        <v>7</v>
+      </c>
+      <c r="AO34" s="22">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AP34" s="17">
         <f t="shared" si="25"/>
         <v>115</v>
       </c>
       <c r="AQ34" s="12"/>
-      <c r="AR34" s="42">
+      <c r="AR34" s="23">
         <f>AJ34/AP34</f>
-        <v>0.88695652173913042</v>
+        <v>0.10434782608695652</v>
       </c>
       <c r="AS34" s="12"/>
     </row>
     <row r="35" spans="1:45" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="12"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="37" t="str">
+      <c r="B35" s="68"/>
+      <c r="C35" s="74" t="str">
         <f t="shared" si="4"/>
         <v>bedroom</v>
       </c>
-      <c r="D35" s="38"/>
+      <c r="D35" s="75"/>
       <c r="E35" s="6">
         <f t="shared" ref="E35:S35" si="34">E12/$T12</f>
-        <v>0</v>
+        <v>6.8965517241379309E-2</v>
       </c>
       <c r="F35" s="7">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>7.7586206896551727E-2</v>
       </c>
       <c r="G35" s="7">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>5.1724137931034482E-2</v>
       </c>
       <c r="H35" s="7">
         <f t="shared" si="34"/>
-        <v>8.6206896551724137E-3</v>
+        <v>5.1724137931034482E-2</v>
       </c>
       <c r="I35" s="7">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>6.0344827586206899E-2</v>
       </c>
       <c r="J35" s="7">
         <f t="shared" si="34"/>
-        <v>8.6206896551724137E-3</v>
+        <v>2.5862068965517241E-2</v>
       </c>
       <c r="K35" s="7">
         <f t="shared" si="34"/>
-        <v>8.6206896551724137E-3</v>
+        <v>0.10344827586206896</v>
       </c>
       <c r="L35" s="7">
         <f t="shared" si="34"/>
-        <v>1.7241379310344827E-2</v>
+        <v>4.3103448275862072E-2</v>
       </c>
       <c r="M35" s="7">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>8.6206896551724144E-2</v>
       </c>
       <c r="N35" s="7">
         <f t="shared" si="34"/>
-        <v>4.3103448275862072E-2</v>
+        <v>6.8965517241379309E-2</v>
       </c>
       <c r="O35" s="7">
         <f t="shared" si="34"/>
-        <v>0.59482758620689657</v>
+        <v>7.7586206896551727E-2</v>
       </c>
       <c r="P35" s="7">
         <f t="shared" si="34"/>
-        <v>1.7241379310344827E-2</v>
+        <v>8.6206896551724144E-2</v>
       </c>
       <c r="Q35" s="7">
         <f t="shared" si="34"/>
-        <v>6.0344827586206899E-2</v>
+        <v>7.7586206896551727E-2</v>
       </c>
       <c r="R35" s="7">
         <f t="shared" si="34"/>
-        <v>0.22413793103448276</v>
+        <v>6.8965517241379309E-2</v>
       </c>
       <c r="S35" s="8">
         <f t="shared" si="34"/>
-        <v>1.7241379310344827E-2</v>
+        <v>5.1724137931034482E-2</v>
       </c>
       <c r="T35" s="18">
         <f t="shared" si="8"/>
@@ -4190,150 +4190,150 @@
       <c r="U35" s="12"/>
       <c r="V35" s="2"/>
       <c r="W35" s="12"/>
-      <c r="X35" s="24"/>
-      <c r="Y35" s="72" t="str">
+      <c r="X35" s="68"/>
+      <c r="Y35" s="55" t="str">
         <f t="shared" si="9"/>
         <v>bedroom</v>
       </c>
-      <c r="Z35" s="78"/>
-      <c r="AA35" s="69">
+      <c r="Z35" s="56"/>
+      <c r="AA35" s="49">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AB35" s="41">
+        <v>8</v>
+      </c>
+      <c r="AB35" s="22">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AC35" s="41">
+        <v>9</v>
+      </c>
+      <c r="AC35" s="22">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AD35" s="41">
+        <v>6</v>
+      </c>
+      <c r="AD35" s="22">
         <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="AE35" s="41">
+        <v>6</v>
+      </c>
+      <c r="AE35" s="22">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AF35" s="41">
+        <v>7</v>
+      </c>
+      <c r="AF35" s="22">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AG35" s="41">
+        <v>3</v>
+      </c>
+      <c r="AG35" s="22">
         <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="AH35" s="41">
+        <v>12</v>
+      </c>
+      <c r="AH35" s="22">
         <f t="shared" si="17"/>
-        <v>2</v>
-      </c>
-      <c r="AI35" s="41">
+        <v>5</v>
+      </c>
+      <c r="AI35" s="22">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AJ35" s="41">
+        <v>10</v>
+      </c>
+      <c r="AJ35" s="22">
         <f t="shared" si="19"/>
-        <v>5</v>
-      </c>
-      <c r="AK35" s="41">
+        <v>8</v>
+      </c>
+      <c r="AK35" s="22">
         <f t="shared" si="20"/>
-        <v>69</v>
-      </c>
-      <c r="AL35" s="41">
+        <v>9</v>
+      </c>
+      <c r="AL35" s="22">
         <f t="shared" si="21"/>
-        <v>2</v>
-      </c>
-      <c r="AM35" s="41">
+        <v>10</v>
+      </c>
+      <c r="AM35" s="22">
         <f t="shared" si="22"/>
-        <v>7</v>
-      </c>
-      <c r="AN35" s="41">
+        <v>9</v>
+      </c>
+      <c r="AN35" s="22">
         <f t="shared" si="23"/>
-        <v>26</v>
-      </c>
-      <c r="AO35" s="41">
+        <v>8</v>
+      </c>
+      <c r="AO35" s="22">
         <f t="shared" si="24"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AP35" s="17">
         <f t="shared" si="25"/>
         <v>116</v>
       </c>
       <c r="AQ35" s="12"/>
-      <c r="AR35" s="42">
+      <c r="AR35" s="23">
         <f>AK35/AP35</f>
-        <v>0.59482758620689657</v>
+        <v>7.7586206896551727E-2</v>
       </c>
       <c r="AS35" s="12"/>
     </row>
     <row r="36" spans="1:45" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="12"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="37" t="str">
+      <c r="B36" s="68"/>
+      <c r="C36" s="74" t="str">
         <f t="shared" si="4"/>
         <v>industrial</v>
       </c>
-      <c r="D36" s="38"/>
+      <c r="D36" s="75"/>
       <c r="E36" s="6">
         <f t="shared" ref="E36:S36" si="35">E13/$T13</f>
-        <v>1.4218009478672985E-2</v>
+        <v>6.1611374407582936E-2</v>
       </c>
       <c r="F36" s="7">
         <f t="shared" si="35"/>
-        <v>4.7393364928909956E-3</v>
+        <v>9.4786729857819899E-2</v>
       </c>
       <c r="G36" s="7">
         <f t="shared" si="35"/>
-        <v>4.7393364928909956E-3</v>
+        <v>5.6872037914691941E-2</v>
       </c>
       <c r="H36" s="7">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>6.6350710900473939E-2</v>
       </c>
       <c r="I36" s="7">
         <f t="shared" si="35"/>
-        <v>8.0568720379146919E-2</v>
+        <v>9.9526066350710901E-2</v>
       </c>
       <c r="J36" s="7">
         <f t="shared" si="35"/>
-        <v>9.4786729857819912E-3</v>
+        <v>5.2132701421800945E-2</v>
       </c>
       <c r="K36" s="7">
         <f t="shared" si="35"/>
-        <v>9.4786729857819912E-3</v>
+        <v>6.6350710900473939E-2</v>
       </c>
       <c r="L36" s="7">
         <f t="shared" si="35"/>
-        <v>5.2132701421800945E-2</v>
+        <v>8.5308056872037921E-2</v>
       </c>
       <c r="M36" s="7">
         <f t="shared" si="35"/>
-        <v>0.12796208530805686</v>
+        <v>5.6872037914691941E-2</v>
       </c>
       <c r="N36" s="7">
         <f t="shared" si="35"/>
-        <v>1.4218009478672985E-2</v>
+        <v>5.6872037914691941E-2</v>
       </c>
       <c r="O36" s="7">
         <f t="shared" si="35"/>
-        <v>9.4786729857819912E-3</v>
+        <v>5.2132701421800945E-2</v>
       </c>
       <c r="P36" s="7">
         <f t="shared" si="35"/>
-        <v>0.51658767772511849</v>
+        <v>6.1611374407582936E-2</v>
       </c>
       <c r="Q36" s="7">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>7.1090047393364927E-2</v>
       </c>
       <c r="R36" s="7">
         <f t="shared" si="35"/>
-        <v>1.8957345971563982E-2</v>
+        <v>7.1090047393364927E-2</v>
       </c>
       <c r="S36" s="8">
         <f t="shared" si="35"/>
-        <v>0.13744075829383887</v>
+        <v>4.7393364928909949E-2</v>
       </c>
       <c r="T36" s="18">
         <f t="shared" si="8"/>
@@ -4341,130 +4341,130 @@
       </c>
       <c r="U36" s="12"/>
       <c r="W36" s="12"/>
-      <c r="X36" s="24"/>
-      <c r="Y36" s="72" t="str">
+      <c r="X36" s="68"/>
+      <c r="Y36" s="55" t="str">
         <f t="shared" si="9"/>
         <v>industrial</v>
       </c>
-      <c r="Z36" s="78"/>
-      <c r="AA36" s="69">
+      <c r="Z36" s="56"/>
+      <c r="AA36" s="49">
         <f t="shared" si="10"/>
-        <v>3</v>
-      </c>
-      <c r="AB36" s="41">
+        <v>13</v>
+      </c>
+      <c r="AB36" s="22">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AC36" s="41">
+        <v>20</v>
+      </c>
+      <c r="AC36" s="22">
         <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="AD36" s="41">
+        <v>12</v>
+      </c>
+      <c r="AD36" s="22">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AE36" s="41">
+        <v>14</v>
+      </c>
+      <c r="AE36" s="22">
         <f t="shared" si="14"/>
-        <v>17</v>
-      </c>
-      <c r="AF36" s="41">
+        <v>21</v>
+      </c>
+      <c r="AF36" s="22">
         <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="AG36" s="41">
+        <v>11</v>
+      </c>
+      <c r="AG36" s="22">
         <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="AH36" s="41">
+        <v>14</v>
+      </c>
+      <c r="AH36" s="22">
         <f t="shared" si="17"/>
+        <v>18</v>
+      </c>
+      <c r="AI36" s="22">
+        <f t="shared" si="18"/>
+        <v>12</v>
+      </c>
+      <c r="AJ36" s="22">
+        <f t="shared" si="19"/>
+        <v>12</v>
+      </c>
+      <c r="AK36" s="22">
+        <f t="shared" si="20"/>
         <v>11</v>
       </c>
-      <c r="AI36" s="41">
-        <f t="shared" si="18"/>
-        <v>27</v>
-      </c>
-      <c r="AJ36" s="41">
-        <f t="shared" si="19"/>
-        <v>3</v>
-      </c>
-      <c r="AK36" s="41">
-        <f t="shared" si="20"/>
-        <v>2</v>
-      </c>
-      <c r="AL36" s="41">
+      <c r="AL36" s="22">
         <f t="shared" si="21"/>
-        <v>109</v>
-      </c>
-      <c r="AM36" s="41">
+        <v>13</v>
+      </c>
+      <c r="AM36" s="22">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AN36" s="41">
+        <v>15</v>
+      </c>
+      <c r="AN36" s="22">
         <f t="shared" si="23"/>
-        <v>4</v>
-      </c>
-      <c r="AO36" s="41">
+        <v>15</v>
+      </c>
+      <c r="AO36" s="22">
         <f t="shared" si="24"/>
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="AP36" s="17">
         <f t="shared" si="25"/>
         <v>211</v>
       </c>
       <c r="AQ36" s="12"/>
-      <c r="AR36" s="42">
+      <c r="AR36" s="23">
         <f>AL36/AP36</f>
-        <v>0.51658767772511849</v>
+        <v>6.1611374407582936E-2</v>
       </c>
       <c r="AS36" s="12"/>
     </row>
     <row r="37" spans="1:45" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="12"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="37" t="str">
+      <c r="B37" s="68"/>
+      <c r="C37" s="74" t="str">
         <f t="shared" si="4"/>
         <v>kitchen</v>
       </c>
-      <c r="D37" s="38"/>
+      <c r="D37" s="75"/>
       <c r="E37" s="6">
         <f t="shared" ref="E37:S37" si="36">E14/$T14</f>
-        <v>0</v>
+        <v>8.1818181818181818E-2</v>
       </c>
       <c r="F37" s="7">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>5.4545454545454543E-2</v>
       </c>
       <c r="G37" s="7">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>6.363636363636363E-2</v>
       </c>
       <c r="H37" s="7">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>6.363636363636363E-2</v>
       </c>
       <c r="I37" s="7">
         <f t="shared" si="36"/>
-        <v>3.6363636363636362E-2</v>
+        <v>2.7272727272727271E-2</v>
       </c>
       <c r="J37" s="7">
         <f t="shared" si="36"/>
-        <v>9.0909090909090905E-3</v>
+        <v>5.4545454545454543E-2</v>
       </c>
       <c r="K37" s="7">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>8.1818181818181818E-2</v>
       </c>
       <c r="L37" s="7">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="M37" s="7">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>6.363636363636363E-2</v>
       </c>
       <c r="N37" s="7">
         <f t="shared" si="36"/>
-        <v>1.8181818181818181E-2</v>
+        <v>6.363636363636363E-2</v>
       </c>
       <c r="O37" s="7">
         <f t="shared" si="36"/>
@@ -4472,19 +4472,19 @@
       </c>
       <c r="P37" s="7">
         <f t="shared" si="36"/>
-        <v>1.8181818181818181E-2</v>
+        <v>5.4545454545454543E-2</v>
       </c>
       <c r="Q37" s="7">
         <f t="shared" si="36"/>
-        <v>0.63636363636363635</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="R37" s="7">
         <f t="shared" si="36"/>
-        <v>0.18181818181818182</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="S37" s="8">
         <f t="shared" si="36"/>
-        <v>2.7272727272727271E-2</v>
+        <v>4.5454545454545456E-2</v>
       </c>
       <c r="T37" s="18">
         <f t="shared" si="8"/>
@@ -4492,150 +4492,150 @@
       </c>
       <c r="U37" s="12"/>
       <c r="W37" s="12"/>
-      <c r="X37" s="24"/>
-      <c r="Y37" s="72" t="str">
+      <c r="X37" s="68"/>
+      <c r="Y37" s="55" t="str">
         <f t="shared" si="9"/>
         <v>kitchen</v>
       </c>
-      <c r="Z37" s="78"/>
-      <c r="AA37" s="69">
+      <c r="Z37" s="56"/>
+      <c r="AA37" s="49">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AB37" s="41">
+        <v>9</v>
+      </c>
+      <c r="AB37" s="22">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AC37" s="41">
+        <v>6</v>
+      </c>
+      <c r="AC37" s="22">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AD37" s="41">
+        <v>7</v>
+      </c>
+      <c r="AD37" s="22">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AE37" s="41">
+        <v>7</v>
+      </c>
+      <c r="AE37" s="22">
         <f t="shared" si="14"/>
-        <v>4</v>
-      </c>
-      <c r="AF37" s="41">
+        <v>3</v>
+      </c>
+      <c r="AF37" s="22">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AG37" s="41">
+        <v>6</v>
+      </c>
+      <c r="AG37" s="22">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AH37" s="41">
+        <v>9</v>
+      </c>
+      <c r="AH37" s="22">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AI37" s="41">
+        <v>10</v>
+      </c>
+      <c r="AI37" s="22">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AJ37" s="41">
+        <v>7</v>
+      </c>
+      <c r="AJ37" s="22">
         <f t="shared" si="19"/>
-        <v>2</v>
-      </c>
-      <c r="AK37" s="41">
+        <v>7</v>
+      </c>
+      <c r="AK37" s="22">
         <f t="shared" si="20"/>
         <v>8</v>
       </c>
-      <c r="AL37" s="41">
+      <c r="AL37" s="22">
         <f t="shared" si="21"/>
-        <v>2</v>
-      </c>
-      <c r="AM37" s="41">
+        <v>6</v>
+      </c>
+      <c r="AM37" s="22">
         <f t="shared" si="22"/>
-        <v>70</v>
-      </c>
-      <c r="AN37" s="41">
+        <v>10</v>
+      </c>
+      <c r="AN37" s="22">
         <f t="shared" si="23"/>
-        <v>20</v>
-      </c>
-      <c r="AO37" s="41">
+        <v>10</v>
+      </c>
+      <c r="AO37" s="22">
         <f t="shared" si="24"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AP37" s="17">
         <f t="shared" si="25"/>
         <v>110</v>
       </c>
       <c r="AQ37" s="12"/>
-      <c r="AR37" s="42">
+      <c r="AR37" s="23">
         <f>AM37/AP37</f>
-        <v>0.63636363636363635</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="AS37" s="12"/>
     </row>
     <row r="38" spans="1:45" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="12"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="37" t="str">
+      <c r="B38" s="68"/>
+      <c r="C38" s="74" t="str">
         <f t="shared" si="4"/>
         <v>livingroom</v>
       </c>
-      <c r="D38" s="38"/>
+      <c r="D38" s="75"/>
       <c r="E38" s="6">
         <f t="shared" ref="E38:S38" si="37">E15/$T15</f>
-        <v>5.2910052910052907E-3</v>
+        <v>6.8783068783068779E-2</v>
       </c>
       <c r="F38" s="7">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>7.407407407407407E-2</v>
       </c>
       <c r="G38" s="7">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>3.7037037037037035E-2</v>
       </c>
       <c r="H38" s="7">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>5.8201058201058198E-2</v>
       </c>
       <c r="I38" s="7">
         <f t="shared" si="37"/>
-        <v>1.0582010582010581E-2</v>
+        <v>5.8201058201058198E-2</v>
       </c>
       <c r="J38" s="7">
         <f t="shared" si="37"/>
-        <v>1.0582010582010581E-2</v>
+        <v>6.8783068783068779E-2</v>
       </c>
       <c r="K38" s="7">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>6.8783068783068779E-2</v>
       </c>
       <c r="L38" s="7">
         <f t="shared" si="37"/>
-        <v>1.0582010582010581E-2</v>
+        <v>7.407407407407407E-2</v>
       </c>
       <c r="M38" s="7">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>6.8783068783068779E-2</v>
       </c>
       <c r="N38" s="7">
         <f t="shared" si="37"/>
-        <v>2.1164021164021163E-2</v>
+        <v>6.3492063492063489E-2</v>
       </c>
       <c r="O38" s="7">
         <f t="shared" si="37"/>
-        <v>7.407407407407407E-2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
       <c r="P38" s="7">
         <f t="shared" si="37"/>
-        <v>3.1746031746031744E-2</v>
+        <v>5.8201058201058198E-2</v>
       </c>
       <c r="Q38" s="7">
         <f t="shared" si="37"/>
-        <v>5.8201058201058198E-2</v>
+        <v>0.10052910052910052</v>
       </c>
       <c r="R38" s="7">
         <f t="shared" si="37"/>
-        <v>0.7142857142857143</v>
+        <v>7.9365079365079361E-2</v>
       </c>
       <c r="S38" s="8">
         <f t="shared" si="37"/>
-        <v>6.3492063492063489E-2</v>
+        <v>7.407407407407407E-2</v>
       </c>
       <c r="T38" s="18">
         <f t="shared" si="8"/>
@@ -4643,150 +4643,150 @@
       </c>
       <c r="U38" s="12"/>
       <c r="W38" s="12"/>
-      <c r="X38" s="24"/>
-      <c r="Y38" s="72" t="str">
+      <c r="X38" s="68"/>
+      <c r="Y38" s="55" t="str">
         <f t="shared" si="9"/>
         <v>livingroom</v>
       </c>
-      <c r="Z38" s="78"/>
-      <c r="AA38" s="69">
+      <c r="Z38" s="56"/>
+      <c r="AA38" s="49">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="AB38" s="41">
+        <v>13</v>
+      </c>
+      <c r="AB38" s="22">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AC38" s="41">
+        <v>14</v>
+      </c>
+      <c r="AC38" s="22">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AD38" s="41">
+        <v>7</v>
+      </c>
+      <c r="AD38" s="22">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AE38" s="41">
+        <v>11</v>
+      </c>
+      <c r="AE38" s="22">
         <f t="shared" si="14"/>
-        <v>2</v>
-      </c>
-      <c r="AF38" s="41">
+        <v>11</v>
+      </c>
+      <c r="AF38" s="22">
         <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="AG38" s="41">
+        <v>13</v>
+      </c>
+      <c r="AG38" s="22">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AH38" s="41">
+        <v>13</v>
+      </c>
+      <c r="AH38" s="22">
         <f t="shared" si="17"/>
-        <v>2</v>
-      </c>
-      <c r="AI38" s="41">
+        <v>14</v>
+      </c>
+      <c r="AI38" s="22">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AJ38" s="41">
+        <v>13</v>
+      </c>
+      <c r="AJ38" s="22">
         <f t="shared" si="19"/>
-        <v>4</v>
-      </c>
-      <c r="AK38" s="41">
+        <v>12</v>
+      </c>
+      <c r="AK38" s="22">
         <f t="shared" si="20"/>
+        <v>9</v>
+      </c>
+      <c r="AL38" s="22">
+        <f t="shared" si="21"/>
+        <v>11</v>
+      </c>
+      <c r="AM38" s="22">
+        <f t="shared" si="22"/>
+        <v>19</v>
+      </c>
+      <c r="AN38" s="22">
+        <f t="shared" si="23"/>
+        <v>15</v>
+      </c>
+      <c r="AO38" s="22">
+        <f t="shared" si="24"/>
         <v>14</v>
-      </c>
-      <c r="AL38" s="41">
-        <f t="shared" si="21"/>
-        <v>6</v>
-      </c>
-      <c r="AM38" s="41">
-        <f t="shared" si="22"/>
-        <v>11</v>
-      </c>
-      <c r="AN38" s="41">
-        <f t="shared" si="23"/>
-        <v>135</v>
-      </c>
-      <c r="AO38" s="41">
-        <f t="shared" si="24"/>
-        <v>12</v>
       </c>
       <c r="AP38" s="17">
         <f t="shared" si="25"/>
         <v>189</v>
       </c>
       <c r="AQ38" s="12"/>
-      <c r="AR38" s="42">
+      <c r="AR38" s="23">
         <f>AN38/AP38</f>
-        <v>0.7142857142857143</v>
+        <v>7.9365079365079361E-2</v>
       </c>
       <c r="AS38" s="12"/>
     </row>
     <row r="39" spans="1:45" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="12"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="39" t="str">
+      <c r="B39" s="69"/>
+      <c r="C39" s="76" t="str">
         <f t="shared" si="4"/>
         <v>store</v>
       </c>
-      <c r="D39" s="40"/>
+      <c r="D39" s="77"/>
       <c r="E39" s="9">
         <f t="shared" ref="E39:S39" si="38">E16/$T16</f>
-        <v>0</v>
+        <v>5.1162790697674418E-2</v>
       </c>
       <c r="F39" s="10">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>7.9069767441860464E-2</v>
       </c>
       <c r="G39" s="10">
         <f t="shared" si="38"/>
-        <v>1.3953488372093023E-2</v>
+        <v>5.5813953488372092E-2</v>
       </c>
       <c r="H39" s="10">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>6.9767441860465115E-2</v>
       </c>
       <c r="I39" s="10">
         <f t="shared" si="38"/>
-        <v>6.5116279069767441E-2</v>
+        <v>2.7906976744186046E-2</v>
       </c>
       <c r="J39" s="10">
         <f t="shared" si="38"/>
-        <v>1.8604651162790697E-2</v>
+        <v>6.9767441860465115E-2</v>
       </c>
       <c r="K39" s="10">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>5.5813953488372092E-2</v>
       </c>
       <c r="L39" s="10">
         <f t="shared" si="38"/>
-        <v>2.7906976744186046E-2</v>
+        <v>0.10232558139534884</v>
       </c>
       <c r="M39" s="10">
         <f t="shared" si="38"/>
-        <v>5.5813953488372092E-2</v>
+        <v>6.5116279069767441E-2</v>
       </c>
       <c r="N39" s="10">
         <f t="shared" si="38"/>
-        <v>1.3953488372093023E-2</v>
+        <v>6.0465116279069767E-2</v>
       </c>
       <c r="O39" s="10">
         <f t="shared" si="38"/>
-        <v>9.3023255813953487E-3</v>
+        <v>8.3720930232558138E-2</v>
       </c>
       <c r="P39" s="10">
         <f t="shared" si="38"/>
-        <v>1.3953488372093023E-2</v>
+        <v>5.1162790697674418E-2</v>
       </c>
       <c r="Q39" s="10">
         <f t="shared" si="38"/>
-        <v>2.3255813953488372E-2</v>
+        <v>6.9767441860465115E-2</v>
       </c>
       <c r="R39" s="10">
         <f t="shared" si="38"/>
-        <v>6.5116279069767441E-2</v>
+        <v>9.3023255813953487E-2</v>
       </c>
       <c r="S39" s="11">
         <f t="shared" si="38"/>
-        <v>0.69302325581395352</v>
+        <v>6.5116279069767441E-2</v>
       </c>
       <c r="T39" s="18">
         <f t="shared" si="8"/>
@@ -4794,149 +4794,149 @@
       </c>
       <c r="U39" s="12"/>
       <c r="W39" s="12"/>
-      <c r="X39" s="25"/>
-      <c r="Y39" s="79" t="str">
+      <c r="X39" s="69"/>
+      <c r="Y39" s="57" t="str">
         <f t="shared" si="9"/>
         <v>store</v>
       </c>
-      <c r="Z39" s="80"/>
-      <c r="AA39" s="69">
+      <c r="Z39" s="58"/>
+      <c r="AA39" s="49">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AB39" s="41">
+        <v>11</v>
+      </c>
+      <c r="AB39" s="22">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AC39" s="41">
+        <v>17</v>
+      </c>
+      <c r="AC39" s="22">
         <f t="shared" si="12"/>
-        <v>3</v>
-      </c>
-      <c r="AD39" s="41">
+        <v>12</v>
+      </c>
+      <c r="AD39" s="22">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AE39" s="41">
+        <v>15</v>
+      </c>
+      <c r="AE39" s="22">
         <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="AF39" s="22">
+        <f t="shared" si="15"/>
+        <v>15</v>
+      </c>
+      <c r="AG39" s="22">
+        <f t="shared" si="16"/>
+        <v>12</v>
+      </c>
+      <c r="AH39" s="22">
+        <f t="shared" si="17"/>
+        <v>22</v>
+      </c>
+      <c r="AI39" s="22">
+        <f t="shared" si="18"/>
         <v>14</v>
       </c>
-      <c r="AF39" s="41">
-        <f t="shared" si="15"/>
-        <v>4</v>
-      </c>
-      <c r="AG39" s="41">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AH39" s="41">
-        <f t="shared" si="17"/>
-        <v>6</v>
-      </c>
-      <c r="AI39" s="41">
-        <f t="shared" si="18"/>
-        <v>12</v>
-      </c>
-      <c r="AJ39" s="41">
+      <c r="AJ39" s="22">
         <f t="shared" si="19"/>
-        <v>3</v>
-      </c>
-      <c r="AK39" s="41">
+        <v>13</v>
+      </c>
+      <c r="AK39" s="22">
         <f t="shared" si="20"/>
-        <v>2</v>
-      </c>
-      <c r="AL39" s="41">
+        <v>18</v>
+      </c>
+      <c r="AL39" s="22">
         <f t="shared" si="21"/>
-        <v>3</v>
-      </c>
-      <c r="AM39" s="41">
+        <v>11</v>
+      </c>
+      <c r="AM39" s="22">
         <f t="shared" si="22"/>
-        <v>5</v>
-      </c>
-      <c r="AN39" s="41">
+        <v>15</v>
+      </c>
+      <c r="AN39" s="22">
         <f t="shared" si="23"/>
+        <v>20</v>
+      </c>
+      <c r="AO39" s="22">
+        <f t="shared" si="24"/>
         <v>14</v>
-      </c>
-      <c r="AO39" s="41">
-        <f t="shared" si="24"/>
-        <v>149</v>
       </c>
       <c r="AP39" s="17">
         <f t="shared" si="25"/>
         <v>215</v>
       </c>
       <c r="AQ39" s="12"/>
-      <c r="AR39" s="42">
+      <c r="AR39" s="23">
         <f>AO39/AP39</f>
-        <v>0.69302325581395352</v>
+        <v>6.5116279069767441E-2</v>
       </c>
       <c r="AS39" s="12"/>
     </row>
     <row r="40" spans="1:45" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="12"/>
-      <c r="B40" s="29" t="s">
+      <c r="B40" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="30"/>
-      <c r="D40" s="31"/>
+      <c r="C40" s="79"/>
+      <c r="D40" s="80"/>
       <c r="E40" s="14">
         <f>E18</f>
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="F40" s="15">
         <f t="shared" ref="F40:S40" si="39">F18</f>
-        <v>278</v>
+        <v>213</v>
       </c>
       <c r="G40" s="15">
         <f t="shared" si="39"/>
-        <v>247</v>
+        <v>199</v>
       </c>
       <c r="H40" s="15">
         <f t="shared" si="39"/>
-        <v>133</v>
+        <v>191</v>
       </c>
       <c r="I40" s="15">
         <f t="shared" si="39"/>
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="J40" s="15">
         <f t="shared" si="39"/>
-        <v>294</v>
+        <v>193</v>
       </c>
       <c r="K40" s="15">
         <f t="shared" si="39"/>
-        <v>268</v>
+        <v>219</v>
       </c>
       <c r="L40" s="15">
         <f t="shared" si="39"/>
-        <v>236</v>
+        <v>202</v>
       </c>
       <c r="M40" s="15">
         <f t="shared" si="39"/>
-        <v>287</v>
+        <v>211</v>
       </c>
       <c r="N40" s="15">
         <f t="shared" si="39"/>
-        <v>120</v>
+        <v>197</v>
       </c>
       <c r="O40" s="15">
         <f t="shared" si="39"/>
-        <v>100</v>
+        <v>204</v>
       </c>
       <c r="P40" s="15">
         <f t="shared" si="39"/>
-        <v>151</v>
+        <v>197</v>
       </c>
       <c r="Q40" s="15">
         <f t="shared" si="39"/>
-        <v>101</v>
+        <v>212</v>
       </c>
       <c r="R40" s="15">
         <f t="shared" si="39"/>
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="S40" s="15">
         <f t="shared" si="39"/>
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="T40" s="16">
         <f>T18</f>
@@ -4944,79 +4944,79 @@
       </c>
       <c r="U40" s="12"/>
       <c r="W40" s="12"/>
-      <c r="X40" s="75" t="s">
+      <c r="X40" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="Y40" s="70"/>
-      <c r="Z40" s="71"/>
+      <c r="Y40" s="60"/>
+      <c r="Z40" s="61"/>
       <c r="AA40" s="14">
         <f>E40</f>
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="AB40" s="14">
         <f t="shared" ref="AB40:AP40" si="40">F40</f>
-        <v>278</v>
+        <v>213</v>
       </c>
       <c r="AC40" s="14">
         <f t="shared" si="40"/>
-        <v>247</v>
+        <v>199</v>
       </c>
       <c r="AD40" s="14">
         <f t="shared" si="40"/>
-        <v>133</v>
+        <v>191</v>
       </c>
       <c r="AE40" s="14">
         <f t="shared" si="40"/>
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="AF40" s="14">
         <f t="shared" si="40"/>
-        <v>294</v>
+        <v>193</v>
       </c>
       <c r="AG40" s="14">
         <f t="shared" si="40"/>
-        <v>268</v>
+        <v>219</v>
       </c>
       <c r="AH40" s="14">
         <f t="shared" si="40"/>
-        <v>236</v>
+        <v>202</v>
       </c>
       <c r="AI40" s="14">
         <f t="shared" si="40"/>
-        <v>287</v>
+        <v>211</v>
       </c>
       <c r="AJ40" s="14">
         <f t="shared" si="40"/>
-        <v>120</v>
+        <v>197</v>
       </c>
       <c r="AK40" s="14">
         <f t="shared" si="40"/>
-        <v>100</v>
+        <v>204</v>
       </c>
       <c r="AL40" s="14">
         <f t="shared" si="40"/>
-        <v>151</v>
+        <v>197</v>
       </c>
       <c r="AM40" s="14">
         <f t="shared" si="40"/>
-        <v>101</v>
+        <v>212</v>
       </c>
       <c r="AN40" s="14">
         <f t="shared" si="40"/>
-        <v>205</v>
-      </c>
-      <c r="AO40" s="44">
+        <v>196</v>
+      </c>
+      <c r="AO40" s="24">
         <f t="shared" si="40"/>
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="AP40" s="16">
         <f t="shared" si="40"/>
         <v>2985</v>
       </c>
       <c r="AQ40" s="12"/>
-      <c r="AR40" s="46">
+      <c r="AR40" s="26">
         <f>AVERAGE(AR25:AR39)</f>
-        <v>0.77480913782996774</v>
+        <v>7.568128033189718E-2</v>
       </c>
       <c r="AS40" s="12"/>
     </row>
@@ -5083,15 +5083,15 @@
       <c r="N42" s="13"/>
       <c r="O42" s="13"/>
       <c r="P42" s="13"/>
-      <c r="Q42" s="19" t="s">
+      <c r="Q42" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="R42" s="19"/>
-      <c r="S42" s="43">
+      <c r="R42" s="62"/>
+      <c r="S42" s="52">
         <f>AVERAGE(E25,F26,G27,H28,I29,J30,K31,L32,M33,N34,O35,P36,Q37,R38,S39)</f>
-        <v>0.77480913782996774</v>
-      </c>
-      <c r="T42" s="43"/>
+        <v>7.568128033189718E-2</v>
+      </c>
+      <c r="T42" s="52"/>
       <c r="U42" s="13"/>
       <c r="W42" s="13"/>
       <c r="X42" s="13"/>
@@ -5109,15 +5109,15 @@
       <c r="AJ42" s="13"/>
       <c r="AK42" s="13"/>
       <c r="AL42" s="13"/>
-      <c r="AM42" s="19" t="s">
+      <c r="AM42" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="AN42" s="19"/>
-      <c r="AO42" s="43">
+      <c r="AN42" s="62"/>
+      <c r="AO42" s="52">
         <f>S42</f>
-        <v>0.77480913782996774</v>
-      </c>
-      <c r="AP42" s="43"/>
+        <v>7.568128033189718E-2</v>
+      </c>
+      <c r="AP42" s="52"/>
       <c r="AQ42" s="13"/>
       <c r="AR42" s="12"/>
       <c r="AS42" s="12"/>
@@ -5170,13 +5170,28 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="AO42:AP42"/>
-    <mergeCell ref="AR23:AR24"/>
-    <mergeCell ref="Y37:Z37"/>
-    <mergeCell ref="Y38:Z38"/>
-    <mergeCell ref="Y39:Z39"/>
-    <mergeCell ref="X40:Z40"/>
-    <mergeCell ref="AM42:AN42"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E23:S23"/>
+    <mergeCell ref="B25:B39"/>
+    <mergeCell ref="T23:T24"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C33:D33"/>
     <mergeCell ref="X21:Y21"/>
     <mergeCell ref="AA23:AO23"/>
     <mergeCell ref="AP23:AP24"/>
@@ -5193,28 +5208,13 @@
     <mergeCell ref="Y34:Z34"/>
     <mergeCell ref="Y35:Z35"/>
     <mergeCell ref="Y36:Z36"/>
-    <mergeCell ref="E23:S23"/>
-    <mergeCell ref="B25:B39"/>
-    <mergeCell ref="T23:T24"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="AO42:AP42"/>
+    <mergeCell ref="AR23:AR24"/>
+    <mergeCell ref="Y37:Z37"/>
+    <mergeCell ref="Y38:Z38"/>
+    <mergeCell ref="Y39:Z39"/>
+    <mergeCell ref="X40:Z40"/>
+    <mergeCell ref="AM42:AN42"/>
   </mergeCells>
   <conditionalFormatting sqref="E25:S39">
     <cfRule type="colorScale" priority="24">
